--- a/Benchmarking/garnet/PT_Sudholz.xlsx
+++ b/Benchmarking/garnet/PT_Sudholz.xlsx
@@ -55,7 +55,7 @@
     <t xml:space="preserve">CaO_Gt</t>
   </si>
   <si>
-    <t xml:space="preserve">NaO2_Gt</t>
+    <t xml:space="preserve">Na2O_Gt</t>
   </si>
   <si>
     <t xml:space="preserve">K2O_Gt</t>
@@ -475,13 +475,9 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -532,17 +528,16 @@
   <dimension ref="A1:N118"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
+      <selection pane="topLeft" activeCell="L2" activeCellId="0" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="18.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="16.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="16.6"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="5" style="3" width="11.52"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="14" min="6" style="4" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="1" width="16.6"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="14" min="6" style="3" width="11.52"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="15" style="0" width="11.52"/>
   </cols>
   <sheetData>
@@ -559,34 +554,34 @@
       <c r="D1" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -597,34 +592,36 @@
       <c r="B2" s="0" t="n">
         <v>989.535981378252</v>
       </c>
-      <c r="C2" s="5" t="n">
+      <c r="C2" s="4" t="n">
         <v>925.969146118349</v>
       </c>
-      <c r="D2" s="6" t="n">
+      <c r="D2" s="5" t="n">
         <v>25.0301863456747</v>
       </c>
-      <c r="E2" s="7" t="n">
+      <c r="E2" s="6" t="n">
         <v>41.48645</v>
       </c>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8" t="n">
+      <c r="F2" s="7"/>
+      <c r="G2" s="7" t="n">
         <v>19.1723</v>
       </c>
-      <c r="H2" s="8" t="n">
+      <c r="H2" s="7" t="n">
         <v>7.37395</v>
       </c>
-      <c r="I2" s="8" t="n">
+      <c r="I2" s="7" t="n">
         <v>0.46185</v>
       </c>
-      <c r="J2" s="8" t="n">
+      <c r="J2" s="7" t="n">
         <v>18.9488</v>
       </c>
-      <c r="K2" s="8" t="n">
+      <c r="K2" s="7" t="n">
         <v>6.485</v>
       </c>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8" t="n">
+      <c r="L2" s="7"/>
+      <c r="M2" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" s="7" t="n">
         <v>6.56725</v>
       </c>
     </row>
@@ -635,38 +632,40 @@
       <c r="B3" s="0" t="n">
         <v>1222.87657839265</v>
       </c>
-      <c r="C3" s="5" t="n">
+      <c r="C3" s="4" t="n">
         <v>1057.97094758787</v>
       </c>
-      <c r="D3" s="6" t="n">
+      <c r="D3" s="5" t="n">
         <v>51.7120213667152</v>
       </c>
-      <c r="E3" s="7" t="n">
+      <c r="E3" s="6" t="n">
         <v>40.73575</v>
       </c>
-      <c r="F3" s="8" t="n">
+      <c r="F3" s="7" t="n">
         <v>0.1273</v>
       </c>
-      <c r="G3" s="8" t="n">
+      <c r="G3" s="7" t="n">
         <v>14.86005</v>
       </c>
-      <c r="H3" s="8" t="n">
+      <c r="H3" s="7" t="n">
         <v>7.63295</v>
       </c>
-      <c r="I3" s="8" t="n">
+      <c r="I3" s="7" t="n">
         <v>0.39815</v>
       </c>
-      <c r="J3" s="8" t="n">
+      <c r="J3" s="7" t="n">
         <v>18.75015</v>
       </c>
-      <c r="K3" s="8" t="n">
+      <c r="K3" s="7" t="n">
         <v>6.29945</v>
       </c>
-      <c r="L3" s="8" t="n">
+      <c r="L3" s="7" t="n">
         <v>0.0649</v>
       </c>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8" t="n">
+      <c r="M3" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" s="7" t="n">
         <v>11.273</v>
       </c>
     </row>
@@ -677,38 +676,40 @@
       <c r="B4" s="0" t="n">
         <v>987.027585303443</v>
       </c>
-      <c r="C4" s="5" t="n">
+      <c r="C4" s="4" t="n">
         <v>947.68779175408</v>
       </c>
-      <c r="D4" s="6" t="n">
+      <c r="D4" s="5" t="n">
         <v>28.51</v>
       </c>
-      <c r="E4" s="7" t="n">
+      <c r="E4" s="6" t="n">
         <v>41.7059</v>
       </c>
-      <c r="F4" s="8" t="n">
+      <c r="F4" s="7" t="n">
         <v>0.2635</v>
       </c>
-      <c r="G4" s="8" t="n">
+      <c r="G4" s="7" t="n">
         <v>19.4653</v>
       </c>
-      <c r="H4" s="8" t="n">
+      <c r="H4" s="7" t="n">
         <v>8.5435</v>
       </c>
-      <c r="I4" s="8" t="n">
+      <c r="I4" s="7" t="n">
         <v>0.49665</v>
       </c>
-      <c r="J4" s="8" t="n">
+      <c r="J4" s="7" t="n">
         <v>19.34465</v>
       </c>
-      <c r="K4" s="8" t="n">
+      <c r="K4" s="7" t="n">
         <v>5.46595</v>
       </c>
-      <c r="L4" s="8" t="n">
+      <c r="L4" s="7" t="n">
         <v>0.0589</v>
       </c>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8" t="n">
+      <c r="M4" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" s="7" t="n">
         <v>5.44615</v>
       </c>
     </row>
@@ -719,34 +720,36 @@
       <c r="B5" s="0" t="n">
         <v>1058.13128349887</v>
       </c>
-      <c r="C5" s="5" t="n">
+      <c r="C5" s="4" t="n">
         <v>984.678861990497</v>
       </c>
-      <c r="D5" s="6" t="n">
+      <c r="D5" s="5" t="n">
         <v>35.22</v>
       </c>
-      <c r="E5" s="7" t="n">
+      <c r="E5" s="6" t="n">
         <v>41.7661</v>
       </c>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8" t="n">
+      <c r="F5" s="7"/>
+      <c r="G5" s="7" t="n">
         <v>19.1789</v>
       </c>
-      <c r="H5" s="8" t="n">
+      <c r="H5" s="7" t="n">
         <v>7.1351</v>
       </c>
-      <c r="I5" s="8" t="n">
+      <c r="I5" s="7" t="n">
         <v>0.4108</v>
       </c>
-      <c r="J5" s="8" t="n">
+      <c r="J5" s="7" t="n">
         <v>19.366</v>
       </c>
-      <c r="K5" s="8" t="n">
+      <c r="K5" s="7" t="n">
         <v>6.3878</v>
       </c>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8" t="n">
+      <c r="L5" s="7"/>
+      <c r="M5" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" s="7" t="n">
         <v>6.7152</v>
       </c>
     </row>
@@ -757,36 +760,38 @@
       <c r="B6" s="0" t="n">
         <v>1386.9926357046</v>
       </c>
-      <c r="C6" s="5" t="n">
+      <c r="C6" s="4" t="n">
         <v>1261.42161286537</v>
       </c>
-      <c r="D6" s="6" t="n">
+      <c r="D6" s="5" t="n">
         <v>123.91</v>
       </c>
-      <c r="E6" s="7" t="n">
+      <c r="E6" s="6" t="n">
         <v>42.1129</v>
       </c>
-      <c r="F6" s="8" t="n">
+      <c r="F6" s="7" t="n">
         <v>0.1593</v>
       </c>
-      <c r="G6" s="8" t="n">
+      <c r="G6" s="7" t="n">
         <v>17.8954</v>
       </c>
-      <c r="H6" s="8" t="n">
+      <c r="H6" s="7" t="n">
         <v>6.7546</v>
       </c>
-      <c r="I6" s="8" t="n">
+      <c r="I6" s="7" t="n">
         <v>0.3</v>
       </c>
-      <c r="J6" s="8" t="n">
+      <c r="J6" s="7" t="n">
         <v>20.4101</v>
       </c>
-      <c r="K6" s="8" t="n">
+      <c r="K6" s="7" t="n">
         <v>5.5754</v>
       </c>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8" t="n">
+      <c r="L6" s="7"/>
+      <c r="M6" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" s="7" t="n">
         <v>7.0343</v>
       </c>
     </row>
@@ -797,36 +802,38 @@
       <c r="B7" s="0" t="n">
         <v>1246.71051451494</v>
       </c>
-      <c r="C7" s="5" t="n">
+      <c r="C7" s="4" t="n">
         <v>1182.99655821858</v>
       </c>
-      <c r="D7" s="6" t="n">
+      <c r="D7" s="5" t="n">
         <v>91.0699644553216</v>
       </c>
-      <c r="E7" s="7" t="n">
+      <c r="E7" s="6" t="n">
         <v>42.14795</v>
       </c>
-      <c r="F7" s="8" t="n">
+      <c r="F7" s="7" t="n">
         <v>0.4009</v>
       </c>
-      <c r="G7" s="8" t="n">
+      <c r="G7" s="7" t="n">
         <v>19.25065</v>
       </c>
-      <c r="H7" s="8" t="n">
+      <c r="H7" s="7" t="n">
         <v>7.27985</v>
       </c>
-      <c r="I7" s="8" t="n">
+      <c r="I7" s="7" t="n">
         <v>0.3037</v>
       </c>
-      <c r="J7" s="8" t="n">
+      <c r="J7" s="7" t="n">
         <v>20.7067</v>
       </c>
-      <c r="K7" s="8" t="n">
+      <c r="K7" s="7" t="n">
         <v>5.45245</v>
       </c>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8" t="n">
+      <c r="L7" s="7"/>
+      <c r="M7" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" s="7" t="n">
         <v>4.77075</v>
       </c>
     </row>
@@ -837,36 +844,38 @@
       <c r="B8" s="0" t="n">
         <v>1254.73544909048</v>
       </c>
-      <c r="C8" s="5" t="n">
+      <c r="C8" s="4" t="n">
         <v>1166.08083805694</v>
       </c>
-      <c r="D8" s="6" t="n">
+      <c r="D8" s="5" t="n">
         <v>84.8436426703313</v>
       </c>
-      <c r="E8" s="7" t="n">
+      <c r="E8" s="6" t="n">
         <v>41.866</v>
       </c>
-      <c r="F8" s="8" t="n">
+      <c r="F8" s="7" t="n">
         <v>0.6767</v>
       </c>
-      <c r="G8" s="8" t="n">
+      <c r="G8" s="7" t="n">
         <v>18.1736</v>
       </c>
-      <c r="H8" s="8" t="n">
+      <c r="H8" s="7" t="n">
         <v>7.3572</v>
       </c>
-      <c r="I8" s="8" t="n">
+      <c r="I8" s="7" t="n">
         <v>0.3042</v>
       </c>
-      <c r="J8" s="8" t="n">
+      <c r="J8" s="7" t="n">
         <v>20.6034</v>
       </c>
-      <c r="K8" s="8" t="n">
+      <c r="K8" s="7" t="n">
         <v>5.8972</v>
       </c>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8" t="n">
+      <c r="L8" s="7"/>
+      <c r="M8" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" s="7" t="n">
         <v>5.8212</v>
       </c>
     </row>
@@ -877,38 +886,40 @@
       <c r="B9" s="0" t="n">
         <v>1196.95181001986</v>
       </c>
-      <c r="C9" s="5" t="n">
+      <c r="C9" s="4" t="n">
         <v>1146.19207903912</v>
       </c>
-      <c r="D9" s="6" t="n">
+      <c r="D9" s="5" t="n">
         <v>77.8968922062457</v>
       </c>
-      <c r="E9" s="7" t="n">
+      <c r="E9" s="6" t="n">
         <v>42.31307</v>
       </c>
-      <c r="F9" s="8" t="n">
+      <c r="F9" s="7" t="n">
         <v>0.493035</v>
       </c>
-      <c r="G9" s="8" t="n">
+      <c r="G9" s="7" t="n">
         <v>18.99977</v>
       </c>
-      <c r="H9" s="8" t="n">
+      <c r="H9" s="7" t="n">
         <v>7.999645</v>
       </c>
-      <c r="I9" s="8" t="n">
+      <c r="I9" s="7" t="n">
         <v>0.30922</v>
       </c>
-      <c r="J9" s="8" t="n">
+      <c r="J9" s="7" t="n">
         <v>20.693895</v>
       </c>
-      <c r="K9" s="8" t="n">
+      <c r="K9" s="7" t="n">
         <v>4.8826</v>
       </c>
-      <c r="L9" s="8" t="n">
+      <c r="L9" s="7" t="n">
         <v>0.05922</v>
       </c>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8" t="n">
+      <c r="M9" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" s="7" t="n">
         <v>5.000595</v>
       </c>
     </row>
@@ -919,38 +930,40 @@
       <c r="B10" s="0" t="n">
         <v>1123.1429884132</v>
       </c>
-      <c r="C10" s="5" t="n">
+      <c r="C10" s="4" t="n">
         <v>1134.51800539089</v>
       </c>
-      <c r="D10" s="6" t="n">
+      <c r="D10" s="5" t="n">
         <v>74.0040982060286</v>
       </c>
-      <c r="E10" s="7" t="n">
+      <c r="E10" s="6" t="n">
         <v>42.58855</v>
       </c>
-      <c r="F10" s="8" t="n">
+      <c r="F10" s="7" t="n">
         <v>0.49065</v>
       </c>
-      <c r="G10" s="8" t="n">
+      <c r="G10" s="7" t="n">
         <v>21.65575</v>
       </c>
-      <c r="H10" s="8" t="n">
+      <c r="H10" s="7" t="n">
         <v>7.97945</v>
       </c>
-      <c r="I10" s="8" t="n">
+      <c r="I10" s="7" t="n">
         <v>0.30845</v>
       </c>
-      <c r="J10" s="8" t="n">
+      <c r="J10" s="7" t="n">
         <v>21.4963</v>
       </c>
-      <c r="K10" s="8" t="n">
+      <c r="K10" s="7" t="n">
         <v>4.1251</v>
       </c>
-      <c r="L10" s="8" t="n">
+      <c r="L10" s="7" t="n">
         <v>0.0767</v>
       </c>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8" t="n">
+      <c r="M10" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" s="7" t="n">
         <v>2.01215</v>
       </c>
     </row>
@@ -961,38 +974,40 @@
       <c r="B11" s="0" t="n">
         <v>1306.97539138987</v>
       </c>
-      <c r="C11" s="5" t="n">
+      <c r="C11" s="4" t="n">
         <v>1241.14976189738</v>
       </c>
-      <c r="D11" s="6" t="n">
+      <c r="D11" s="5" t="n">
         <v>114.78</v>
       </c>
-      <c r="E11" s="7" t="n">
+      <c r="E11" s="6" t="n">
         <v>41.9871</v>
       </c>
-      <c r="F11" s="8" t="n">
+      <c r="F11" s="7" t="n">
         <v>0.2579</v>
       </c>
-      <c r="G11" s="8" t="n">
+      <c r="G11" s="7" t="n">
         <v>19.5553</v>
       </c>
-      <c r="H11" s="8" t="n">
+      <c r="H11" s="7" t="n">
         <v>7.3841</v>
       </c>
-      <c r="I11" s="8" t="n">
+      <c r="I11" s="7" t="n">
         <v>0.3117</v>
       </c>
-      <c r="J11" s="8" t="n">
+      <c r="J11" s="7" t="n">
         <v>20.6731</v>
       </c>
-      <c r="K11" s="8" t="n">
+      <c r="K11" s="7" t="n">
         <v>5.1415</v>
       </c>
-      <c r="L11" s="8" t="n">
+      <c r="L11" s="7" t="n">
         <v>0.0546</v>
       </c>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8" t="n">
+      <c r="M11" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" s="7" t="n">
         <v>4.7802</v>
       </c>
     </row>
@@ -1003,36 +1018,38 @@
       <c r="B12" s="0" t="n">
         <v>1314.01721019795</v>
       </c>
-      <c r="C12" s="5" t="n">
+      <c r="C12" s="4" t="n">
         <v>1151.77185716811</v>
       </c>
-      <c r="D12" s="6" t="n">
+      <c r="D12" s="5" t="n">
         <v>79.8054974813483</v>
       </c>
-      <c r="E12" s="7" t="n">
+      <c r="E12" s="6" t="n">
         <v>41.0462</v>
       </c>
-      <c r="F12" s="8" t="n">
+      <c r="F12" s="7" t="n">
         <v>0.2704</v>
       </c>
-      <c r="G12" s="8" t="n">
+      <c r="G12" s="7" t="n">
         <v>16.4651</v>
       </c>
-      <c r="H12" s="8" t="n">
+      <c r="H12" s="7" t="n">
         <v>7.0354</v>
       </c>
-      <c r="I12" s="8" t="n">
+      <c r="I12" s="7" t="n">
         <v>0.3433</v>
       </c>
-      <c r="J12" s="8" t="n">
+      <c r="J12" s="7" t="n">
         <v>19.2794</v>
       </c>
-      <c r="K12" s="8" t="n">
+      <c r="K12" s="7" t="n">
         <v>6.561</v>
       </c>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8" t="n">
+      <c r="L12" s="7"/>
+      <c r="M12" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" s="7" t="n">
         <v>9.2159</v>
       </c>
     </row>
@@ -1043,36 +1060,38 @@
       <c r="B13" s="0" t="n">
         <v>1237.41296774534</v>
       </c>
-      <c r="C13" s="5" t="n">
+      <c r="C13" s="4" t="n">
         <v>1229.02689655716</v>
       </c>
-      <c r="D13" s="6" t="n">
+      <c r="D13" s="5" t="n">
         <v>109.536639232344</v>
       </c>
-      <c r="E13" s="7" t="n">
+      <c r="E13" s="6" t="n">
         <v>42.4913</v>
       </c>
-      <c r="F13" s="8" t="n">
+      <c r="F13" s="7" t="n">
         <v>0.4324</v>
       </c>
-      <c r="G13" s="8" t="n">
+      <c r="G13" s="7" t="n">
         <v>21.0291</v>
       </c>
-      <c r="H13" s="8" t="n">
+      <c r="H13" s="7" t="n">
         <v>7.9685</v>
       </c>
-      <c r="I13" s="8" t="n">
+      <c r="I13" s="7" t="n">
         <v>0.2444</v>
       </c>
-      <c r="J13" s="8" t="n">
+      <c r="J13" s="7" t="n">
         <v>21.4277</v>
       </c>
-      <c r="K13" s="8" t="n">
+      <c r="K13" s="7" t="n">
         <v>4.3678</v>
       </c>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="8" t="n">
+      <c r="L13" s="7"/>
+      <c r="M13" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" s="7" t="n">
         <v>2.6306</v>
       </c>
     </row>
@@ -1083,38 +1102,40 @@
       <c r="B14" s="0" t="n">
         <v>1225.98640420027</v>
       </c>
-      <c r="C14" s="5" t="n">
+      <c r="C14" s="4" t="n">
         <v>1217.7398319456</v>
       </c>
-      <c r="D14" s="6" t="n">
+      <c r="D14" s="5" t="n">
         <v>104.798661414406</v>
       </c>
-      <c r="E14" s="7" t="n">
+      <c r="E14" s="6" t="n">
         <v>42.5355</v>
       </c>
-      <c r="F14" s="8" t="n">
+      <c r="F14" s="7" t="n">
         <v>0.4914</v>
       </c>
-      <c r="G14" s="8" t="n">
+      <c r="G14" s="7" t="n">
         <v>21.0386</v>
       </c>
-      <c r="H14" s="8" t="n">
+      <c r="H14" s="7" t="n">
         <v>8.3072</v>
       </c>
-      <c r="I14" s="8" t="n">
+      <c r="I14" s="7" t="n">
         <v>0.28545</v>
       </c>
-      <c r="J14" s="8" t="n">
+      <c r="J14" s="7" t="n">
         <v>21.22175</v>
       </c>
-      <c r="K14" s="8" t="n">
+      <c r="K14" s="7" t="n">
         <v>4.372</v>
       </c>
-      <c r="L14" s="8" t="n">
+      <c r="L14" s="7" t="n">
         <v>0.06375</v>
       </c>
-      <c r="M14" s="8"/>
-      <c r="N14" s="8" t="n">
+      <c r="M14" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" s="7" t="n">
         <v>2.6699</v>
       </c>
     </row>
@@ -1125,40 +1146,40 @@
       <c r="B15" s="0" t="n">
         <v>1217.40759214877</v>
       </c>
-      <c r="C15" s="5" t="n">
+      <c r="C15" s="4" t="n">
         <v>1183.86868574283</v>
       </c>
-      <c r="D15" s="6" t="n">
+      <c r="D15" s="5" t="n">
         <v>91.3990103104544</v>
       </c>
-      <c r="E15" s="7" t="n">
+      <c r="E15" s="6" t="n">
         <v>41.8</v>
       </c>
-      <c r="F15" s="8" t="n">
+      <c r="F15" s="7" t="n">
         <v>0.286</v>
       </c>
-      <c r="G15" s="8" t="n">
+      <c r="G15" s="7" t="n">
         <v>19.55</v>
       </c>
-      <c r="H15" s="8" t="n">
+      <c r="H15" s="7" t="n">
         <v>7.53</v>
       </c>
-      <c r="I15" s="8" t="n">
+      <c r="I15" s="7" t="n">
         <v>0.319</v>
       </c>
-      <c r="J15" s="8" t="n">
+      <c r="J15" s="7" t="n">
         <v>21.3</v>
       </c>
-      <c r="K15" s="8" t="n">
+      <c r="K15" s="7" t="n">
         <v>4.4</v>
       </c>
-      <c r="L15" s="8" t="n">
+      <c r="L15" s="7" t="n">
         <v>0.058</v>
       </c>
-      <c r="M15" s="8" t="n">
+      <c r="M15" s="7" t="n">
         <v>0.01</v>
       </c>
-      <c r="N15" s="8" t="n">
+      <c r="N15" s="7" t="n">
         <v>4.25</v>
       </c>
     </row>
@@ -1169,40 +1190,40 @@
       <c r="B16" s="0" t="n">
         <v>1211.03836499186</v>
       </c>
-      <c r="C16" s="5" t="n">
+      <c r="C16" s="4" t="n">
         <v>1156.05907694227</v>
       </c>
-      <c r="D16" s="6" t="n">
+      <c r="D16" s="5" t="n">
         <v>81.2932430382616</v>
       </c>
-      <c r="E16" s="7" t="n">
+      <c r="E16" s="6" t="n">
         <v>41.62</v>
       </c>
-      <c r="F16" s="8" t="n">
+      <c r="F16" s="7" t="n">
         <v>0.218</v>
       </c>
-      <c r="G16" s="8" t="n">
+      <c r="G16" s="7" t="n">
         <v>19.16</v>
       </c>
-      <c r="H16" s="8" t="n">
+      <c r="H16" s="7" t="n">
         <v>7.29</v>
       </c>
-      <c r="I16" s="8" t="n">
+      <c r="I16" s="7" t="n">
         <v>0.343</v>
       </c>
-      <c r="J16" s="8" t="n">
+      <c r="J16" s="7" t="n">
         <v>20.85</v>
       </c>
-      <c r="K16" s="8" t="n">
+      <c r="K16" s="7" t="n">
         <v>5.02</v>
       </c>
-      <c r="L16" s="8" t="n">
+      <c r="L16" s="7" t="n">
         <v>0.046</v>
       </c>
-      <c r="M16" s="8" t="n">
+      <c r="M16" s="7" t="n">
         <v>0.015</v>
       </c>
-      <c r="N16" s="8" t="n">
+      <c r="N16" s="7" t="n">
         <v>5.01</v>
       </c>
     </row>
@@ -1213,40 +1234,40 @@
       <c r="B17" s="0" t="n">
         <v>1404.73770661541</v>
       </c>
-      <c r="C17" s="5" t="n">
+      <c r="C17" s="4" t="n">
         <v>1224.25948959003</v>
       </c>
-      <c r="D17" s="6" t="n">
+      <c r="D17" s="5" t="n">
         <v>107.518580552285</v>
       </c>
-      <c r="E17" s="7" t="n">
+      <c r="E17" s="6" t="n">
         <v>41.2</v>
       </c>
-      <c r="F17" s="8" t="n">
+      <c r="F17" s="7" t="n">
         <v>0.87</v>
       </c>
-      <c r="G17" s="8" t="n">
+      <c r="G17" s="7" t="n">
         <v>14.9</v>
       </c>
-      <c r="H17" s="8" t="n">
+      <c r="H17" s="7" t="n">
         <v>7.26</v>
       </c>
-      <c r="I17" s="8" t="n">
+      <c r="I17" s="7" t="n">
         <v>0.35</v>
       </c>
-      <c r="J17" s="8" t="n">
+      <c r="J17" s="7" t="n">
         <v>19.6</v>
       </c>
-      <c r="K17" s="8" t="n">
+      <c r="K17" s="7" t="n">
         <v>6.26</v>
       </c>
-      <c r="L17" s="8" t="n">
+      <c r="L17" s="7" t="n">
         <v>0.06</v>
       </c>
-      <c r="M17" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" s="8" t="n">
+      <c r="M17" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" s="7" t="n">
         <v>8.56</v>
       </c>
     </row>
@@ -1257,40 +1278,40 @@
       <c r="B18" s="0" t="n">
         <v>1350.999364975</v>
       </c>
-      <c r="C18" s="5" t="n">
+      <c r="C18" s="4" t="n">
         <v>1277.02400473062</v>
       </c>
-      <c r="D18" s="6" t="n">
+      <c r="D18" s="5" t="n">
         <v>131.249536964469</v>
       </c>
-      <c r="E18" s="7" t="n">
+      <c r="E18" s="6" t="n">
         <v>41.66</v>
       </c>
-      <c r="F18" s="8" t="n">
+      <c r="F18" s="7" t="n">
         <v>0.797</v>
       </c>
-      <c r="G18" s="8" t="n">
+      <c r="G18" s="7" t="n">
         <v>18.52</v>
       </c>
-      <c r="H18" s="8" t="n">
+      <c r="H18" s="7" t="n">
         <v>7.49</v>
       </c>
-      <c r="I18" s="8" t="n">
+      <c r="I18" s="7" t="n">
         <v>0.316</v>
       </c>
-      <c r="J18" s="8" t="n">
+      <c r="J18" s="7" t="n">
         <v>20.92</v>
       </c>
-      <c r="K18" s="8" t="n">
+      <c r="K18" s="7" t="n">
         <v>5.08</v>
       </c>
-      <c r="L18" s="8" t="n">
+      <c r="L18" s="7" t="n">
         <v>0.079</v>
       </c>
-      <c r="M18" s="8" t="n">
+      <c r="M18" s="7" t="n">
         <v>0.014</v>
       </c>
-      <c r="N18" s="8" t="n">
+      <c r="N18" s="7" t="n">
         <v>4.82</v>
       </c>
     </row>
@@ -1301,40 +1322,40 @@
       <c r="B19" s="0" t="n">
         <v>1328.66819313717</v>
       </c>
-      <c r="C19" s="5" t="n">
+      <c r="C19" s="4" t="n">
         <v>1208.69436518816</v>
       </c>
-      <c r="D19" s="6" t="n">
+      <c r="D19" s="5" t="n">
         <v>101.100825053828</v>
       </c>
-      <c r="E19" s="7" t="n">
+      <c r="E19" s="6" t="n">
         <v>42.39</v>
       </c>
-      <c r="F19" s="8" t="n">
+      <c r="F19" s="7" t="n">
         <v>0.166</v>
       </c>
-      <c r="G19" s="8" t="n">
+      <c r="G19" s="7" t="n">
         <v>16.97</v>
       </c>
-      <c r="H19" s="8" t="n">
+      <c r="H19" s="7" t="n">
         <v>7.12</v>
       </c>
-      <c r="I19" s="8" t="n">
+      <c r="I19" s="7" t="n">
         <v>0.288</v>
       </c>
-      <c r="J19" s="8" t="n">
+      <c r="J19" s="7" t="n">
         <v>20.47</v>
       </c>
-      <c r="K19" s="8" t="n">
+      <c r="K19" s="7" t="n">
         <v>5.85</v>
       </c>
-      <c r="L19" s="8" t="n">
+      <c r="L19" s="7" t="n">
         <v>0.029</v>
       </c>
-      <c r="M19" s="8" t="n">
+      <c r="M19" s="7" t="n">
         <v>0.002</v>
       </c>
-      <c r="N19" s="8" t="n">
+      <c r="N19" s="7" t="n">
         <v>6.84</v>
       </c>
     </row>
@@ -1345,40 +1366,40 @@
       <c r="B20" s="0" t="n">
         <v>926.137304129416</v>
       </c>
-      <c r="C20" s="5" t="n">
+      <c r="C20" s="4" t="n">
         <v>906.312603239375</v>
       </c>
-      <c r="D20" s="6" t="n">
+      <c r="D20" s="5" t="n">
         <v>22.1566172273928</v>
       </c>
-      <c r="E20" s="7" t="n">
+      <c r="E20" s="6" t="n">
         <v>41.4169285714286</v>
       </c>
-      <c r="F20" s="8" t="n">
+      <c r="F20" s="7" t="n">
         <v>0.224442857142857</v>
       </c>
-      <c r="G20" s="8" t="n">
+      <c r="G20" s="7" t="n">
         <v>20.7650857142857</v>
       </c>
-      <c r="H20" s="8" t="n">
+      <c r="H20" s="7" t="n">
         <v>8.12907142857143</v>
       </c>
-      <c r="I20" s="8" t="n">
+      <c r="I20" s="7" t="n">
         <v>0.525428571428571</v>
       </c>
-      <c r="J20" s="8" t="n">
+      <c r="J20" s="7" t="n">
         <v>19.7531571428571</v>
       </c>
-      <c r="K20" s="8" t="n">
+      <c r="K20" s="7" t="n">
         <v>5.27104285714286</v>
       </c>
-      <c r="L20" s="8" t="n">
+      <c r="L20" s="7" t="n">
         <v>0.0447857142857143</v>
       </c>
-      <c r="M20" s="8" t="n">
+      <c r="M20" s="7" t="n">
         <v>0.0079</v>
       </c>
-      <c r="N20" s="8" t="n">
+      <c r="N20" s="7" t="n">
         <v>4.46484285714286</v>
       </c>
     </row>
@@ -1389,40 +1410,40 @@
       <c r="B21" s="0" t="n">
         <v>1014.85098660187</v>
       </c>
-      <c r="C21" s="5" t="n">
+      <c r="C21" s="4" t="n">
         <v>949.104556717275</v>
       </c>
-      <c r="D21" s="6" t="n">
+      <c r="D21" s="5" t="n">
         <v>28.7485014020851</v>
       </c>
-      <c r="E21" s="7" t="n">
+      <c r="E21" s="6" t="n">
         <v>41.1356</v>
       </c>
-      <c r="F21" s="8" t="n">
+      <c r="F21" s="7" t="n">
         <v>0.00508</v>
       </c>
-      <c r="G21" s="8" t="n">
+      <c r="G21" s="7" t="n">
         <v>19.3555</v>
       </c>
-      <c r="H21" s="8" t="n">
+      <c r="H21" s="7" t="n">
         <v>7.50968</v>
       </c>
-      <c r="I21" s="8" t="n">
+      <c r="I21" s="7" t="n">
         <v>0.49182</v>
       </c>
-      <c r="J21" s="8" t="n">
+      <c r="J21" s="7" t="n">
         <v>19.10234</v>
       </c>
-      <c r="K21" s="8" t="n">
+      <c r="K21" s="7" t="n">
         <v>6.40784</v>
       </c>
-      <c r="L21" s="8" t="n">
+      <c r="L21" s="7" t="n">
         <v>0.01216</v>
       </c>
-      <c r="M21" s="8" t="n">
+      <c r="M21" s="7" t="n">
         <v>0.00272</v>
       </c>
-      <c r="N21" s="8" t="n">
+      <c r="N21" s="7" t="n">
         <v>6.61254</v>
       </c>
     </row>
@@ -1433,40 +1454,40 @@
       <c r="B22" s="0" t="n">
         <v>1155.05642485255</v>
       </c>
-      <c r="C22" s="5" t="n">
+      <c r="C22" s="4" t="n">
         <v>1113.0920116217</v>
       </c>
-      <c r="D22" s="6" t="n">
+      <c r="D22" s="5" t="n">
         <v>67.2074006975685</v>
       </c>
-      <c r="E22" s="7" t="n">
+      <c r="E22" s="6" t="n">
         <v>41.535275</v>
       </c>
-      <c r="F22" s="8" t="n">
+      <c r="F22" s="7" t="n">
         <v>0.275175</v>
       </c>
-      <c r="G22" s="8" t="n">
+      <c r="G22" s="7" t="n">
         <v>20.096425</v>
       </c>
-      <c r="H22" s="8" t="n">
+      <c r="H22" s="7" t="n">
         <v>7.761375</v>
       </c>
-      <c r="I22" s="8" t="n">
+      <c r="I22" s="7" t="n">
         <v>0.4283</v>
       </c>
-      <c r="J22" s="8" t="n">
+      <c r="J22" s="7" t="n">
         <v>20.568375</v>
       </c>
-      <c r="K22" s="8" t="n">
+      <c r="K22" s="7" t="n">
         <v>5.03845</v>
       </c>
-      <c r="L22" s="8" t="n">
+      <c r="L22" s="7" t="n">
         <v>0.036225</v>
       </c>
-      <c r="M22" s="8" t="n">
+      <c r="M22" s="7" t="n">
         <v>0.000875</v>
       </c>
-      <c r="N22" s="8" t="n">
+      <c r="N22" s="7" t="n">
         <v>4.6691</v>
       </c>
     </row>
@@ -1477,40 +1498,40 @@
       <c r="B23" s="0" t="n">
         <v>924.455965585961</v>
       </c>
-      <c r="C23" s="5" t="n">
+      <c r="C23" s="4" t="n">
         <v>875.88617711382</v>
       </c>
-      <c r="D23" s="6" t="n">
+      <c r="D23" s="5" t="n">
         <v>18.1949930867462</v>
       </c>
-      <c r="E23" s="7" t="n">
+      <c r="E23" s="6" t="n">
         <v>40.97366</v>
       </c>
-      <c r="F23" s="8" t="n">
+      <c r="F23" s="7" t="n">
         <v>0.00644</v>
       </c>
-      <c r="G23" s="8" t="n">
+      <c r="G23" s="7" t="n">
         <v>19.83572</v>
       </c>
-      <c r="H23" s="8" t="n">
+      <c r="H23" s="7" t="n">
         <v>8.15004</v>
       </c>
-      <c r="I23" s="8" t="n">
+      <c r="I23" s="7" t="n">
         <v>0.52378</v>
       </c>
-      <c r="J23" s="8" t="n">
+      <c r="J23" s="7" t="n">
         <v>18.492</v>
       </c>
-      <c r="K23" s="8" t="n">
+      <c r="K23" s="7" t="n">
         <v>6.59546</v>
       </c>
-      <c r="L23" s="8" t="n">
+      <c r="L23" s="7" t="n">
         <v>0.00736</v>
       </c>
-      <c r="M23" s="8" t="n">
+      <c r="M23" s="7" t="n">
         <v>-0.00132</v>
       </c>
-      <c r="N23" s="8" t="n">
+      <c r="N23" s="7" t="n">
         <v>5.85126</v>
       </c>
     </row>
@@ -1521,40 +1542,40 @@
       <c r="B24" s="0" t="n">
         <v>936.789999288378</v>
       </c>
-      <c r="C24" s="5" t="n">
+      <c r="C24" s="4" t="n">
         <v>911.11835265531</v>
       </c>
-      <c r="D24" s="6" t="n">
+      <c r="D24" s="5" t="n">
         <v>22.8356815283066</v>
       </c>
-      <c r="E24" s="7" t="n">
+      <c r="E24" s="6" t="n">
         <v>41.098275</v>
       </c>
-      <c r="F24" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G24" s="8" t="n">
+      <c r="F24" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" s="7" t="n">
         <v>21.4669</v>
       </c>
-      <c r="H24" s="8" t="n">
+      <c r="H24" s="7" t="n">
         <v>7.53875</v>
       </c>
-      <c r="I24" s="8" t="n">
+      <c r="I24" s="7" t="n">
         <v>0.467625</v>
       </c>
-      <c r="J24" s="8" t="n">
+      <c r="J24" s="7" t="n">
         <v>19.829725</v>
       </c>
-      <c r="K24" s="8" t="n">
+      <c r="K24" s="7" t="n">
         <v>5.955675</v>
       </c>
-      <c r="L24" s="8" t="n">
+      <c r="L24" s="7" t="n">
         <v>0.00585</v>
       </c>
-      <c r="M24" s="8" t="n">
+      <c r="M24" s="7" t="n">
         <v>0.0006</v>
       </c>
-      <c r="N24" s="8" t="n">
+      <c r="N24" s="7" t="n">
         <v>4.2351</v>
       </c>
     </row>
@@ -1565,40 +1586,40 @@
       <c r="B25" s="0" t="n">
         <v>1221.77855805834</v>
       </c>
-      <c r="C25" s="5" t="n">
+      <c r="C25" s="4" t="n">
         <v>1097.12797781747</v>
       </c>
-      <c r="D25" s="6" t="n">
+      <c r="D25" s="5" t="n">
         <v>62.43</v>
       </c>
-      <c r="E25" s="7" t="n">
+      <c r="E25" s="6" t="n">
         <v>40.62</v>
       </c>
-      <c r="F25" s="8" t="n">
+      <c r="F25" s="7" t="n">
         <v>0.06</v>
       </c>
-      <c r="G25" s="8" t="n">
+      <c r="G25" s="7" t="n">
         <v>17.29</v>
       </c>
-      <c r="H25" s="8" t="n">
+      <c r="H25" s="7" t="n">
         <v>7.59</v>
       </c>
-      <c r="I25" s="8" t="n">
+      <c r="I25" s="7" t="n">
         <v>0.36</v>
       </c>
-      <c r="J25" s="8" t="n">
+      <c r="J25" s="7" t="n">
         <v>18.78</v>
       </c>
-      <c r="K25" s="8" t="n">
+      <c r="K25" s="7" t="n">
         <v>6.49</v>
       </c>
-      <c r="L25" s="8" t="n">
+      <c r="L25" s="7" t="n">
         <v>0.04</v>
       </c>
-      <c r="M25" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" s="8" t="n">
+      <c r="M25" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" s="7" t="n">
         <v>7.98</v>
       </c>
     </row>
@@ -1609,40 +1630,40 @@
       <c r="B26" s="0" t="n">
         <v>1046.72144928473</v>
       </c>
-      <c r="C26" s="5" t="n">
+      <c r="C26" s="4" t="n">
         <v>1030.94771193996</v>
       </c>
-      <c r="D26" s="6" t="n">
+      <c r="D26" s="5" t="n">
         <v>45.11</v>
       </c>
-      <c r="E26" s="7" t="n">
+      <c r="E26" s="6" t="n">
         <v>41.69</v>
       </c>
-      <c r="F26" s="8" t="n">
+      <c r="F26" s="7" t="n">
         <v>0.24</v>
       </c>
-      <c r="G26" s="8" t="n">
+      <c r="G26" s="7" t="n">
         <v>21.05</v>
       </c>
-      <c r="H26" s="8" t="n">
+      <c r="H26" s="7" t="n">
         <v>7.75</v>
       </c>
-      <c r="I26" s="8" t="n">
+      <c r="I26" s="7" t="n">
         <v>0.39</v>
       </c>
-      <c r="J26" s="8" t="n">
+      <c r="J26" s="7" t="n">
         <v>20.46</v>
       </c>
-      <c r="K26" s="8" t="n">
+      <c r="K26" s="7" t="n">
         <v>4.63</v>
       </c>
-      <c r="L26" s="8" t="n">
+      <c r="L26" s="7" t="n">
         <v>0.05</v>
       </c>
-      <c r="M26" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" s="8" t="n">
+      <c r="M26" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" s="7" t="n">
         <v>3.89</v>
       </c>
     </row>
@@ -1653,40 +1674,40 @@
       <c r="B27" s="0" t="n">
         <v>1218.7723445149</v>
       </c>
-      <c r="C27" s="5" t="n">
+      <c r="C27" s="4" t="n">
         <v>1119.58481586885</v>
       </c>
-      <c r="D27" s="6" t="n">
+      <c r="D27" s="5" t="n">
         <v>69.22</v>
       </c>
-      <c r="E27" s="7" t="n">
+      <c r="E27" s="6" t="n">
         <v>41.53</v>
       </c>
-      <c r="F27" s="8" t="n">
+      <c r="F27" s="7" t="n">
         <v>0.34</v>
       </c>
-      <c r="G27" s="8" t="n">
+      <c r="G27" s="7" t="n">
         <v>17.5</v>
       </c>
-      <c r="H27" s="8" t="n">
+      <c r="H27" s="7" t="n">
         <v>7.05</v>
       </c>
-      <c r="I27" s="8" t="n">
+      <c r="I27" s="7" t="n">
         <v>0.32</v>
       </c>
-      <c r="J27" s="8" t="n">
+      <c r="J27" s="7" t="n">
         <v>20.54</v>
       </c>
-      <c r="K27" s="8" t="n">
+      <c r="K27" s="7" t="n">
         <v>5.67</v>
       </c>
-      <c r="L27" s="8" t="n">
+      <c r="L27" s="7" t="n">
         <v>0.05</v>
       </c>
-      <c r="M27" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" s="8" t="n">
+      <c r="M27" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" s="7" t="n">
         <v>7.29</v>
       </c>
     </row>
@@ -1697,40 +1718,40 @@
       <c r="B28" s="0" t="n">
         <v>1273.44880275662</v>
       </c>
-      <c r="C28" s="5" t="n">
+      <c r="C28" s="4" t="n">
         <v>1104.84754365031</v>
       </c>
-      <c r="D28" s="6" t="n">
+      <c r="D28" s="5" t="n">
         <v>64.71</v>
       </c>
-      <c r="E28" s="7" t="n">
+      <c r="E28" s="6" t="n">
         <v>40.73</v>
       </c>
-      <c r="F28" s="8" t="n">
+      <c r="F28" s="7" t="n">
         <v>0.33</v>
       </c>
-      <c r="G28" s="8" t="n">
+      <c r="G28" s="7" t="n">
         <v>15.22</v>
       </c>
-      <c r="H28" s="8" t="n">
+      <c r="H28" s="7" t="n">
         <v>7.48</v>
       </c>
-      <c r="I28" s="8" t="n">
+      <c r="I28" s="7" t="n">
         <v>0.33</v>
       </c>
-      <c r="J28" s="8" t="n">
+      <c r="J28" s="7" t="n">
         <v>18.7</v>
       </c>
-      <c r="K28" s="8" t="n">
+      <c r="K28" s="7" t="n">
         <v>6.8</v>
       </c>
-      <c r="L28" s="8" t="n">
+      <c r="L28" s="7" t="n">
         <v>0.04</v>
       </c>
-      <c r="M28" s="8" t="n">
+      <c r="M28" s="7" t="n">
         <v>0.01</v>
       </c>
-      <c r="N28" s="8" t="n">
+      <c r="N28" s="7" t="n">
         <v>9.65</v>
       </c>
     </row>
@@ -1741,40 +1762,40 @@
       <c r="B29" s="0" t="n">
         <v>1208.47817429803</v>
       </c>
-      <c r="C29" s="5" t="n">
+      <c r="C29" s="4" t="n">
         <v>1163.44517253588</v>
       </c>
-      <c r="D29" s="6" t="n">
+      <c r="D29" s="5" t="n">
         <v>83.9</v>
       </c>
-      <c r="E29" s="7" t="n">
+      <c r="E29" s="6" t="n">
         <v>41.67</v>
       </c>
-      <c r="F29" s="8" t="n">
+      <c r="F29" s="7" t="n">
         <v>0.75</v>
       </c>
-      <c r="G29" s="8" t="n">
+      <c r="G29" s="7" t="n">
         <v>19.15</v>
       </c>
-      <c r="H29" s="8" t="n">
+      <c r="H29" s="7" t="n">
         <v>8.43</v>
       </c>
-      <c r="I29" s="8" t="n">
+      <c r="I29" s="7" t="n">
         <v>0.29</v>
       </c>
-      <c r="J29" s="8" t="n">
+      <c r="J29" s="7" t="n">
         <v>20.24</v>
       </c>
-      <c r="K29" s="8" t="n">
+      <c r="K29" s="7" t="n">
         <v>5.08</v>
       </c>
-      <c r="L29" s="8" t="n">
+      <c r="L29" s="7" t="n">
         <v>0.08</v>
       </c>
-      <c r="M29" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" s="8" t="n">
+      <c r="M29" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" s="7" t="n">
         <v>4.16</v>
       </c>
     </row>
@@ -1785,40 +1806,40 @@
       <c r="B30" s="0" t="n">
         <v>1067.16364513755</v>
       </c>
-      <c r="C30" s="5" t="n">
+      <c r="C30" s="4" t="n">
         <v>1014.75028395462</v>
       </c>
-      <c r="D30" s="6" t="n">
+      <c r="D30" s="5" t="n">
         <v>41.45</v>
       </c>
-      <c r="E30" s="7" t="n">
+      <c r="E30" s="6" t="n">
         <v>41.38</v>
       </c>
-      <c r="F30" s="8" t="n">
+      <c r="F30" s="7" t="n">
         <v>0.37</v>
       </c>
-      <c r="G30" s="8" t="n">
+      <c r="G30" s="7" t="n">
         <v>18.69</v>
       </c>
-      <c r="H30" s="8" t="n">
+      <c r="H30" s="7" t="n">
         <v>7.45</v>
       </c>
-      <c r="I30" s="8" t="n">
+      <c r="I30" s="7" t="n">
         <v>0.33</v>
       </c>
-      <c r="J30" s="8" t="n">
+      <c r="J30" s="7" t="n">
         <v>19.93</v>
       </c>
-      <c r="K30" s="8" t="n">
+      <c r="K30" s="7" t="n">
         <v>5.37</v>
       </c>
-      <c r="L30" s="8" t="n">
+      <c r="L30" s="7" t="n">
         <v>0.06</v>
       </c>
-      <c r="M30" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" s="8" t="n">
+      <c r="M30" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" s="7" t="n">
         <v>5.69</v>
       </c>
     </row>
@@ -1829,40 +1850,40 @@
       <c r="B31" s="0" t="n">
         <v>1251.02307828298</v>
       </c>
-      <c r="C31" s="5" t="n">
+      <c r="C31" s="4" t="n">
         <v>1135.78483297333</v>
       </c>
-      <c r="D31" s="6" t="n">
+      <c r="D31" s="5" t="n">
         <v>74.42</v>
       </c>
-      <c r="E31" s="7" t="n">
+      <c r="E31" s="6" t="n">
         <v>40.97</v>
       </c>
-      <c r="F31" s="8" t="n">
+      <c r="F31" s="7" t="n">
         <v>0.93</v>
       </c>
-      <c r="G31" s="8" t="n">
+      <c r="G31" s="7" t="n">
         <v>16.79</v>
       </c>
-      <c r="H31" s="8" t="n">
+      <c r="H31" s="7" t="n">
         <v>8.25</v>
       </c>
-      <c r="I31" s="8" t="n">
+      <c r="I31" s="7" t="n">
         <v>0.33</v>
       </c>
-      <c r="J31" s="8" t="n">
+      <c r="J31" s="7" t="n">
         <v>19.09</v>
       </c>
-      <c r="K31" s="8" t="n">
+      <c r="K31" s="7" t="n">
         <v>6.1</v>
       </c>
-      <c r="L31" s="8" t="n">
+      <c r="L31" s="7" t="n">
         <v>0.1</v>
       </c>
-      <c r="M31" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" s="8" t="n">
+      <c r="M31" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" s="7" t="n">
         <v>7.08</v>
       </c>
     </row>
@@ -1873,40 +1894,40 @@
       <c r="B32" s="0" t="n">
         <v>1111.10555525114</v>
       </c>
-      <c r="C32" s="5" t="n">
+      <c r="C32" s="4" t="n">
         <v>1122.2566094999</v>
       </c>
-      <c r="D32" s="6" t="n">
+      <c r="D32" s="5" t="n">
         <v>70.06</v>
       </c>
-      <c r="E32" s="7" t="n">
+      <c r="E32" s="6" t="n">
         <v>41.87</v>
       </c>
-      <c r="F32" s="8" t="n">
+      <c r="F32" s="7" t="n">
         <v>0.57</v>
       </c>
-      <c r="G32" s="8" t="n">
+      <c r="G32" s="7" t="n">
         <v>21.53</v>
       </c>
-      <c r="H32" s="8" t="n">
+      <c r="H32" s="7" t="n">
         <v>8.29</v>
       </c>
-      <c r="I32" s="8" t="n">
+      <c r="I32" s="7" t="n">
         <v>0.29</v>
       </c>
-      <c r="J32" s="8" t="n">
+      <c r="J32" s="7" t="n">
         <v>20.91</v>
       </c>
-      <c r="K32" s="8" t="n">
+      <c r="K32" s="7" t="n">
         <v>4.3</v>
       </c>
-      <c r="L32" s="8" t="n">
+      <c r="L32" s="7" t="n">
         <v>0.09</v>
       </c>
-      <c r="M32" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" s="8" t="n">
+      <c r="M32" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" s="7" t="n">
         <v>1.77</v>
       </c>
     </row>
@@ -1917,40 +1938,40 @@
       <c r="B33" s="0" t="n">
         <v>1037.70691019878</v>
       </c>
-      <c r="C33" s="5" t="n">
+      <c r="C33" s="4" t="n">
         <v>1013.28683316059</v>
       </c>
-      <c r="D33" s="6" t="n">
+      <c r="D33" s="5" t="n">
         <v>41.13</v>
       </c>
-      <c r="E33" s="7" t="n">
+      <c r="E33" s="6" t="n">
         <v>41.45</v>
       </c>
-      <c r="F33" s="8" t="n">
+      <c r="F33" s="7" t="n">
         <v>0.37</v>
       </c>
-      <c r="G33" s="8" t="n">
+      <c r="G33" s="7" t="n">
         <v>20.36</v>
       </c>
-      <c r="H33" s="8" t="n">
+      <c r="H33" s="7" t="n">
         <v>8.3</v>
       </c>
-      <c r="I33" s="8" t="n">
+      <c r="I33" s="7" t="n">
         <v>0.35</v>
       </c>
-      <c r="J33" s="8" t="n">
+      <c r="J33" s="7" t="n">
         <v>19.8</v>
       </c>
-      <c r="K33" s="8" t="n">
+      <c r="K33" s="7" t="n">
         <v>5.09</v>
       </c>
-      <c r="L33" s="8" t="n">
+      <c r="L33" s="7" t="n">
         <v>0.06</v>
       </c>
-      <c r="M33" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" s="8" t="n">
+      <c r="M33" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" s="7" t="n">
         <v>4.02</v>
       </c>
     </row>
@@ -1961,40 +1982,40 @@
       <c r="B34" s="0" t="n">
         <v>1147.13726697428</v>
       </c>
-      <c r="C34" s="5" t="n">
+      <c r="C34" s="4" t="n">
         <v>1084.21263415204</v>
       </c>
-      <c r="D34" s="6" t="n">
+      <c r="D34" s="5" t="n">
         <v>58.74</v>
       </c>
-      <c r="E34" s="7" t="n">
+      <c r="E34" s="6" t="n">
         <v>41.42</v>
       </c>
-      <c r="F34" s="8" t="n">
+      <c r="F34" s="7" t="n">
         <v>0.47</v>
       </c>
-      <c r="G34" s="8" t="n">
+      <c r="G34" s="7" t="n">
         <v>18.61</v>
       </c>
-      <c r="H34" s="8" t="n">
+      <c r="H34" s="7" t="n">
         <v>7.05</v>
       </c>
-      <c r="I34" s="8" t="n">
+      <c r="I34" s="7" t="n">
         <v>0.27</v>
       </c>
-      <c r="J34" s="8" t="n">
+      <c r="J34" s="7" t="n">
         <v>20.54</v>
       </c>
-      <c r="K34" s="8" t="n">
+      <c r="K34" s="7" t="n">
         <v>5.17</v>
       </c>
-      <c r="L34" s="8" t="n">
+      <c r="L34" s="7" t="n">
         <v>0.07</v>
       </c>
-      <c r="M34" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" s="8" t="n">
+      <c r="M34" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" s="7" t="n">
         <v>6.01</v>
       </c>
     </row>
@@ -2005,40 +2026,40 @@
       <c r="B35" s="0" t="n">
         <v>1281.64695232564</v>
       </c>
-      <c r="C35" s="5" t="n">
+      <c r="C35" s="4" t="n">
         <v>1131.00797115409</v>
       </c>
-      <c r="D35" s="6" t="n">
+      <c r="D35" s="5" t="n">
         <v>72.86</v>
       </c>
-      <c r="E35" s="7" t="n">
+      <c r="E35" s="6" t="n">
         <v>41.24</v>
       </c>
-      <c r="F35" s="8" t="n">
+      <c r="F35" s="7" t="n">
         <v>0.68</v>
       </c>
-      <c r="G35" s="8" t="n">
+      <c r="G35" s="7" t="n">
         <v>15.98</v>
       </c>
-      <c r="H35" s="8" t="n">
+      <c r="H35" s="7" t="n">
         <v>7.63</v>
       </c>
-      <c r="I35" s="8" t="n">
+      <c r="I35" s="7" t="n">
         <v>0.32</v>
       </c>
-      <c r="J35" s="8" t="n">
+      <c r="J35" s="7" t="n">
         <v>18.96</v>
       </c>
-      <c r="K35" s="8" t="n">
+      <c r="K35" s="7" t="n">
         <v>6.67</v>
       </c>
-      <c r="L35" s="8" t="n">
+      <c r="L35" s="7" t="n">
         <v>0.04</v>
       </c>
-      <c r="M35" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" s="8" t="n">
+      <c r="M35" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" s="7" t="n">
         <v>8.42</v>
       </c>
     </row>
@@ -2049,40 +2070,40 @@
       <c r="B36" s="0" t="n">
         <v>1165.45110083272</v>
       </c>
-      <c r="C36" s="5" t="n">
+      <c r="C36" s="4" t="n">
         <v>1104.07736712717</v>
       </c>
-      <c r="D36" s="6" t="n">
+      <c r="D36" s="5" t="n">
         <v>64.48</v>
       </c>
-      <c r="E36" s="7" t="n">
+      <c r="E36" s="6" t="n">
         <v>41.51</v>
       </c>
-      <c r="F36" s="8" t="n">
+      <c r="F36" s="7" t="n">
         <v>0.03</v>
       </c>
-      <c r="G36" s="8" t="n">
+      <c r="G36" s="7" t="n">
         <v>18.77</v>
       </c>
-      <c r="H36" s="8" t="n">
+      <c r="H36" s="7" t="n">
         <v>7.24</v>
       </c>
-      <c r="I36" s="8" t="n">
+      <c r="I36" s="7" t="n">
         <v>0.3</v>
       </c>
-      <c r="J36" s="8" t="n">
+      <c r="J36" s="7" t="n">
         <v>20.23</v>
       </c>
-      <c r="K36" s="8" t="n">
+      <c r="K36" s="7" t="n">
         <v>5.25</v>
       </c>
-      <c r="L36" s="8" t="n">
+      <c r="L36" s="7" t="n">
         <v>0.03</v>
       </c>
-      <c r="M36" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" s="8" t="n">
+      <c r="M36" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" s="7" t="n">
         <v>5.51</v>
       </c>
     </row>
@@ -2093,40 +2114,40 @@
       <c r="B37" s="0" t="n">
         <v>1157.36414405848</v>
       </c>
-      <c r="C37" s="5" t="n">
+      <c r="C37" s="4" t="n">
         <v>1097.12797781747</v>
       </c>
-      <c r="D37" s="6" t="n">
+      <c r="D37" s="5" t="n">
         <v>62.43</v>
       </c>
-      <c r="E37" s="7" t="n">
+      <c r="E37" s="6" t="n">
         <v>41.67</v>
       </c>
-      <c r="F37" s="8" t="n">
+      <c r="F37" s="7" t="n">
         <v>0.04</v>
       </c>
-      <c r="G37" s="8" t="n">
+      <c r="G37" s="7" t="n">
         <v>19.03</v>
       </c>
-      <c r="H37" s="8" t="n">
+      <c r="H37" s="7" t="n">
         <v>7.36</v>
       </c>
-      <c r="I37" s="8" t="n">
+      <c r="I37" s="7" t="n">
         <v>0.3</v>
       </c>
-      <c r="J37" s="8" t="n">
+      <c r="J37" s="7" t="n">
         <v>20.23</v>
       </c>
-      <c r="K37" s="8" t="n">
+      <c r="K37" s="7" t="n">
         <v>5.35</v>
       </c>
-      <c r="L37" s="8" t="n">
+      <c r="L37" s="7" t="n">
         <v>0.03</v>
       </c>
-      <c r="M37" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" s="8" t="n">
+      <c r="M37" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" s="7" t="n">
         <v>5.47</v>
       </c>
     </row>
@@ -2137,40 +2158,40 @@
       <c r="B38" s="0" t="n">
         <v>892.020589955203</v>
       </c>
-      <c r="C38" s="5" t="n">
+      <c r="C38" s="4" t="n">
         <v>848.973419762888</v>
       </c>
-      <c r="D38" s="6" t="n">
+      <c r="D38" s="5" t="n">
         <v>15.15</v>
       </c>
-      <c r="E38" s="7" t="n">
+      <c r="E38" s="6" t="n">
         <v>41.19</v>
       </c>
-      <c r="F38" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G38" s="8" t="n">
+      <c r="F38" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" s="7" t="n">
         <v>19.39</v>
       </c>
-      <c r="H38" s="8" t="n">
+      <c r="H38" s="7" t="n">
         <v>7.91</v>
       </c>
-      <c r="I38" s="8" t="n">
+      <c r="I38" s="7" t="n">
         <v>0.42</v>
       </c>
-      <c r="J38" s="8" t="n">
+      <c r="J38" s="7" t="n">
         <v>18.74</v>
       </c>
-      <c r="K38" s="8" t="n">
+      <c r="K38" s="7" t="n">
         <v>6.24</v>
       </c>
-      <c r="L38" s="8" t="n">
+      <c r="L38" s="7" t="n">
         <v>0.01</v>
       </c>
-      <c r="M38" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" s="8" t="n">
+      <c r="M38" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" s="7" t="n">
         <v>6.06</v>
       </c>
     </row>
@@ -2181,40 +2202,40 @@
       <c r="B39" s="0" t="n">
         <v>1188.45753184493</v>
       </c>
-      <c r="C39" s="5" t="n">
+      <c r="C39" s="4" t="n">
         <v>1094.7191244487</v>
       </c>
-      <c r="D39" s="6" t="n">
+      <c r="D39" s="5" t="n">
         <v>61.73</v>
       </c>
-      <c r="E39" s="7" t="n">
+      <c r="E39" s="6" t="n">
         <v>41.63</v>
       </c>
-      <c r="F39" s="8" t="n">
+      <c r="F39" s="7" t="n">
         <v>0.15</v>
       </c>
-      <c r="G39" s="8" t="n">
+      <c r="G39" s="7" t="n">
         <v>17.94</v>
       </c>
-      <c r="H39" s="8" t="n">
+      <c r="H39" s="7" t="n">
         <v>7.58</v>
       </c>
-      <c r="I39" s="8" t="n">
+      <c r="I39" s="7" t="n">
         <v>0.33</v>
       </c>
-      <c r="J39" s="8" t="n">
+      <c r="J39" s="7" t="n">
         <v>19.57</v>
       </c>
-      <c r="K39" s="8" t="n">
+      <c r="K39" s="7" t="n">
         <v>5.94</v>
       </c>
-      <c r="L39" s="8" t="n">
+      <c r="L39" s="7" t="n">
         <v>0.03</v>
       </c>
-      <c r="M39" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" s="8" t="n">
+      <c r="M39" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" s="7" t="n">
         <v>6.87</v>
       </c>
     </row>
@@ -2225,40 +2246,40 @@
       <c r="B40" s="0" t="n">
         <v>1217.23526602621</v>
       </c>
-      <c r="C40" s="5" t="n">
+      <c r="C40" s="4" t="n">
         <v>1101.51895149418</v>
       </c>
-      <c r="D40" s="6" t="n">
+      <c r="D40" s="5" t="n">
         <v>63.72</v>
       </c>
-      <c r="E40" s="7" t="n">
+      <c r="E40" s="6" t="n">
         <v>41.06</v>
       </c>
-      <c r="F40" s="8" t="n">
+      <c r="F40" s="7" t="n">
         <v>0.48</v>
       </c>
-      <c r="G40" s="8" t="n">
+      <c r="G40" s="7" t="n">
         <v>16.92</v>
       </c>
-      <c r="H40" s="8" t="n">
+      <c r="H40" s="7" t="n">
         <v>7.45</v>
       </c>
-      <c r="I40" s="8" t="n">
+      <c r="I40" s="7" t="n">
         <v>0.32</v>
       </c>
-      <c r="J40" s="8" t="n">
+      <c r="J40" s="7" t="n">
         <v>19.44</v>
       </c>
-      <c r="K40" s="8" t="n">
+      <c r="K40" s="7" t="n">
         <v>6.09</v>
       </c>
-      <c r="L40" s="8" t="n">
+      <c r="L40" s="7" t="n">
         <v>0.06</v>
       </c>
-      <c r="M40" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" s="8" t="n">
+      <c r="M40" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" s="7" t="n">
         <v>7.79</v>
       </c>
     </row>
@@ -2269,40 +2290,40 @@
       <c r="B41" s="0" t="n">
         <v>1114.37803524545</v>
       </c>
-      <c r="C41" s="5" t="n">
+      <c r="C41" s="4" t="n">
         <v>1072.84779100277</v>
       </c>
-      <c r="D41" s="6" t="n">
+      <c r="D41" s="5" t="n">
         <v>55.62</v>
       </c>
-      <c r="E41" s="7" t="n">
+      <c r="E41" s="6" t="n">
         <v>41.36</v>
       </c>
-      <c r="F41" s="8" t="n">
+      <c r="F41" s="7" t="n">
         <v>0.94</v>
       </c>
-      <c r="G41" s="8" t="n">
+      <c r="G41" s="7" t="n">
         <v>18.89</v>
       </c>
-      <c r="H41" s="8" t="n">
+      <c r="H41" s="7" t="n">
         <v>8.6</v>
       </c>
-      <c r="I41" s="8" t="n">
+      <c r="I41" s="7" t="n">
         <v>0.31</v>
       </c>
-      <c r="J41" s="8" t="n">
+      <c r="J41" s="7" t="n">
         <v>19.98</v>
       </c>
-      <c r="K41" s="8" t="n">
+      <c r="K41" s="7" t="n">
         <v>5.32</v>
       </c>
-      <c r="L41" s="8" t="n">
+      <c r="L41" s="7" t="n">
         <v>0.09</v>
       </c>
-      <c r="M41" s="8" t="n">
+      <c r="M41" s="7" t="n">
         <v>0.01</v>
       </c>
-      <c r="N41" s="8" t="n">
+      <c r="N41" s="7" t="n">
         <v>4.38</v>
       </c>
     </row>
@@ -2313,40 +2334,40 @@
       <c r="B42" s="0" t="n">
         <v>1248.87004579848</v>
       </c>
-      <c r="C42" s="5" t="n">
+      <c r="C42" s="4" t="n">
         <v>1140.88367563885</v>
       </c>
-      <c r="D42" s="6" t="n">
+      <c r="D42" s="5" t="n">
         <v>76.11</v>
       </c>
-      <c r="E42" s="7" t="n">
+      <c r="E42" s="6" t="n">
         <v>41.27</v>
       </c>
-      <c r="F42" s="8" t="n">
+      <c r="F42" s="7" t="n">
         <v>0.9</v>
       </c>
-      <c r="G42" s="8" t="n">
+      <c r="G42" s="7" t="n">
         <v>17.03</v>
       </c>
-      <c r="H42" s="8" t="n">
+      <c r="H42" s="7" t="n">
         <v>7.34</v>
       </c>
-      <c r="I42" s="8" t="n">
+      <c r="I42" s="7" t="n">
         <v>0.3</v>
       </c>
-      <c r="J42" s="8" t="n">
+      <c r="J42" s="7" t="n">
         <v>19.87</v>
       </c>
-      <c r="K42" s="8" t="n">
+      <c r="K42" s="7" t="n">
         <v>5.85</v>
       </c>
-      <c r="L42" s="8" t="n">
+      <c r="L42" s="7" t="n">
         <v>0.09</v>
       </c>
-      <c r="M42" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N42" s="8" t="n">
+      <c r="M42" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" s="7" t="n">
         <v>6.99</v>
       </c>
     </row>
@@ -2357,40 +2378,40 @@
       <c r="B43" s="0" t="n">
         <v>1144.47088367293</v>
       </c>
-      <c r="C43" s="5" t="n">
+      <c r="C43" s="4" t="n">
         <v>1046.61199580219</v>
       </c>
-      <c r="D43" s="6" t="n">
+      <c r="D43" s="5" t="n">
         <v>48.86</v>
       </c>
-      <c r="E43" s="7" t="n">
+      <c r="E43" s="6" t="n">
         <v>41.87</v>
       </c>
-      <c r="F43" s="8" t="n">
+      <c r="F43" s="7" t="n">
         <v>0.22</v>
       </c>
-      <c r="G43" s="8" t="n">
+      <c r="G43" s="7" t="n">
         <v>17.55</v>
       </c>
-      <c r="H43" s="8" t="n">
+      <c r="H43" s="7" t="n">
         <v>6.43</v>
       </c>
-      <c r="I43" s="8" t="n">
+      <c r="I43" s="7" t="n">
         <v>0.33</v>
       </c>
-      <c r="J43" s="8" t="n">
+      <c r="J43" s="7" t="n">
         <v>20.28</v>
       </c>
-      <c r="K43" s="8" t="n">
+      <c r="K43" s="7" t="n">
         <v>6.01</v>
       </c>
-      <c r="L43" s="8" t="n">
+      <c r="L43" s="7" t="n">
         <v>0.03</v>
       </c>
-      <c r="M43" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" s="8" t="n">
+      <c r="M43" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" s="7" t="n">
         <v>7.88</v>
       </c>
     </row>
@@ -2401,40 +2422,40 @@
       <c r="B44" s="0" t="n">
         <v>1097.00167876602</v>
       </c>
-      <c r="C44" s="5" t="n">
+      <c r="C44" s="4" t="n">
         <v>1049.36146297974</v>
       </c>
-      <c r="D44" s="6" t="n">
+      <c r="D44" s="5" t="n">
         <v>49.54</v>
       </c>
-      <c r="E44" s="7" t="n">
+      <c r="E44" s="6" t="n">
         <v>41.68</v>
       </c>
-      <c r="F44" s="8" t="n">
+      <c r="F44" s="7" t="n">
         <v>0.27</v>
       </c>
-      <c r="G44" s="8" t="n">
+      <c r="G44" s="7" t="n">
         <v>19.33</v>
       </c>
-      <c r="H44" s="8" t="n">
+      <c r="H44" s="7" t="n">
         <v>6.86</v>
       </c>
-      <c r="I44" s="8" t="n">
+      <c r="I44" s="7" t="n">
         <v>0.33</v>
       </c>
-      <c r="J44" s="8" t="n">
+      <c r="J44" s="7" t="n">
         <v>21</v>
       </c>
-      <c r="K44" s="8" t="n">
+      <c r="K44" s="7" t="n">
         <v>5.12</v>
       </c>
-      <c r="L44" s="8" t="n">
+      <c r="L44" s="7" t="n">
         <v>0.05</v>
       </c>
-      <c r="M44" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" s="8" t="n">
+      <c r="M44" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" s="7" t="n">
         <v>5.54</v>
       </c>
     </row>
@@ -2445,40 +2466,40 @@
       <c r="B45" s="0" t="n">
         <v>1055.50153099506</v>
       </c>
-      <c r="C45" s="5" t="n">
+      <c r="C45" s="4" t="n">
         <v>1051.20648074766</v>
       </c>
-      <c r="D45" s="6" t="n">
+      <c r="D45" s="5" t="n">
         <v>50</v>
       </c>
-      <c r="E45" s="7" t="n">
+      <c r="E45" s="6" t="n">
         <v>42.97</v>
       </c>
-      <c r="F45" s="8" t="n">
+      <c r="F45" s="7" t="n">
         <v>0.01</v>
       </c>
-      <c r="G45" s="8" t="n">
+      <c r="G45" s="7" t="n">
         <v>21</v>
       </c>
-      <c r="H45" s="8" t="n">
+      <c r="H45" s="7" t="n">
         <v>5.66</v>
       </c>
-      <c r="I45" s="8" t="n">
+      <c r="I45" s="7" t="n">
         <v>0.24</v>
       </c>
-      <c r="J45" s="8" t="n">
+      <c r="J45" s="7" t="n">
         <v>22.51</v>
       </c>
-      <c r="K45" s="8" t="n">
+      <c r="K45" s="7" t="n">
         <v>4.16</v>
       </c>
-      <c r="L45" s="8" t="n">
+      <c r="L45" s="7" t="n">
         <v>0.01</v>
       </c>
-      <c r="M45" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N45" s="8" t="n">
+      <c r="M45" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" s="7" t="n">
         <v>3.51</v>
       </c>
     </row>
@@ -2489,38 +2510,40 @@
       <c r="B46" s="0" t="n">
         <v>1308.16752958572</v>
       </c>
-      <c r="C46" s="5" t="n">
+      <c r="C46" s="4" t="n">
         <v>1193.2789254512</v>
       </c>
-      <c r="D46" s="6" t="n">
+      <c r="D46" s="5" t="n">
         <v>95</v>
       </c>
-      <c r="E46" s="7" t="n">
+      <c r="E46" s="6" t="n">
         <v>41.17</v>
       </c>
-      <c r="F46" s="8" t="n">
+      <c r="F46" s="7" t="n">
         <v>0.75</v>
       </c>
-      <c r="G46" s="8" t="n">
+      <c r="G46" s="7" t="n">
         <v>17.29</v>
       </c>
-      <c r="H46" s="8" t="n">
+      <c r="H46" s="7" t="n">
         <v>8.46</v>
       </c>
-      <c r="I46" s="8" t="n">
+      <c r="I46" s="7" t="n">
         <v>0.26</v>
       </c>
-      <c r="J46" s="8" t="n">
+      <c r="J46" s="7" t="n">
         <v>19.52</v>
       </c>
-      <c r="K46" s="8" t="n">
+      <c r="K46" s="7" t="n">
         <v>5.89</v>
       </c>
-      <c r="L46" s="8" t="n">
+      <c r="L46" s="7" t="n">
         <v>0.08</v>
       </c>
-      <c r="M46" s="8"/>
-      <c r="N46" s="8" t="n">
+      <c r="M46" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" s="7" t="n">
         <v>6.76</v>
       </c>
     </row>
@@ -2531,40 +2554,40 @@
       <c r="B47" s="0" t="n">
         <v>1035.99704297775</v>
       </c>
-      <c r="C47" s="5" t="n">
+      <c r="C47" s="4" t="n">
         <v>1022.17219960356</v>
       </c>
-      <c r="D47" s="6" t="n">
+      <c r="D47" s="5" t="n">
         <v>43.1</v>
       </c>
-      <c r="E47" s="7" t="n">
+      <c r="E47" s="6" t="n">
         <v>42.05</v>
       </c>
-      <c r="F47" s="8" t="n">
+      <c r="F47" s="7" t="n">
         <v>0.45</v>
       </c>
-      <c r="G47" s="8" t="n">
+      <c r="G47" s="7" t="n">
         <v>21.07</v>
       </c>
-      <c r="H47" s="8" t="n">
+      <c r="H47" s="7" t="n">
         <v>7.49</v>
       </c>
-      <c r="I47" s="8" t="n">
+      <c r="I47" s="7" t="n">
         <v>0.29</v>
       </c>
-      <c r="J47" s="8" t="n">
+      <c r="J47" s="7" t="n">
         <v>20.61</v>
       </c>
-      <c r="K47" s="8" t="n">
+      <c r="K47" s="7" t="n">
         <v>4.74</v>
       </c>
-      <c r="L47" s="8" t="n">
+      <c r="L47" s="7" t="n">
         <v>0.06</v>
       </c>
-      <c r="M47" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N47" s="8" t="n">
+      <c r="M47" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N47" s="7" t="n">
         <v>3.64</v>
       </c>
     </row>
@@ -2575,40 +2598,40 @@
       <c r="B48" s="0" t="n">
         <v>1031.47416241447</v>
       </c>
-      <c r="C48" s="5" t="n">
+      <c r="C48" s="4" t="n">
         <v>1016.79482006175</v>
       </c>
-      <c r="D48" s="6" t="n">
+      <c r="D48" s="5" t="n">
         <v>41.9</v>
       </c>
-      <c r="E48" s="7" t="n">
+      <c r="E48" s="6" t="n">
         <v>42.78</v>
       </c>
-      <c r="F48" s="8" t="n">
+      <c r="F48" s="7" t="n">
         <v>0.01</v>
       </c>
-      <c r="G48" s="8" t="n">
+      <c r="G48" s="7" t="n">
         <v>20.77</v>
       </c>
-      <c r="H48" s="8" t="n">
+      <c r="H48" s="7" t="n">
         <v>6.27</v>
       </c>
-      <c r="I48" s="8" t="n">
+      <c r="I48" s="7" t="n">
         <v>0.27</v>
       </c>
-      <c r="J48" s="8" t="n">
+      <c r="J48" s="7" t="n">
         <v>22.24</v>
       </c>
-      <c r="K48" s="8" t="n">
+      <c r="K48" s="7" t="n">
         <v>4.09</v>
       </c>
-      <c r="L48" s="8" t="n">
+      <c r="L48" s="7" t="n">
         <v>0.04</v>
       </c>
-      <c r="M48" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N48" s="8" t="n">
+      <c r="M48" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N48" s="7" t="n">
         <v>4.8</v>
       </c>
     </row>
@@ -2619,38 +2642,40 @@
       <c r="B49" s="0" t="n">
         <v>1244.36614984744</v>
       </c>
-      <c r="C49" s="5" t="n">
+      <c r="C49" s="4" t="n">
         <v>1119.5209327789</v>
       </c>
-      <c r="D49" s="6" t="n">
+      <c r="D49" s="5" t="n">
         <v>69.2</v>
       </c>
-      <c r="E49" s="7" t="n">
+      <c r="E49" s="6" t="n">
         <v>41.2</v>
       </c>
-      <c r="F49" s="8" t="n">
+      <c r="F49" s="7" t="n">
         <v>0.09</v>
       </c>
-      <c r="G49" s="8" t="n">
+      <c r="G49" s="7" t="n">
         <v>16.2</v>
       </c>
-      <c r="H49" s="8" t="n">
+      <c r="H49" s="7" t="n">
         <v>6.55</v>
       </c>
-      <c r="I49" s="8" t="n">
+      <c r="I49" s="7" t="n">
         <v>0.26</v>
       </c>
-      <c r="J49" s="8" t="n">
+      <c r="J49" s="7" t="n">
         <v>21</v>
       </c>
-      <c r="K49" s="8" t="n">
+      <c r="K49" s="7" t="n">
         <v>4.93</v>
       </c>
-      <c r="L49" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M49" s="8"/>
-      <c r="N49" s="8" t="n">
+      <c r="L49" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M49" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N49" s="7" t="n">
         <v>9.86</v>
       </c>
     </row>
@@ -2661,38 +2686,40 @@
       <c r="B50" s="0" t="n">
         <v>1197.52519825624</v>
       </c>
-      <c r="C50" s="5" t="n">
+      <c r="C50" s="4" t="n">
         <v>1148.84368153664</v>
       </c>
-      <c r="D50" s="6" t="n">
+      <c r="D50" s="5" t="n">
         <v>78.8</v>
       </c>
-      <c r="E50" s="7" t="n">
+      <c r="E50" s="6" t="n">
         <v>41.9</v>
       </c>
-      <c r="F50" s="8" t="n">
+      <c r="F50" s="7" t="n">
         <v>0.43</v>
       </c>
-      <c r="G50" s="8" t="n">
+      <c r="G50" s="7" t="n">
         <v>19.5</v>
       </c>
-      <c r="H50" s="8" t="n">
+      <c r="H50" s="7" t="n">
         <v>7.25</v>
       </c>
-      <c r="I50" s="8" t="n">
+      <c r="I50" s="7" t="n">
         <v>0.29</v>
       </c>
-      <c r="J50" s="8" t="n">
+      <c r="J50" s="7" t="n">
         <v>21.2</v>
       </c>
-      <c r="K50" s="8" t="n">
+      <c r="K50" s="7" t="n">
         <v>5.18</v>
       </c>
-      <c r="L50" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M50" s="8"/>
-      <c r="N50" s="8" t="n">
+      <c r="L50" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M50" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N50" s="7" t="n">
         <v>4.59</v>
       </c>
     </row>
@@ -2703,38 +2730,40 @@
       <c r="B51" s="0" t="n">
         <v>1148.78925789739</v>
       </c>
-      <c r="C51" s="5" t="n">
+      <c r="C51" s="4" t="n">
         <v>1136.63500216256</v>
       </c>
-      <c r="D51" s="6" t="n">
+      <c r="D51" s="5" t="n">
         <v>74.7</v>
       </c>
-      <c r="E51" s="7" t="n">
+      <c r="E51" s="6" t="n">
         <v>42.3</v>
       </c>
-      <c r="F51" s="8" t="n">
+      <c r="F51" s="7" t="n">
         <v>0.18</v>
       </c>
-      <c r="G51" s="8" t="n">
+      <c r="G51" s="7" t="n">
         <v>22.1</v>
       </c>
-      <c r="H51" s="8" t="n">
+      <c r="H51" s="7" t="n">
         <v>6.61</v>
       </c>
-      <c r="I51" s="8" t="n">
+      <c r="I51" s="7" t="n">
         <v>0.24</v>
       </c>
-      <c r="J51" s="8" t="n">
+      <c r="J51" s="7" t="n">
         <v>21</v>
       </c>
-      <c r="K51" s="8" t="n">
+      <c r="K51" s="7" t="n">
         <v>5.41</v>
       </c>
-      <c r="L51" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M51" s="8"/>
-      <c r="N51" s="8" t="n">
+      <c r="L51" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M51" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N51" s="7" t="n">
         <v>1.98</v>
       </c>
     </row>
@@ -2745,38 +2774,40 @@
       <c r="B52" s="0" t="n">
         <v>1137.66565857902</v>
       </c>
-      <c r="C52" s="5" t="n">
+      <c r="C52" s="4" t="n">
         <v>1147.08433627995</v>
       </c>
-      <c r="D52" s="6" t="n">
+      <c r="D52" s="5" t="n">
         <v>78.2</v>
       </c>
-      <c r="E52" s="7" t="n">
+      <c r="E52" s="6" t="n">
         <v>42.2</v>
       </c>
-      <c r="F52" s="8" t="n">
+      <c r="F52" s="7" t="n">
         <v>0.15</v>
       </c>
-      <c r="G52" s="8" t="n">
+      <c r="G52" s="7" t="n">
         <v>22.8</v>
       </c>
-      <c r="H52" s="8" t="n">
+      <c r="H52" s="7" t="n">
         <v>7.05</v>
       </c>
-      <c r="I52" s="8" t="n">
+      <c r="I52" s="7" t="n">
         <v>0.22</v>
       </c>
-      <c r="J52" s="8" t="n">
+      <c r="J52" s="7" t="n">
         <v>21.2</v>
       </c>
-      <c r="K52" s="8" t="n">
+      <c r="K52" s="7" t="n">
         <v>4.98</v>
       </c>
-      <c r="L52" s="8" t="n">
+      <c r="L52" s="7" t="n">
         <v>0.03</v>
       </c>
-      <c r="M52" s="8"/>
-      <c r="N52" s="8" t="n">
+      <c r="M52" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N52" s="7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2787,38 +2818,40 @@
       <c r="B53" s="0" t="n">
         <v>1123.69677850463</v>
       </c>
-      <c r="C53" s="5" t="n">
+      <c r="C53" s="4" t="n">
         <v>1135.41981005869</v>
       </c>
-      <c r="D53" s="6" t="n">
+      <c r="D53" s="5" t="n">
         <v>74.3</v>
       </c>
-      <c r="E53" s="7" t="n">
+      <c r="E53" s="6" t="n">
         <v>42.3</v>
       </c>
-      <c r="F53" s="8" t="n">
+      <c r="F53" s="7" t="n">
         <v>0.16</v>
       </c>
-      <c r="G53" s="8" t="n">
+      <c r="G53" s="7" t="n">
         <v>23</v>
       </c>
-      <c r="H53" s="8" t="n">
+      <c r="H53" s="7" t="n">
         <v>7.22</v>
       </c>
-      <c r="I53" s="8" t="n">
+      <c r="I53" s="7" t="n">
         <v>0.28</v>
       </c>
-      <c r="J53" s="8" t="n">
+      <c r="J53" s="7" t="n">
         <v>21.3</v>
       </c>
-      <c r="K53" s="8" t="n">
+      <c r="K53" s="7" t="n">
         <v>5.12</v>
       </c>
-      <c r="L53" s="8" t="n">
+      <c r="L53" s="7" t="n">
         <v>0.02</v>
       </c>
-      <c r="M53" s="8"/>
-      <c r="N53" s="8" t="n">
+      <c r="M53" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N53" s="7" t="n">
         <v>0.76</v>
       </c>
     </row>
@@ -2829,38 +2862,40 @@
       <c r="B54" s="0" t="n">
         <v>1128.02899666494</v>
       </c>
-      <c r="C54" s="5" t="n">
+      <c r="C54" s="4" t="n">
         <v>1145.31583895709</v>
       </c>
-      <c r="D54" s="6" t="n">
+      <c r="D54" s="5" t="n">
         <v>77.6</v>
       </c>
-      <c r="E54" s="7" t="n">
+      <c r="E54" s="6" t="n">
         <v>42</v>
       </c>
-      <c r="F54" s="8" t="n">
+      <c r="F54" s="7" t="n">
         <v>0.19</v>
       </c>
-      <c r="G54" s="8" t="n">
+      <c r="G54" s="7" t="n">
         <v>23.2</v>
       </c>
-      <c r="H54" s="8" t="n">
+      <c r="H54" s="7" t="n">
         <v>7.65</v>
       </c>
-      <c r="I54" s="8" t="n">
+      <c r="I54" s="7" t="n">
         <v>0.28</v>
       </c>
-      <c r="J54" s="8" t="n">
+      <c r="J54" s="7" t="n">
         <v>21.2</v>
       </c>
-      <c r="K54" s="8" t="n">
+      <c r="K54" s="7" t="n">
         <v>4.89</v>
       </c>
-      <c r="L54" s="8" t="n">
+      <c r="L54" s="7" t="n">
         <v>0.02</v>
       </c>
-      <c r="M54" s="8"/>
-      <c r="N54" s="8" t="n">
+      <c r="M54" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N54" s="7" t="n">
         <v>0.62</v>
       </c>
     </row>
@@ -2871,38 +2906,40 @@
       <c r="B55" s="0" t="n">
         <v>1107.59856885814</v>
       </c>
-      <c r="C55" s="5" t="n">
+      <c r="C55" s="4" t="n">
         <v>1126.78646312871</v>
       </c>
-      <c r="D55" s="6" t="n">
+      <c r="D55" s="5" t="n">
         <v>71.5</v>
       </c>
-      <c r="E55" s="7" t="n">
+      <c r="E55" s="6" t="n">
         <v>42.4</v>
       </c>
-      <c r="F55" s="8" t="n">
+      <c r="F55" s="7" t="n">
         <v>0.2</v>
       </c>
-      <c r="G55" s="8" t="n">
+      <c r="G55" s="7" t="n">
         <v>22.9</v>
       </c>
-      <c r="H55" s="8" t="n">
+      <c r="H55" s="7" t="n">
         <v>7.91</v>
       </c>
-      <c r="I55" s="8" t="n">
+      <c r="I55" s="7" t="n">
         <v>0.33</v>
       </c>
-      <c r="J55" s="8" t="n">
+      <c r="J55" s="7" t="n">
         <v>21.2</v>
       </c>
-      <c r="K55" s="8" t="n">
+      <c r="K55" s="7" t="n">
         <v>4.9</v>
       </c>
-      <c r="L55" s="8" t="n">
+      <c r="L55" s="7" t="n">
         <v>0.02</v>
       </c>
-      <c r="M55" s="8"/>
-      <c r="N55" s="8" t="n">
+      <c r="M55" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N55" s="7" t="n">
         <v>0.54</v>
       </c>
     </row>
@@ -2913,38 +2950,40 @@
       <c r="B56" s="0" t="n">
         <v>1140.53348762868</v>
       </c>
-      <c r="C56" s="5" t="n">
+      <c r="C56" s="4" t="n">
         <v>1159.21420987061</v>
       </c>
-      <c r="D56" s="6" t="n">
+      <c r="D56" s="5" t="n">
         <v>82.4</v>
       </c>
-      <c r="E56" s="7" t="n">
+      <c r="E56" s="6" t="n">
         <v>42.5</v>
       </c>
-      <c r="F56" s="8" t="n">
+      <c r="F56" s="7" t="n">
         <v>0.2</v>
       </c>
-      <c r="G56" s="8" t="n">
+      <c r="G56" s="7" t="n">
         <v>23.3</v>
       </c>
-      <c r="H56" s="8" t="n">
+      <c r="H56" s="7" t="n">
         <v>7.91</v>
       </c>
-      <c r="I56" s="8" t="n">
+      <c r="I56" s="7" t="n">
         <v>0.32</v>
       </c>
-      <c r="J56" s="8" t="n">
+      <c r="J56" s="7" t="n">
         <v>21.3</v>
       </c>
-      <c r="K56" s="8" t="n">
+      <c r="K56" s="7" t="n">
         <v>4.94</v>
       </c>
-      <c r="L56" s="8" t="n">
+      <c r="L56" s="7" t="n">
         <v>0.02</v>
       </c>
-      <c r="M56" s="8"/>
-      <c r="N56" s="8" t="n">
+      <c r="M56" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N56" s="7" t="n">
         <v>0.48</v>
       </c>
     </row>
@@ -2955,38 +2994,40 @@
       <c r="B57" s="0" t="n">
         <v>1063.04357077157</v>
       </c>
-      <c r="C57" s="5" t="n">
+      <c r="C57" s="4" t="n">
         <v>1026.13638030443</v>
       </c>
-      <c r="D57" s="6" t="n">
+      <c r="D57" s="5" t="n">
         <v>44</v>
       </c>
-      <c r="E57" s="7" t="n">
+      <c r="E57" s="6" t="n">
         <v>41.1</v>
       </c>
-      <c r="F57" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G57" s="8" t="n">
+      <c r="F57" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G57" s="7" t="n">
         <v>19.9</v>
       </c>
-      <c r="H57" s="8" t="n">
+      <c r="H57" s="7" t="n">
         <v>6.61</v>
       </c>
-      <c r="I57" s="8" t="n">
+      <c r="I57" s="7" t="n">
         <v>0.28</v>
       </c>
-      <c r="J57" s="8" t="n">
+      <c r="J57" s="7" t="n">
         <v>21</v>
       </c>
-      <c r="K57" s="8" t="n">
+      <c r="K57" s="7" t="n">
         <v>4.66</v>
       </c>
-      <c r="L57" s="8" t="n">
+      <c r="L57" s="7" t="n">
         <v>0.03</v>
       </c>
-      <c r="M57" s="8"/>
-      <c r="N57" s="8" t="n">
+      <c r="M57" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N57" s="7" t="n">
         <v>5.59</v>
       </c>
     </row>
@@ -2997,38 +3038,40 @@
       <c r="B58" s="0" t="n">
         <v>1034.50193669086</v>
       </c>
-      <c r="C58" s="5" t="n">
+      <c r="C58" s="4" t="n">
         <v>1008.05370240209</v>
       </c>
-      <c r="D58" s="6" t="n">
+      <c r="D58" s="5" t="n">
         <v>40</v>
       </c>
-      <c r="E58" s="7" t="n">
+      <c r="E58" s="6" t="n">
         <v>42.5</v>
       </c>
-      <c r="F58" s="8" t="n">
+      <c r="F58" s="7" t="n">
         <v>0.23</v>
       </c>
-      <c r="G58" s="8" t="n">
+      <c r="G58" s="7" t="n">
         <v>21.2</v>
       </c>
-      <c r="H58" s="8" t="n">
+      <c r="H58" s="7" t="n">
         <v>6.96</v>
       </c>
-      <c r="I58" s="8" t="n">
+      <c r="I58" s="7" t="n">
         <v>0.27</v>
       </c>
-      <c r="J58" s="8" t="n">
+      <c r="J58" s="7" t="n">
         <v>19.3</v>
       </c>
-      <c r="K58" s="8" t="n">
+      <c r="K58" s="7" t="n">
         <v>4.96</v>
       </c>
-      <c r="L58" s="8" t="n">
+      <c r="L58" s="7" t="n">
         <v>0.04</v>
       </c>
-      <c r="M58" s="8"/>
-      <c r="N58" s="8" t="n">
+      <c r="M58" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N58" s="7" t="n">
         <v>4.25</v>
       </c>
     </row>
@@ -3039,38 +3082,40 @@
       <c r="B59" s="0" t="n">
         <v>1071.73475220856</v>
       </c>
-      <c r="C59" s="5" t="n">
+      <c r="C59" s="4" t="n">
         <v>1003.33460047701</v>
       </c>
-      <c r="D59" s="6" t="n">
+      <c r="D59" s="5" t="n">
         <v>39</v>
       </c>
-      <c r="E59" s="7" t="n">
+      <c r="E59" s="6" t="n">
         <v>41.49</v>
       </c>
-      <c r="F59" s="8" t="n">
+      <c r="F59" s="7" t="n">
         <v>0.48</v>
       </c>
-      <c r="G59" s="8" t="n">
+      <c r="G59" s="7" t="n">
         <v>18.99</v>
       </c>
-      <c r="H59" s="8" t="n">
+      <c r="H59" s="7" t="n">
         <v>5.75</v>
       </c>
-      <c r="I59" s="8" t="n">
+      <c r="I59" s="7" t="n">
         <v>0.32</v>
       </c>
-      <c r="J59" s="8" t="n">
+      <c r="J59" s="7" t="n">
         <v>19.81</v>
       </c>
-      <c r="K59" s="8" t="n">
+      <c r="K59" s="7" t="n">
         <v>5.71</v>
       </c>
-      <c r="L59" s="8" t="n">
+      <c r="L59" s="7" t="n">
         <v>0.1</v>
       </c>
-      <c r="M59" s="8"/>
-      <c r="N59" s="8" t="n">
+      <c r="M59" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N59" s="7" t="n">
         <v>6.65</v>
       </c>
     </row>
@@ -3081,38 +3126,40 @@
       <c r="B60" s="0" t="n">
         <v>1203.34696029018</v>
       </c>
-      <c r="C60" s="5" t="n">
+      <c r="C60" s="4" t="n">
         <v>1152.3354007409</v>
       </c>
-      <c r="D60" s="6" t="n">
+      <c r="D60" s="5" t="n">
         <v>80</v>
       </c>
-      <c r="E60" s="7" t="n">
+      <c r="E60" s="6" t="n">
         <v>41.33</v>
       </c>
-      <c r="F60" s="8" t="n">
+      <c r="F60" s="7" t="n">
         <v>0.38</v>
       </c>
-      <c r="G60" s="8" t="n">
+      <c r="G60" s="7" t="n">
         <v>19.98</v>
       </c>
-      <c r="H60" s="8" t="n">
+      <c r="H60" s="7" t="n">
         <v>6.92</v>
       </c>
-      <c r="I60" s="8" t="n">
+      <c r="I60" s="7" t="n">
         <v>0.28</v>
       </c>
-      <c r="J60" s="8" t="n">
+      <c r="J60" s="7" t="n">
         <v>20.32</v>
       </c>
-      <c r="K60" s="8" t="n">
+      <c r="K60" s="7" t="n">
         <v>5.28</v>
       </c>
-      <c r="L60" s="8" t="n">
+      <c r="L60" s="7" t="n">
         <v>0.09</v>
       </c>
-      <c r="M60" s="8"/>
-      <c r="N60" s="8" t="n">
+      <c r="M60" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N60" s="7" t="n">
         <v>4.42</v>
       </c>
     </row>
@@ -3123,38 +3170,40 @@
       <c r="B61" s="0" t="n">
         <v>1280.91143337751</v>
       </c>
-      <c r="C61" s="5" t="n">
+      <c r="C61" s="4" t="n">
         <v>1203.45754176162</v>
       </c>
-      <c r="D61" s="6" t="n">
+      <c r="D61" s="5" t="n">
         <v>99</v>
       </c>
-      <c r="E61" s="7" t="n">
+      <c r="E61" s="6" t="n">
         <v>40.98</v>
       </c>
-      <c r="F61" s="8" t="n">
+      <c r="F61" s="7" t="n">
         <v>0.32</v>
       </c>
-      <c r="G61" s="8" t="n">
+      <c r="G61" s="7" t="n">
         <v>19.73</v>
       </c>
-      <c r="H61" s="8" t="n">
+      <c r="H61" s="7" t="n">
         <v>7</v>
       </c>
-      <c r="I61" s="8" t="n">
+      <c r="I61" s="7" t="n">
         <v>0.31</v>
       </c>
-      <c r="J61" s="8" t="n">
+      <c r="J61" s="7" t="n">
         <v>19.96</v>
       </c>
-      <c r="K61" s="8" t="n">
+      <c r="K61" s="7" t="n">
         <v>5.25</v>
       </c>
-      <c r="L61" s="8" t="n">
+      <c r="L61" s="7" t="n">
         <v>0.09</v>
       </c>
-      <c r="M61" s="8"/>
-      <c r="N61" s="8" t="n">
+      <c r="M61" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N61" s="7" t="n">
         <v>5.62</v>
       </c>
     </row>
@@ -3165,38 +3214,40 @@
       <c r="B62" s="0" t="n">
         <v>1020.8602325567</v>
       </c>
-      <c r="C62" s="5" t="n">
+      <c r="C62" s="4" t="n">
         <v>988.641158584623</v>
       </c>
-      <c r="D62" s="6" t="n">
+      <c r="D62" s="5" t="n">
         <v>36</v>
       </c>
-      <c r="E62" s="7" t="n">
+      <c r="E62" s="6" t="n">
         <v>41.66</v>
       </c>
-      <c r="F62" s="8" t="n">
+      <c r="F62" s="7" t="n">
         <v>0.18</v>
       </c>
-      <c r="G62" s="8" t="n">
+      <c r="G62" s="7" t="n">
         <v>20.23</v>
       </c>
-      <c r="H62" s="8" t="n">
+      <c r="H62" s="7" t="n">
         <v>5.96</v>
       </c>
-      <c r="I62" s="8" t="n">
+      <c r="I62" s="7" t="n">
         <v>0.3</v>
       </c>
-      <c r="J62" s="8" t="n">
+      <c r="J62" s="7" t="n">
         <v>21.13</v>
       </c>
-      <c r="K62" s="8" t="n">
+      <c r="K62" s="7" t="n">
         <v>4.86</v>
       </c>
-      <c r="L62" s="8" t="n">
+      <c r="L62" s="7" t="n">
         <v>0.01</v>
       </c>
-      <c r="M62" s="8"/>
-      <c r="N62" s="8" t="n">
+      <c r="M62" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N62" s="7" t="n">
         <v>5.32</v>
       </c>
     </row>
@@ -3207,38 +3258,40 @@
       <c r="B63" s="0" t="n">
         <v>966.814306457102</v>
       </c>
-      <c r="C63" s="5" t="n">
+      <c r="C63" s="4" t="n">
         <v>962.078882214477</v>
       </c>
-      <c r="D63" s="6" t="n">
+      <c r="D63" s="5" t="n">
         <v>31</v>
       </c>
-      <c r="E63" s="7" t="n">
+      <c r="E63" s="6" t="n">
         <v>41.82</v>
       </c>
-      <c r="F63" s="8" t="n">
+      <c r="F63" s="7" t="n">
         <v>0.04</v>
       </c>
-      <c r="G63" s="8" t="n">
+      <c r="G63" s="7" t="n">
         <v>21.81</v>
       </c>
-      <c r="H63" s="8" t="n">
+      <c r="H63" s="7" t="n">
         <v>6.97</v>
       </c>
-      <c r="I63" s="8" t="n">
+      <c r="I63" s="7" t="n">
         <v>0.4</v>
       </c>
-      <c r="J63" s="8" t="n">
+      <c r="J63" s="7" t="n">
         <v>20.5</v>
       </c>
-      <c r="K63" s="8" t="n">
+      <c r="K63" s="7" t="n">
         <v>4.39</v>
       </c>
-      <c r="L63" s="8" t="n">
+      <c r="L63" s="7" t="n">
         <v>0.01</v>
       </c>
-      <c r="M63" s="8"/>
-      <c r="N63" s="8" t="n">
+      <c r="M63" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N63" s="7" t="n">
         <v>3.7</v>
       </c>
     </row>
@@ -3249,38 +3302,40 @@
       <c r="B64" s="0" t="n">
         <v>1013.29124449477</v>
       </c>
-      <c r="C64" s="5" t="n">
+      <c r="C64" s="4" t="n">
         <v>998.52890942806</v>
       </c>
-      <c r="D64" s="6" t="n">
+      <c r="D64" s="5" t="n">
         <v>38</v>
       </c>
-      <c r="E64" s="7" t="n">
+      <c r="E64" s="6" t="n">
         <v>41.57</v>
       </c>
-      <c r="F64" s="8" t="n">
+      <c r="F64" s="7" t="n">
         <v>0.09</v>
       </c>
-      <c r="G64" s="8" t="n">
+      <c r="G64" s="7" t="n">
         <v>21.52</v>
       </c>
-      <c r="H64" s="8" t="n">
+      <c r="H64" s="7" t="n">
         <v>7.71</v>
       </c>
-      <c r="I64" s="8" t="n">
+      <c r="I64" s="7" t="n">
         <v>0.39</v>
       </c>
-      <c r="J64" s="8" t="n">
+      <c r="J64" s="7" t="n">
         <v>20.41</v>
       </c>
-      <c r="K64" s="8" t="n">
+      <c r="K64" s="7" t="n">
         <v>4.82</v>
       </c>
-      <c r="L64" s="8" t="n">
+      <c r="L64" s="7" t="n">
         <v>0.01</v>
       </c>
-      <c r="M64" s="8"/>
-      <c r="N64" s="8" t="n">
+      <c r="M64" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N64" s="7" t="n">
         <v>3.88</v>
       </c>
     </row>
@@ -3291,38 +3346,40 @@
       <c r="B65" s="0" t="n">
         <v>1189.52696874511</v>
       </c>
-      <c r="C65" s="5" t="n">
+      <c r="C65" s="4" t="n">
         <v>1163.72542120457</v>
       </c>
-      <c r="D65" s="6" t="n">
+      <c r="D65" s="5" t="n">
         <v>84</v>
       </c>
-      <c r="E65" s="7" t="n">
+      <c r="E65" s="6" t="n">
         <v>42.95</v>
       </c>
-      <c r="F65" s="8" t="n">
+      <c r="F65" s="7" t="n">
         <v>0.54</v>
       </c>
-      <c r="G65" s="8" t="n">
+      <c r="G65" s="7" t="n">
         <v>20.92</v>
       </c>
-      <c r="H65" s="8" t="n">
+      <c r="H65" s="7" t="n">
         <v>6.92</v>
       </c>
-      <c r="I65" s="8" t="n">
+      <c r="I65" s="7" t="n">
         <v>0.28</v>
       </c>
-      <c r="J65" s="8" t="n">
+      <c r="J65" s="7" t="n">
         <v>21.05</v>
       </c>
-      <c r="K65" s="8" t="n">
+      <c r="K65" s="7" t="n">
         <v>4.82</v>
       </c>
-      <c r="L65" s="8" t="n">
+      <c r="L65" s="7" t="n">
         <v>0.07</v>
       </c>
-      <c r="M65" s="8"/>
-      <c r="N65" s="8" t="n">
+      <c r="M65" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N65" s="7" t="n">
         <v>3.44</v>
       </c>
     </row>
@@ -3333,38 +3390,40 @@
       <c r="B66" s="0" t="n">
         <v>1042.70913586489</v>
       </c>
-      <c r="C66" s="5" t="n">
+      <c r="C66" s="4" t="n">
         <v>1008.05370240209</v>
       </c>
-      <c r="D66" s="6" t="n">
+      <c r="D66" s="5" t="n">
         <v>40</v>
       </c>
-      <c r="E66" s="7" t="n">
+      <c r="E66" s="6" t="n">
         <v>42.3</v>
       </c>
-      <c r="F66" s="8" t="n">
+      <c r="F66" s="7" t="n">
         <v>0.03</v>
       </c>
-      <c r="G66" s="8" t="n">
+      <c r="G66" s="7" t="n">
         <v>21.9</v>
       </c>
-      <c r="H66" s="8" t="n">
+      <c r="H66" s="7" t="n">
         <v>6.97</v>
       </c>
-      <c r="I66" s="8" t="n">
+      <c r="I66" s="7" t="n">
         <v>0.26</v>
       </c>
-      <c r="J66" s="8" t="n">
+      <c r="J66" s="7" t="n">
         <v>20</v>
       </c>
-      <c r="K66" s="8" t="n">
+      <c r="K66" s="7" t="n">
         <v>5.34</v>
       </c>
-      <c r="L66" s="8" t="n">
+      <c r="L66" s="7" t="n">
         <v>0.02</v>
       </c>
-      <c r="M66" s="8"/>
-      <c r="N66" s="8" t="n">
+      <c r="M66" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N66" s="7" t="n">
         <v>4.89</v>
       </c>
     </row>
@@ -3375,38 +3434,40 @@
       <c r="B67" s="0" t="n">
         <v>931.23867120928</v>
       </c>
-      <c r="C67" s="5" t="n">
+      <c r="C67" s="4" t="n">
         <v>912.26551977275</v>
       </c>
-      <c r="D67" s="6" t="n">
+      <c r="D67" s="5" t="n">
         <v>23</v>
       </c>
-      <c r="E67" s="7" t="n">
+      <c r="E67" s="6" t="n">
         <v>41.8</v>
       </c>
-      <c r="F67" s="8" t="n">
+      <c r="F67" s="7" t="n">
         <v>0.06</v>
       </c>
-      <c r="G67" s="8" t="n">
+      <c r="G67" s="7" t="n">
         <v>21.3</v>
       </c>
-      <c r="H67" s="8" t="n">
+      <c r="H67" s="7" t="n">
         <v>7.83</v>
       </c>
-      <c r="I67" s="8" t="n">
+      <c r="I67" s="7" t="n">
         <v>0.39</v>
       </c>
-      <c r="J67" s="8" t="n">
+      <c r="J67" s="7" t="n">
         <v>19.7</v>
       </c>
-      <c r="K67" s="8" t="n">
+      <c r="K67" s="7" t="n">
         <v>5.41</v>
       </c>
-      <c r="L67" s="8" t="n">
+      <c r="L67" s="7" t="n">
         <v>0.02</v>
       </c>
-      <c r="M67" s="8"/>
-      <c r="N67" s="8" t="n">
+      <c r="M67" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N67" s="7" t="n">
         <v>4.16</v>
       </c>
     </row>
@@ -3417,38 +3478,40 @@
       <c r="B68" s="0" t="n">
         <v>915.206065845253</v>
       </c>
-      <c r="C68" s="5" t="n">
+      <c r="C68" s="4" t="n">
         <v>932.231292471864</v>
       </c>
-      <c r="D68" s="6" t="n">
+      <c r="D68" s="5" t="n">
         <v>26</v>
       </c>
-      <c r="E68" s="7" t="n">
+      <c r="E68" s="6" t="n">
         <v>41.7</v>
       </c>
-      <c r="F68" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G68" s="8" t="n">
+      <c r="F68" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G68" s="7" t="n">
         <v>22.9</v>
       </c>
-      <c r="H68" s="8" t="n">
+      <c r="H68" s="7" t="n">
         <v>8.64</v>
       </c>
-      <c r="I68" s="8" t="n">
+      <c r="I68" s="7" t="n">
         <v>0.31</v>
       </c>
-      <c r="J68" s="8" t="n">
+      <c r="J68" s="7" t="n">
         <v>19.9</v>
       </c>
-      <c r="K68" s="8" t="n">
+      <c r="K68" s="7" t="n">
         <v>4.53</v>
       </c>
-      <c r="L68" s="8" t="n">
+      <c r="L68" s="7" t="n">
         <v>0.02</v>
       </c>
-      <c r="M68" s="8"/>
-      <c r="N68" s="8" t="n">
+      <c r="M68" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N68" s="7" t="n">
         <v>1.56</v>
       </c>
     </row>
@@ -3459,38 +3522,40 @@
       <c r="B69" s="0" t="n">
         <v>1375.27414277544</v>
       </c>
-      <c r="C69" s="5" t="n">
+      <c r="C69" s="4" t="n">
         <v>1290.88338403662</v>
       </c>
-      <c r="D69" s="6" t="n">
+      <c r="D69" s="5" t="n">
         <v>138</v>
       </c>
-      <c r="E69" s="7" t="n">
+      <c r="E69" s="6" t="n">
         <v>40.96</v>
       </c>
-      <c r="F69" s="8" t="n">
+      <c r="F69" s="7" t="n">
         <v>1.49</v>
       </c>
-      <c r="G69" s="8" t="n">
+      <c r="G69" s="7" t="n">
         <v>18.36</v>
       </c>
-      <c r="H69" s="8" t="n">
+      <c r="H69" s="7" t="n">
         <v>6.79</v>
       </c>
-      <c r="I69" s="8" t="n">
+      <c r="I69" s="7" t="n">
         <v>0.27</v>
       </c>
-      <c r="J69" s="8" t="n">
+      <c r="J69" s="7" t="n">
         <v>21.19</v>
       </c>
-      <c r="K69" s="8" t="n">
+      <c r="K69" s="7" t="n">
         <v>5.13</v>
       </c>
-      <c r="L69" s="8" t="n">
+      <c r="L69" s="7" t="n">
         <v>0.09</v>
       </c>
-      <c r="M69" s="8"/>
-      <c r="N69" s="8" t="n">
+      <c r="M69" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N69" s="7" t="n">
         <v>5.15</v>
       </c>
     </row>
@@ -3501,36 +3566,38 @@
       <c r="B70" s="0" t="n">
         <v>1017.8183680757</v>
       </c>
-      <c r="C70" s="5" t="n">
+      <c r="C70" s="4" t="n">
         <v>1026.57330961424</v>
       </c>
-      <c r="D70" s="6" t="n">
+      <c r="D70" s="5" t="n">
         <v>44.1</v>
       </c>
-      <c r="E70" s="7" t="n">
+      <c r="E70" s="6" t="n">
         <v>41.29</v>
       </c>
-      <c r="F70" s="8" t="n">
+      <c r="F70" s="7" t="n">
         <v>0.03</v>
       </c>
-      <c r="G70" s="8" t="n">
+      <c r="G70" s="7" t="n">
         <v>22.65</v>
       </c>
-      <c r="H70" s="8" t="n">
+      <c r="H70" s="7" t="n">
         <v>7.07</v>
       </c>
-      <c r="I70" s="8" t="n">
+      <c r="I70" s="7" t="n">
         <v>0.33</v>
       </c>
-      <c r="J70" s="8" t="n">
+      <c r="J70" s="7" t="n">
         <v>21.21</v>
       </c>
-      <c r="K70" s="8" t="n">
+      <c r="K70" s="7" t="n">
         <v>4.5</v>
       </c>
-      <c r="L70" s="8"/>
-      <c r="M70" s="8"/>
-      <c r="N70" s="8" t="n">
+      <c r="L70" s="7"/>
+      <c r="M70" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N70" s="7" t="n">
         <v>2.12</v>
       </c>
     </row>
@@ -3541,38 +3608,40 @@
       <c r="B71" s="0" t="n">
         <v>1169.09239713793</v>
       </c>
-      <c r="C71" s="5" t="n">
+      <c r="C71" s="4" t="n">
         <v>1099.41626095537</v>
       </c>
-      <c r="D71" s="6" t="n">
+      <c r="D71" s="5" t="n">
         <v>63.1</v>
       </c>
-      <c r="E71" s="7" t="n">
+      <c r="E71" s="6" t="n">
         <v>40.81</v>
       </c>
-      <c r="F71" s="8" t="n">
+      <c r="F71" s="7" t="n">
         <v>0.4</v>
       </c>
-      <c r="G71" s="8" t="n">
+      <c r="G71" s="7" t="n">
         <v>19.1</v>
       </c>
-      <c r="H71" s="8" t="n">
+      <c r="H71" s="7" t="n">
         <v>5.9</v>
       </c>
-      <c r="I71" s="8" t="n">
+      <c r="I71" s="7" t="n">
         <v>0.29</v>
       </c>
-      <c r="J71" s="8" t="n">
+      <c r="J71" s="7" t="n">
         <v>21.13</v>
       </c>
-      <c r="K71" s="8" t="n">
+      <c r="K71" s="7" t="n">
         <v>5.36</v>
       </c>
-      <c r="L71" s="8" t="n">
+      <c r="L71" s="7" t="n">
         <v>0.02</v>
       </c>
-      <c r="M71" s="8"/>
-      <c r="N71" s="8" t="n">
+      <c r="M71" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N71" s="7" t="n">
         <v>6.24</v>
       </c>
     </row>
@@ -3583,38 +3652,40 @@
       <c r="B72" s="0" t="n">
         <v>1277.16121446619</v>
       </c>
-      <c r="C72" s="5" t="n">
+      <c r="C72" s="4" t="n">
         <v>1250.64566907871</v>
       </c>
-      <c r="D72" s="6" t="n">
+      <c r="D72" s="5" t="n">
         <v>119</v>
       </c>
-      <c r="E72" s="7" t="n">
+      <c r="E72" s="6" t="n">
         <v>41.98</v>
       </c>
-      <c r="F72" s="8" t="n">
+      <c r="F72" s="7" t="n">
         <v>0.56</v>
       </c>
-      <c r="G72" s="8" t="n">
+      <c r="G72" s="7" t="n">
         <v>20.55</v>
       </c>
-      <c r="H72" s="8" t="n">
+      <c r="H72" s="7" t="n">
         <v>6.85</v>
       </c>
-      <c r="I72" s="8" t="n">
+      <c r="I72" s="7" t="n">
         <v>0.26</v>
       </c>
-      <c r="J72" s="8" t="n">
+      <c r="J72" s="7" t="n">
         <v>21.94</v>
       </c>
-      <c r="K72" s="8" t="n">
+      <c r="K72" s="7" t="n">
         <v>4.62</v>
       </c>
-      <c r="L72" s="8" t="n">
+      <c r="L72" s="7" t="n">
         <v>0.03</v>
       </c>
-      <c r="M72" s="8"/>
-      <c r="N72" s="8" t="n">
+      <c r="M72" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N72" s="7" t="n">
         <v>3.28</v>
       </c>
     </row>
@@ -3625,38 +3696,40 @@
       <c r="B73" s="0" t="n">
         <v>982.454321260015</v>
       </c>
-      <c r="C73" s="5" t="n">
+      <c r="C73" s="4" t="n">
         <v>1001.42293625985</v>
       </c>
-      <c r="D73" s="6" t="n">
+      <c r="D73" s="5" t="n">
         <v>38.6</v>
       </c>
-      <c r="E73" s="7" t="n">
+      <c r="E73" s="6" t="n">
         <v>41.64</v>
       </c>
-      <c r="F73" s="8" t="n">
+      <c r="F73" s="7" t="n">
         <v>0.19</v>
       </c>
-      <c r="G73" s="8" t="n">
+      <c r="G73" s="7" t="n">
         <v>22.54</v>
       </c>
-      <c r="H73" s="8" t="n">
+      <c r="H73" s="7" t="n">
         <v>7.6</v>
       </c>
-      <c r="I73" s="8" t="n">
+      <c r="I73" s="7" t="n">
         <v>0.38</v>
       </c>
-      <c r="J73" s="8" t="n">
+      <c r="J73" s="7" t="n">
         <v>21.6</v>
       </c>
-      <c r="K73" s="8" t="n">
+      <c r="K73" s="7" t="n">
         <v>3.83</v>
       </c>
-      <c r="L73" s="8" t="n">
+      <c r="L73" s="7" t="n">
         <v>0.06</v>
       </c>
-      <c r="M73" s="8"/>
-      <c r="N73" s="8" t="n">
+      <c r="M73" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N73" s="7" t="n">
         <v>2.23</v>
       </c>
     </row>
@@ -3667,38 +3740,40 @@
       <c r="B74" s="0" t="n">
         <v>1164.87123304529</v>
       </c>
-      <c r="C74" s="5" t="n">
+      <c r="C74" s="4" t="n">
         <v>1089.31752463217</v>
       </c>
-      <c r="D74" s="6" t="n">
+      <c r="D74" s="5" t="n">
         <v>60.18</v>
       </c>
-      <c r="E74" s="7" t="n">
+      <c r="E74" s="6" t="n">
         <v>42.02</v>
       </c>
-      <c r="F74" s="8" t="n">
+      <c r="F74" s="7" t="n">
         <v>0.23</v>
       </c>
-      <c r="G74" s="8" t="n">
+      <c r="G74" s="7" t="n">
         <v>18.55</v>
       </c>
-      <c r="H74" s="8" t="n">
+      <c r="H74" s="7" t="n">
         <v>6.56</v>
       </c>
-      <c r="I74" s="8" t="n">
+      <c r="I74" s="7" t="n">
         <v>0.33</v>
       </c>
-      <c r="J74" s="8" t="n">
+      <c r="J74" s="7" t="n">
         <v>20.55</v>
       </c>
-      <c r="K74" s="8" t="n">
+      <c r="K74" s="7" t="n">
         <v>5.48</v>
       </c>
-      <c r="L74" s="8" t="n">
+      <c r="L74" s="7" t="n">
         <v>0.04</v>
       </c>
-      <c r="M74" s="8"/>
-      <c r="N74" s="8" t="n">
+      <c r="M74" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N74" s="7" t="n">
         <v>6.46</v>
       </c>
     </row>
@@ -3709,38 +3784,40 @@
       <c r="B75" s="0" t="n">
         <v>1157.32464903405</v>
       </c>
-      <c r="C75" s="5" t="n">
+      <c r="C75" s="4" t="n">
         <v>1082.02408142177</v>
       </c>
-      <c r="D75" s="6" t="n">
+      <c r="D75" s="5" t="n">
         <v>58.13</v>
       </c>
-      <c r="E75" s="7" t="n">
+      <c r="E75" s="6" t="n">
         <v>42.33</v>
       </c>
-      <c r="F75" s="8" t="n">
+      <c r="F75" s="7" t="n">
         <v>0.22</v>
       </c>
-      <c r="G75" s="8" t="n">
+      <c r="G75" s="7" t="n">
         <v>18.42</v>
       </c>
-      <c r="H75" s="8" t="n">
+      <c r="H75" s="7" t="n">
         <v>6.61</v>
       </c>
-      <c r="I75" s="8" t="n">
+      <c r="I75" s="7" t="n">
         <v>0.29</v>
       </c>
-      <c r="J75" s="8" t="n">
+      <c r="J75" s="7" t="n">
         <v>20.49</v>
       </c>
-      <c r="K75" s="8" t="n">
+      <c r="K75" s="7" t="n">
         <v>5.44</v>
       </c>
-      <c r="L75" s="8" t="n">
+      <c r="L75" s="7" t="n">
         <v>0.02</v>
       </c>
-      <c r="M75" s="8"/>
-      <c r="N75" s="8" t="n">
+      <c r="M75" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N75" s="7" t="n">
         <v>6.55</v>
       </c>
     </row>
@@ -3751,38 +3828,40 @@
       <c r="B76" s="0" t="n">
         <v>1163.68526161174</v>
       </c>
-      <c r="C76" s="5" t="n">
+      <c r="C76" s="4" t="n">
         <v>1136.42266289993</v>
       </c>
-      <c r="D76" s="6" t="n">
+      <c r="D76" s="5" t="n">
         <v>74.63</v>
       </c>
-      <c r="E76" s="7" t="n">
+      <c r="E76" s="6" t="n">
         <v>42.44</v>
       </c>
-      <c r="F76" s="8" t="n">
+      <c r="F76" s="7" t="n">
         <v>0.41</v>
       </c>
-      <c r="G76" s="8" t="n">
+      <c r="G76" s="7" t="n">
         <v>20.39</v>
       </c>
-      <c r="H76" s="8" t="n">
+      <c r="H76" s="7" t="n">
         <v>7.49</v>
       </c>
-      <c r="I76" s="8" t="n">
+      <c r="I76" s="7" t="n">
         <v>0.32</v>
       </c>
-      <c r="J76" s="8" t="n">
+      <c r="J76" s="7" t="n">
         <v>20.47</v>
       </c>
-      <c r="K76" s="8" t="n">
+      <c r="K76" s="7" t="n">
         <v>4.75</v>
       </c>
-      <c r="L76" s="8" t="n">
+      <c r="L76" s="7" t="n">
         <v>0.07</v>
       </c>
-      <c r="M76" s="8"/>
-      <c r="N76" s="8" t="n">
+      <c r="M76" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N76" s="7" t="n">
         <v>3.69</v>
       </c>
     </row>
@@ -3793,38 +3872,40 @@
       <c r="B77" s="0" t="n">
         <v>1176.10045474177</v>
       </c>
-      <c r="C77" s="5" t="n">
+      <c r="C77" s="4" t="n">
         <v>1146.05383299514</v>
       </c>
-      <c r="D77" s="6" t="n">
+      <c r="D77" s="5" t="n">
         <v>77.85</v>
       </c>
-      <c r="E77" s="7" t="n">
+      <c r="E77" s="6" t="n">
         <v>41.64</v>
       </c>
-      <c r="F77" s="8" t="n">
+      <c r="F77" s="7" t="n">
         <v>0.41</v>
       </c>
-      <c r="G77" s="8" t="n">
+      <c r="G77" s="7" t="n">
         <v>20.26</v>
       </c>
-      <c r="H77" s="8" t="n">
+      <c r="H77" s="7" t="n">
         <v>7.47</v>
       </c>
-      <c r="I77" s="8" t="n">
+      <c r="I77" s="7" t="n">
         <v>0.33</v>
       </c>
-      <c r="J77" s="8" t="n">
+      <c r="J77" s="7" t="n">
         <v>20.41</v>
       </c>
-      <c r="K77" s="8" t="n">
+      <c r="K77" s="7" t="n">
         <v>4.75</v>
       </c>
-      <c r="L77" s="8" t="n">
+      <c r="L77" s="7" t="n">
         <v>0.06</v>
       </c>
-      <c r="M77" s="8"/>
-      <c r="N77" s="8" t="n">
+      <c r="M77" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N77" s="7" t="n">
         <v>3.78</v>
       </c>
     </row>
@@ -3835,38 +3916,40 @@
       <c r="B78" s="0" t="n">
         <v>1136.38239062709</v>
       </c>
-      <c r="C78" s="5" t="n">
+      <c r="C78" s="4" t="n">
         <v>1112.8070564452</v>
       </c>
-      <c r="D78" s="6" t="n">
+      <c r="D78" s="5" t="n">
         <v>67.12</v>
       </c>
-      <c r="E78" s="7" t="n">
+      <c r="E78" s="6" t="n">
         <v>42.25</v>
       </c>
-      <c r="F78" s="8" t="n">
+      <c r="F78" s="7" t="n">
         <v>0.21</v>
       </c>
-      <c r="G78" s="8" t="n">
+      <c r="G78" s="7" t="n">
         <v>20.49</v>
       </c>
-      <c r="H78" s="8" t="n">
+      <c r="H78" s="7" t="n">
         <v>6.97</v>
       </c>
-      <c r="I78" s="8" t="n">
+      <c r="I78" s="7" t="n">
         <v>0.29</v>
       </c>
-      <c r="J78" s="8" t="n">
+      <c r="J78" s="7" t="n">
         <v>20.83</v>
       </c>
-      <c r="K78" s="8" t="n">
+      <c r="K78" s="7" t="n">
         <v>4.7</v>
       </c>
-      <c r="L78" s="8" t="n">
+      <c r="L78" s="7" t="n">
         <v>0.03</v>
       </c>
-      <c r="M78" s="8"/>
-      <c r="N78" s="8" t="n">
+      <c r="M78" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N78" s="7" t="n">
         <v>3.69</v>
       </c>
     </row>
@@ -3877,38 +3960,40 @@
       <c r="B79" s="0" t="n">
         <v>1119.95487892628</v>
       </c>
-      <c r="C79" s="5" t="n">
+      <c r="C79" s="4" t="n">
         <v>1095.96029673487</v>
       </c>
-      <c r="D79" s="6" t="n">
+      <c r="D79" s="5" t="n">
         <v>62.09</v>
       </c>
-      <c r="E79" s="7" t="n">
+      <c r="E79" s="6" t="n">
         <v>42.43</v>
       </c>
-      <c r="F79" s="8" t="n">
+      <c r="F79" s="7" t="n">
         <v>0.22</v>
       </c>
-      <c r="G79" s="8" t="n">
+      <c r="G79" s="7" t="n">
         <v>20.56</v>
       </c>
-      <c r="H79" s="8" t="n">
+      <c r="H79" s="7" t="n">
         <v>6.96</v>
       </c>
-      <c r="I79" s="8" t="n">
+      <c r="I79" s="7" t="n">
         <v>0.32</v>
       </c>
-      <c r="J79" s="8" t="n">
+      <c r="J79" s="7" t="n">
         <v>21.16</v>
       </c>
-      <c r="K79" s="8" t="n">
+      <c r="K79" s="7" t="n">
         <v>4.77</v>
       </c>
-      <c r="L79" s="8" t="n">
+      <c r="L79" s="7" t="n">
         <v>0.03</v>
       </c>
-      <c r="M79" s="8"/>
-      <c r="N79" s="8" t="n">
+      <c r="M79" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N79" s="7" t="n">
         <v>3.86</v>
       </c>
     </row>
@@ -3919,38 +4004,40 @@
       <c r="B80" s="0" t="n">
         <v>1182.24294060362</v>
       </c>
-      <c r="C80" s="5" t="n">
+      <c r="C80" s="4" t="n">
         <v>1127.44186021587</v>
       </c>
-      <c r="D80" s="6" t="n">
+      <c r="D80" s="5" t="n">
         <v>71.71</v>
       </c>
-      <c r="E80" s="7" t="n">
+      <c r="E80" s="6" t="n">
         <v>41.67</v>
       </c>
-      <c r="F80" s="8" t="n">
+      <c r="F80" s="7" t="n">
         <v>0.29</v>
       </c>
-      <c r="G80" s="8" t="n">
+      <c r="G80" s="7" t="n">
         <v>19.31</v>
       </c>
-      <c r="H80" s="8" t="n">
+      <c r="H80" s="7" t="n">
         <v>7.2</v>
       </c>
-      <c r="I80" s="8" t="n">
+      <c r="I80" s="7" t="n">
         <v>0.32</v>
       </c>
-      <c r="J80" s="8" t="n">
+      <c r="J80" s="7" t="n">
         <v>20.91</v>
       </c>
-      <c r="K80" s="8" t="n">
+      <c r="K80" s="7" t="n">
         <v>5.1</v>
       </c>
-      <c r="L80" s="8" t="n">
+      <c r="L80" s="7" t="n">
         <v>0.04</v>
       </c>
-      <c r="M80" s="8"/>
-      <c r="N80" s="8" t="n">
+      <c r="M80" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N80" s="7" t="n">
         <v>5.25</v>
       </c>
     </row>
@@ -3961,38 +4048,40 @@
       <c r="B81" s="0" t="n">
         <v>1152.19664585181</v>
       </c>
-      <c r="C81" s="5" t="n">
+      <c r="C81" s="4" t="n">
         <v>1105.51573767974</v>
       </c>
-      <c r="D81" s="6" t="n">
+      <c r="D81" s="5" t="n">
         <v>64.91</v>
       </c>
-      <c r="E81" s="7" t="n">
+      <c r="E81" s="6" t="n">
         <v>41.89</v>
       </c>
-      <c r="F81" s="8" t="n">
+      <c r="F81" s="7" t="n">
         <v>0.28</v>
       </c>
-      <c r="G81" s="8" t="n">
+      <c r="G81" s="7" t="n">
         <v>19.52</v>
       </c>
-      <c r="H81" s="8" t="n">
+      <c r="H81" s="7" t="n">
         <v>7.23</v>
       </c>
-      <c r="I81" s="8" t="n">
+      <c r="I81" s="7" t="n">
         <v>0.32</v>
       </c>
-      <c r="J81" s="8" t="n">
+      <c r="J81" s="7" t="n">
         <v>20.87</v>
       </c>
-      <c r="K81" s="8" t="n">
+      <c r="K81" s="7" t="n">
         <v>5.02</v>
       </c>
-      <c r="L81" s="8" t="n">
+      <c r="L81" s="7" t="n">
         <v>0.04</v>
       </c>
-      <c r="M81" s="8"/>
-      <c r="N81" s="8" t="n">
+      <c r="M81" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N81" s="7" t="n">
         <v>5.01</v>
       </c>
     </row>
@@ -4003,38 +4092,40 @@
       <c r="B82" s="0" t="n">
         <v>1059.28943155156</v>
       </c>
-      <c r="C82" s="5" t="n">
+      <c r="C82" s="4" t="n">
         <v>1056.04308631902</v>
       </c>
-      <c r="D82" s="6" t="n">
+      <c r="D82" s="5" t="n">
         <v>51.22</v>
       </c>
-      <c r="E82" s="7" t="n">
+      <c r="E82" s="6" t="n">
         <v>42.4</v>
       </c>
-      <c r="F82" s="8" t="n">
+      <c r="F82" s="7" t="n">
         <v>0.26</v>
       </c>
-      <c r="G82" s="8" t="n">
+      <c r="G82" s="7" t="n">
         <v>20.96</v>
       </c>
-      <c r="H82" s="8" t="n">
+      <c r="H82" s="7" t="n">
         <v>7.23</v>
       </c>
-      <c r="I82" s="8" t="n">
+      <c r="I82" s="7" t="n">
         <v>0.33</v>
       </c>
-      <c r="J82" s="8" t="n">
+      <c r="J82" s="7" t="n">
         <v>21.32</v>
       </c>
-      <c r="K82" s="8" t="n">
+      <c r="K82" s="7" t="n">
         <v>4.29</v>
       </c>
-      <c r="L82" s="8" t="n">
+      <c r="L82" s="7" t="n">
         <v>0.05</v>
       </c>
-      <c r="M82" s="8"/>
-      <c r="N82" s="8" t="n">
+      <c r="M82" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N82" s="7" t="n">
         <v>3.15</v>
       </c>
     </row>
@@ -4045,38 +4136,40 @@
       <c r="B83" s="0" t="n">
         <v>1055.79249809499</v>
       </c>
-      <c r="C83" s="5" t="n">
+      <c r="C83" s="4" t="n">
         <v>1053.99151661683</v>
       </c>
-      <c r="D83" s="6" t="n">
+      <c r="D83" s="5" t="n">
         <v>50.7</v>
       </c>
-      <c r="E83" s="7" t="n">
+      <c r="E83" s="6" t="n">
         <v>42.76</v>
       </c>
-      <c r="F83" s="8" t="n">
+      <c r="F83" s="7" t="n">
         <v>0.26</v>
       </c>
-      <c r="G83" s="8" t="n">
+      <c r="G83" s="7" t="n">
         <v>21.12</v>
       </c>
-      <c r="H83" s="8" t="n">
+      <c r="H83" s="7" t="n">
         <v>7.26</v>
       </c>
-      <c r="I83" s="8" t="n">
+      <c r="I83" s="7" t="n">
         <v>0.31</v>
       </c>
-      <c r="J83" s="8" t="n">
+      <c r="J83" s="7" t="n">
         <v>21.24</v>
       </c>
-      <c r="K83" s="8" t="n">
+      <c r="K83" s="7" t="n">
         <v>4.24</v>
       </c>
-      <c r="L83" s="8" t="n">
+      <c r="L83" s="7" t="n">
         <v>0.06</v>
       </c>
-      <c r="M83" s="8"/>
-      <c r="N83" s="8" t="n">
+      <c r="M83" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N83" s="7" t="n">
         <v>3.11</v>
       </c>
     </row>
@@ -4087,38 +4180,40 @@
       <c r="B84" s="0" t="n">
         <v>962.264237265282</v>
       </c>
-      <c r="C84" s="5" t="n">
+      <c r="C84" s="4" t="n">
         <v>965.033875089738</v>
       </c>
-      <c r="D84" s="6" t="n">
+      <c r="D84" s="5" t="n">
         <v>31.53</v>
       </c>
-      <c r="E84" s="7" t="n">
+      <c r="E84" s="6" t="n">
         <v>42.16</v>
       </c>
-      <c r="F84" s="8" t="n">
+      <c r="F84" s="7" t="n">
         <v>0.26</v>
       </c>
-      <c r="G84" s="8" t="n">
+      <c r="G84" s="7" t="n">
         <v>21.05</v>
       </c>
-      <c r="H84" s="8" t="n">
+      <c r="H84" s="7" t="n">
         <v>7.23</v>
       </c>
-      <c r="I84" s="8" t="n">
+      <c r="I84" s="7" t="n">
         <v>0.35</v>
       </c>
-      <c r="J84" s="8" t="n">
+      <c r="J84" s="7" t="n">
         <v>21.38</v>
       </c>
-      <c r="K84" s="8" t="n">
+      <c r="K84" s="7" t="n">
         <v>4.25</v>
       </c>
-      <c r="L84" s="8" t="n">
+      <c r="L84" s="7" t="n">
         <v>0.06</v>
       </c>
-      <c r="M84" s="8"/>
-      <c r="N84" s="8" t="n">
+      <c r="M84" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N84" s="7" t="n">
         <v>3.2</v>
       </c>
     </row>
@@ -4129,38 +4224,40 @@
       <c r="B85" s="0" t="n">
         <v>988.585380158446</v>
       </c>
-      <c r="C85" s="5" t="n">
+      <c r="C85" s="4" t="n">
         <v>986.057441173184</v>
       </c>
-      <c r="D85" s="6" t="n">
+      <c r="D85" s="5" t="n">
         <v>35.49</v>
       </c>
-      <c r="E85" s="7" t="n">
+      <c r="E85" s="6" t="n">
         <v>42.5</v>
       </c>
-      <c r="F85" s="8" t="n">
+      <c r="F85" s="7" t="n">
         <v>0.26</v>
       </c>
-      <c r="G85" s="8" t="n">
+      <c r="G85" s="7" t="n">
         <v>20.91</v>
       </c>
-      <c r="H85" s="8" t="n">
+      <c r="H85" s="7" t="n">
         <v>7.35</v>
       </c>
-      <c r="I85" s="8" t="n">
+      <c r="I85" s="7" t="n">
         <v>0.31</v>
       </c>
-      <c r="J85" s="8" t="n">
+      <c r="J85" s="7" t="n">
         <v>21.33</v>
       </c>
-      <c r="K85" s="8" t="n">
+      <c r="K85" s="7" t="n">
         <v>4.32</v>
       </c>
-      <c r="L85" s="8" t="n">
+      <c r="L85" s="7" t="n">
         <v>0.06</v>
       </c>
-      <c r="M85" s="8"/>
-      <c r="N85" s="8" t="n">
+      <c r="M85" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N85" s="7" t="n">
         <v>3.49</v>
       </c>
     </row>
@@ -4171,38 +4268,40 @@
       <c r="B86" s="0" t="n">
         <v>1229.40687358483</v>
       </c>
-      <c r="C86" s="5" t="n">
+      <c r="C86" s="4" t="n">
         <v>1101.34990190892</v>
       </c>
-      <c r="D86" s="6" t="n">
+      <c r="D86" s="5" t="n">
         <v>63.67</v>
       </c>
-      <c r="E86" s="7" t="n">
+      <c r="E86" s="6" t="n">
         <v>41.69</v>
       </c>
-      <c r="F86" s="8" t="n">
+      <c r="F86" s="7" t="n">
         <v>0.09</v>
       </c>
-      <c r="G86" s="8" t="n">
+      <c r="G86" s="7" t="n">
         <v>17.09</v>
       </c>
-      <c r="H86" s="8" t="n">
+      <c r="H86" s="7" t="n">
         <v>6.48</v>
       </c>
-      <c r="I86" s="8" t="n">
+      <c r="I86" s="7" t="n">
         <v>0.33</v>
       </c>
-      <c r="J86" s="8" t="n">
+      <c r="J86" s="7" t="n">
         <v>19.38</v>
       </c>
-      <c r="K86" s="8" t="n">
+      <c r="K86" s="7" t="n">
         <v>6.22</v>
       </c>
-      <c r="L86" s="8" t="n">
+      <c r="L86" s="7" t="n">
         <v>0.04</v>
       </c>
-      <c r="M86" s="8"/>
-      <c r="N86" s="8" t="n">
+      <c r="M86" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N86" s="7" t="n">
         <v>8.45</v>
       </c>
     </row>
@@ -4213,38 +4312,40 @@
       <c r="B87" s="0" t="n">
         <v>1224.14201363193</v>
       </c>
-      <c r="C87" s="5" t="n">
+      <c r="C87" s="4" t="n">
         <v>1095.47820845433</v>
       </c>
-      <c r="D87" s="6" t="n">
+      <c r="D87" s="5" t="n">
         <v>61.95</v>
       </c>
-      <c r="E87" s="7" t="n">
+      <c r="E87" s="6" t="n">
         <v>41.03</v>
       </c>
-      <c r="F87" s="8" t="n">
+      <c r="F87" s="7" t="n">
         <v>0.08</v>
       </c>
-      <c r="G87" s="8" t="n">
+      <c r="G87" s="7" t="n">
         <v>16.58</v>
       </c>
-      <c r="H87" s="8" t="n">
+      <c r="H87" s="7" t="n">
         <v>6.48</v>
       </c>
-      <c r="I87" s="8" t="n">
+      <c r="I87" s="7" t="n">
         <v>0.31</v>
       </c>
-      <c r="J87" s="8" t="n">
+      <c r="J87" s="7" t="n">
         <v>19.72</v>
       </c>
-      <c r="K87" s="8" t="n">
+      <c r="K87" s="7" t="n">
         <v>6.23</v>
       </c>
-      <c r="L87" s="8" t="n">
+      <c r="L87" s="7" t="n">
         <v>0.03</v>
       </c>
-      <c r="M87" s="8"/>
-      <c r="N87" s="8" t="n">
+      <c r="M87" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N87" s="7" t="n">
         <v>8.49</v>
       </c>
     </row>
@@ -4255,38 +4356,40 @@
       <c r="B88" s="0" t="n">
         <v>1085.47675035443</v>
       </c>
-      <c r="C88" s="5" t="n">
+      <c r="C88" s="4" t="n">
         <v>1099.07578979291</v>
       </c>
-      <c r="D88" s="6" t="n">
+      <c r="D88" s="5" t="n">
         <v>63</v>
       </c>
-      <c r="E88" s="7" t="n">
+      <c r="E88" s="6" t="n">
         <v>41.88</v>
       </c>
-      <c r="F88" s="8" t="n">
+      <c r="F88" s="7" t="n">
         <v>0.18</v>
       </c>
-      <c r="G88" s="8" t="n">
+      <c r="G88" s="7" t="n">
         <v>22.83</v>
       </c>
-      <c r="H88" s="8" t="n">
+      <c r="H88" s="7" t="n">
         <v>7.48</v>
       </c>
-      <c r="I88" s="8" t="n">
+      <c r="I88" s="7" t="n">
         <v>0.32</v>
       </c>
-      <c r="J88" s="8" t="n">
+      <c r="J88" s="7" t="n">
         <v>20.8</v>
       </c>
-      <c r="K88" s="8" t="n">
+      <c r="K88" s="7" t="n">
         <v>4.82</v>
       </c>
-      <c r="L88" s="8" t="n">
+      <c r="L88" s="7" t="n">
         <v>0.03</v>
       </c>
-      <c r="M88" s="8"/>
-      <c r="N88" s="8" t="n">
+      <c r="M88" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N88" s="7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4297,38 +4400,40 @@
       <c r="B89" s="0" t="n">
         <v>1099.51781000507</v>
       </c>
-      <c r="C89" s="5" t="n">
+      <c r="C89" s="4" t="n">
         <v>1109.13280496708</v>
       </c>
-      <c r="D89" s="6" t="n">
+      <c r="D89" s="5" t="n">
         <v>66</v>
       </c>
-      <c r="E89" s="7" t="n">
+      <c r="E89" s="6" t="n">
         <v>42.05</v>
       </c>
-      <c r="F89" s="8" t="n">
+      <c r="F89" s="7" t="n">
         <v>0.17</v>
       </c>
-      <c r="G89" s="8" t="n">
+      <c r="G89" s="7" t="n">
         <v>22.88</v>
       </c>
-      <c r="H89" s="8" t="n">
+      <c r="H89" s="7" t="n">
         <v>7.26</v>
       </c>
-      <c r="I89" s="8" t="n">
+      <c r="I89" s="7" t="n">
         <v>0.3</v>
       </c>
-      <c r="J89" s="8" t="n">
+      <c r="J89" s="7" t="n">
         <v>21.32</v>
       </c>
-      <c r="K89" s="8" t="n">
+      <c r="K89" s="7" t="n">
         <v>5</v>
       </c>
-      <c r="L89" s="8" t="n">
+      <c r="L89" s="7" t="n">
         <v>0.03</v>
       </c>
-      <c r="M89" s="8"/>
-      <c r="N89" s="8" t="n">
+      <c r="M89" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N89" s="7" t="n">
         <v>1.16</v>
       </c>
     </row>
@@ -4339,40 +4444,40 @@
       <c r="B90" s="0" t="n">
         <v>1299.94801935487</v>
       </c>
-      <c r="C90" s="5" t="n">
+      <c r="C90" s="4" t="n">
         <v>1148.9752669025</v>
       </c>
-      <c r="D90" s="6" t="n">
+      <c r="D90" s="5" t="n">
         <v>78.845</v>
       </c>
-      <c r="E90" s="7" t="n">
+      <c r="E90" s="6" t="n">
         <v>41.2478</v>
       </c>
-      <c r="F90" s="8" t="n">
+      <c r="F90" s="7" t="n">
         <v>0.5569</v>
       </c>
-      <c r="G90" s="8" t="n">
+      <c r="G90" s="7" t="n">
         <v>16.0969</v>
       </c>
-      <c r="H90" s="8" t="n">
+      <c r="H90" s="7" t="n">
         <v>7.2405</v>
       </c>
-      <c r="I90" s="8" t="n">
+      <c r="I90" s="7" t="n">
         <v>0.3268</v>
       </c>
-      <c r="J90" s="8" t="n">
+      <c r="J90" s="7" t="n">
         <v>19.7242</v>
       </c>
-      <c r="K90" s="8" t="n">
+      <c r="K90" s="7" t="n">
         <v>6.2669</v>
       </c>
-      <c r="L90" s="8" t="n">
+      <c r="L90" s="7" t="n">
         <v>0.043</v>
       </c>
-      <c r="M90" s="8" t="n">
+      <c r="M90" s="7" t="n">
         <v>0.0148</v>
       </c>
-      <c r="N90" s="8" t="n">
+      <c r="N90" s="7" t="n">
         <v>8.8863</v>
       </c>
     </row>
@@ -4383,40 +4488,40 @@
       <c r="B91" s="0" t="n">
         <v>1290.52054962229</v>
       </c>
-      <c r="C91" s="5" t="n">
+      <c r="C91" s="4" t="n">
         <v>1082.01327892661</v>
       </c>
-      <c r="D91" s="6" t="n">
+      <c r="D91" s="5" t="n">
         <v>58.127</v>
       </c>
-      <c r="E91" s="7" t="n">
+      <c r="E91" s="6" t="n">
         <v>40.53</v>
       </c>
-      <c r="F91" s="8" t="n">
+      <c r="F91" s="7" t="n">
         <v>0.715</v>
       </c>
-      <c r="G91" s="8" t="n">
+      <c r="G91" s="7" t="n">
         <v>13.742</v>
       </c>
-      <c r="H91" s="8" t="n">
+      <c r="H91" s="7" t="n">
         <v>7.018</v>
       </c>
-      <c r="I91" s="8" t="n">
+      <c r="I91" s="7" t="n">
         <v>0.336</v>
       </c>
-      <c r="J91" s="8" t="n">
+      <c r="J91" s="7" t="n">
         <v>18.692</v>
       </c>
-      <c r="K91" s="8" t="n">
+      <c r="K91" s="7" t="n">
         <v>7.263</v>
       </c>
-      <c r="L91" s="8" t="n">
+      <c r="L91" s="7" t="n">
         <v>0.015</v>
       </c>
-      <c r="M91" s="8" t="n">
+      <c r="M91" s="7" t="n">
         <v>0.008</v>
       </c>
-      <c r="N91" s="8" t="n">
+      <c r="N91" s="7" t="n">
         <v>11.662</v>
       </c>
     </row>
@@ -4427,40 +4532,40 @@
       <c r="B92" s="0" t="n">
         <v>1189.94177814603</v>
       </c>
-      <c r="C92" s="5" t="n">
+      <c r="C92" s="4" t="n">
         <v>1141.89421084105</v>
       </c>
-      <c r="D92" s="6" t="n">
+      <c r="D92" s="5" t="n">
         <v>76.448</v>
       </c>
-      <c r="E92" s="7" t="n">
+      <c r="E92" s="6" t="n">
         <v>41.8567</v>
       </c>
-      <c r="F92" s="8" t="n">
+      <c r="F92" s="7" t="n">
         <v>0.1845</v>
       </c>
-      <c r="G92" s="8" t="n">
+      <c r="G92" s="7" t="n">
         <v>20.1652</v>
       </c>
-      <c r="H92" s="8" t="n">
+      <c r="H92" s="7" t="n">
         <v>7.6255</v>
       </c>
-      <c r="I92" s="8" t="n">
+      <c r="I92" s="7" t="n">
         <v>0.3109</v>
       </c>
-      <c r="J92" s="8" t="n">
+      <c r="J92" s="7" t="n">
         <v>20.3821</v>
       </c>
-      <c r="K92" s="8" t="n">
+      <c r="K92" s="7" t="n">
         <v>5.2232</v>
       </c>
-      <c r="L92" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M92" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N92" s="8" t="n">
+      <c r="L92" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M92" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N92" s="7" t="n">
         <v>4.5498</v>
       </c>
     </row>
@@ -4471,40 +4576,40 @@
       <c r="B93" s="0" t="n">
         <v>1389.74351681798</v>
       </c>
-      <c r="C93" s="5" t="n">
+      <c r="C93" s="4" t="n">
         <v>1202.18522148265</v>
       </c>
-      <c r="D93" s="6" t="n">
+      <c r="D93" s="5" t="n">
         <v>98.494</v>
       </c>
-      <c r="E93" s="7" t="n">
+      <c r="E93" s="6" t="n">
         <v>40.8838</v>
       </c>
-      <c r="F93" s="8" t="n">
+      <c r="F93" s="7" t="n">
         <v>1.2614</v>
       </c>
-      <c r="G93" s="8" t="n">
+      <c r="G93" s="7" t="n">
         <v>15.9555</v>
       </c>
-      <c r="H93" s="8" t="n">
+      <c r="H93" s="7" t="n">
         <v>7.274</v>
       </c>
-      <c r="I93" s="8" t="n">
+      <c r="I93" s="7" t="n">
         <v>0.4206</v>
       </c>
-      <c r="J93" s="8" t="n">
+      <c r="J93" s="7" t="n">
         <v>18.8689</v>
       </c>
-      <c r="K93" s="8" t="n">
+      <c r="K93" s="7" t="n">
         <v>7.4406</v>
       </c>
-      <c r="L93" s="8" t="n">
+      <c r="L93" s="7" t="n">
         <v>0.1114</v>
       </c>
-      <c r="M93" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N93" s="8" t="n">
+      <c r="M93" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N93" s="7" t="n">
         <v>8.1806</v>
       </c>
     </row>
@@ -4515,40 +4620,40 @@
       <c r="B94" s="0" t="n">
         <v>1174.16177421892</v>
       </c>
-      <c r="C94" s="5" t="n">
+      <c r="C94" s="4" t="n">
         <v>1038.62622454043</v>
       </c>
-      <c r="D94" s="6" t="n">
+      <c r="D94" s="5" t="n">
         <v>46.922</v>
       </c>
-      <c r="E94" s="7" t="n">
+      <c r="E94" s="6" t="n">
         <v>40.9795</v>
       </c>
-      <c r="F94" s="8" t="n">
+      <c r="F94" s="7" t="n">
         <v>1.0384</v>
       </c>
-      <c r="G94" s="8" t="n">
+      <c r="G94" s="7" t="n">
         <v>16.1429</v>
       </c>
-      <c r="H94" s="8" t="n">
+      <c r="H94" s="7" t="n">
         <v>7.0924</v>
       </c>
-      <c r="I94" s="8" t="n">
+      <c r="I94" s="7" t="n">
         <v>0.3968</v>
       </c>
-      <c r="J94" s="8" t="n">
+      <c r="J94" s="7" t="n">
         <v>18.7661</v>
       </c>
-      <c r="K94" s="8" t="n">
+      <c r="K94" s="7" t="n">
         <v>7.3592</v>
       </c>
-      <c r="L94" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M94" s="8" t="n">
+      <c r="L94" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M94" s="7" t="n">
         <v>0.0082</v>
       </c>
-      <c r="N94" s="8" t="n">
+      <c r="N94" s="7" t="n">
         <v>8.3391</v>
       </c>
     </row>
@@ -4559,40 +4664,40 @@
       <c r="B95" s="0" t="n">
         <v>1114.80691975015</v>
       </c>
-      <c r="C95" s="5" t="n">
+      <c r="C95" s="4" t="n">
         <v>1088.54662899357</v>
       </c>
-      <c r="D95" s="6" t="n">
+      <c r="D95" s="5" t="n">
         <v>59.961</v>
       </c>
-      <c r="E95" s="7" t="n">
+      <c r="E95" s="6" t="n">
         <v>41.6612</v>
       </c>
-      <c r="F95" s="8" t="n">
+      <c r="F95" s="7" t="n">
         <v>0.4593</v>
       </c>
-      <c r="G95" s="8" t="n">
+      <c r="G95" s="7" t="n">
         <v>20.3414</v>
       </c>
-      <c r="H95" s="8" t="n">
+      <c r="H95" s="7" t="n">
         <v>8.8902</v>
       </c>
-      <c r="I95" s="8" t="n">
+      <c r="I95" s="7" t="n">
         <v>0.3442</v>
       </c>
-      <c r="J95" s="8" t="n">
+      <c r="J95" s="7" t="n">
         <v>20.2311</v>
       </c>
-      <c r="K95" s="8" t="n">
+      <c r="K95" s="7" t="n">
         <v>4.8944</v>
       </c>
-      <c r="L95" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M95" s="8" t="n">
+      <c r="L95" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M95" s="7" t="n">
         <v>0.0139</v>
       </c>
-      <c r="N95" s="8" t="n">
+      <c r="N95" s="7" t="n">
         <v>3.944</v>
       </c>
     </row>
@@ -4603,40 +4708,40 @@
       <c r="B96" s="0" t="n">
         <v>1181.39946559034</v>
       </c>
-      <c r="C96" s="5" t="n">
+      <c r="C96" s="4" t="n">
         <v>1151.02727237459</v>
       </c>
-      <c r="D96" s="6" t="n">
+      <c r="D96" s="5" t="n">
         <v>79.549</v>
       </c>
-      <c r="E96" s="7" t="n">
+      <c r="E96" s="6" t="n">
         <v>41.6396</v>
       </c>
-      <c r="F96" s="8" t="n">
+      <c r="F96" s="7" t="n">
         <v>0.9901</v>
       </c>
-      <c r="G96" s="8" t="n">
+      <c r="G96" s="7" t="n">
         <v>19.9514</v>
       </c>
-      <c r="H96" s="8" t="n">
+      <c r="H96" s="7" t="n">
         <v>9.4197</v>
       </c>
-      <c r="I96" s="8" t="n">
+      <c r="I96" s="7" t="n">
         <v>0.3556</v>
       </c>
-      <c r="J96" s="8" t="n">
+      <c r="J96" s="7" t="n">
         <v>19.9984</v>
       </c>
-      <c r="K96" s="8" t="n">
+      <c r="K96" s="7" t="n">
         <v>5.2569</v>
       </c>
-      <c r="L96" s="8" t="n">
+      <c r="L96" s="7" t="n">
         <v>0.0315</v>
       </c>
-      <c r="M96" s="8" t="n">
+      <c r="M96" s="7" t="n">
         <v>0.0028</v>
       </c>
-      <c r="N96" s="8" t="n">
+      <c r="N96" s="7" t="n">
         <v>3.2568</v>
       </c>
     </row>
@@ -4647,40 +4752,40 @@
       <c r="B97" s="0" t="n">
         <v>1108.82475985361</v>
       </c>
-      <c r="C97" s="5" t="n">
+      <c r="C97" s="4" t="n">
         <v>1103.46658631133</v>
       </c>
-      <c r="D97" s="6" t="n">
+      <c r="D97" s="5" t="n">
         <v>64.298</v>
       </c>
-      <c r="E97" s="7" t="n">
+      <c r="E97" s="6" t="n">
         <v>41.7316</v>
       </c>
-      <c r="F97" s="8" t="n">
+      <c r="F97" s="7" t="n">
         <v>0.5968</v>
       </c>
-      <c r="G97" s="8" t="n">
+      <c r="G97" s="7" t="n">
         <v>21.4356</v>
       </c>
-      <c r="H97" s="8" t="n">
+      <c r="H97" s="7" t="n">
         <v>9.3369</v>
       </c>
-      <c r="I97" s="8" t="n">
+      <c r="I97" s="7" t="n">
         <v>0.4178</v>
       </c>
-      <c r="J97" s="8" t="n">
+      <c r="J97" s="7" t="n">
         <v>19.8336</v>
       </c>
-      <c r="K97" s="8" t="n">
+      <c r="K97" s="7" t="n">
         <v>5.0115</v>
       </c>
-      <c r="L97" s="8" t="n">
+      <c r="L97" s="7" t="n">
         <v>0.0516</v>
       </c>
-      <c r="M97" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N97" s="8" t="n">
+      <c r="M97" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N97" s="7" t="n">
         <v>2.1579</v>
       </c>
     </row>
@@ -4691,40 +4796,40 @@
       <c r="B98" s="0" t="n">
         <v>1212.95281654083</v>
       </c>
-      <c r="C98" s="5" t="n">
+      <c r="C98" s="4" t="n">
         <v>1133.48153714733</v>
       </c>
-      <c r="D98" s="6" t="n">
+      <c r="D98" s="5" t="n">
         <v>73.665</v>
       </c>
-      <c r="E98" s="7" t="n">
+      <c r="E98" s="6" t="n">
         <v>41.578</v>
       </c>
-      <c r="F98" s="8" t="n">
+      <c r="F98" s="7" t="n">
         <v>0.8782</v>
       </c>
-      <c r="G98" s="8" t="n">
+      <c r="G98" s="7" t="n">
         <v>18.6549</v>
       </c>
-      <c r="H98" s="8" t="n">
+      <c r="H98" s="7" t="n">
         <v>7.7365</v>
       </c>
-      <c r="I98" s="8" t="n">
+      <c r="I98" s="7" t="n">
         <v>0.3706</v>
       </c>
-      <c r="J98" s="8" t="n">
+      <c r="J98" s="7" t="n">
         <v>19.9957</v>
       </c>
-      <c r="K98" s="8" t="n">
+      <c r="K98" s="7" t="n">
         <v>5.8215</v>
       </c>
-      <c r="L98" s="8" t="n">
+      <c r="L98" s="7" t="n">
         <v>0.0796</v>
       </c>
-      <c r="M98" s="8" t="n">
+      <c r="M98" s="7" t="n">
         <v>0.0175</v>
       </c>
-      <c r="N98" s="8" t="n">
+      <c r="N98" s="7" t="n">
         <v>5.7376</v>
       </c>
     </row>
@@ -4735,40 +4840,40 @@
       <c r="B99" s="0" t="n">
         <v>1165.54662221863</v>
       </c>
-      <c r="C99" s="5" t="n">
+      <c r="C99" s="4" t="n">
         <v>1133.75388260058</v>
       </c>
-      <c r="D99" s="6" t="n">
+      <c r="D99" s="5" t="n">
         <v>73.754</v>
       </c>
-      <c r="E99" s="7" t="n">
+      <c r="E99" s="6" t="n">
         <v>41.8018</v>
       </c>
-      <c r="F99" s="8" t="n">
+      <c r="F99" s="7" t="n">
         <v>0.6254</v>
       </c>
-      <c r="G99" s="8" t="n">
+      <c r="G99" s="7" t="n">
         <v>20.0432</v>
       </c>
-      <c r="H99" s="8" t="n">
+      <c r="H99" s="7" t="n">
         <v>9.0252</v>
       </c>
-      <c r="I99" s="8" t="n">
+      <c r="I99" s="7" t="n">
         <v>0.3442</v>
       </c>
-      <c r="J99" s="8" t="n">
+      <c r="J99" s="7" t="n">
         <v>19.9627</v>
       </c>
-      <c r="K99" s="8" t="n">
+      <c r="K99" s="7" t="n">
         <v>4.8347</v>
       </c>
-      <c r="L99" s="8" t="n">
+      <c r="L99" s="7" t="n">
         <v>0.0787</v>
       </c>
-      <c r="M99" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N99" s="8" t="n">
+      <c r="M99" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N99" s="7" t="n">
         <v>3.9661</v>
       </c>
     </row>
@@ -4779,40 +4884,40 @@
       <c r="B100" s="0" t="n">
         <v>928.947190944665</v>
       </c>
-      <c r="C100" s="5" t="n">
+      <c r="C100" s="4" t="n">
         <v>934.134041892545</v>
       </c>
-      <c r="D100" s="6" t="n">
+      <c r="D100" s="5" t="n">
         <v>26.3</v>
       </c>
-      <c r="E100" s="7" t="n">
+      <c r="E100" s="6" t="n">
         <v>42.11</v>
       </c>
-      <c r="F100" s="8" t="n">
+      <c r="F100" s="7" t="n">
         <v>0.3</v>
       </c>
-      <c r="G100" s="8" t="n">
+      <c r="G100" s="7" t="n">
         <v>21.9</v>
       </c>
-      <c r="H100" s="8" t="n">
+      <c r="H100" s="7" t="n">
         <v>8.66</v>
       </c>
-      <c r="I100" s="8" t="n">
+      <c r="I100" s="7" t="n">
         <v>0.39</v>
       </c>
-      <c r="J100" s="8" t="n">
+      <c r="J100" s="7" t="n">
         <v>20.46</v>
       </c>
-      <c r="K100" s="8" t="n">
+      <c r="K100" s="7" t="n">
         <v>4.54</v>
       </c>
-      <c r="L100" s="8" t="n">
+      <c r="L100" s="7" t="n">
         <v>0.06</v>
       </c>
-      <c r="M100" s="8" t="n">
+      <c r="M100" s="7" t="n">
         <v>0.01</v>
       </c>
-      <c r="N100" s="8" t="n">
+      <c r="N100" s="7" t="n">
         <v>2.85</v>
       </c>
     </row>
@@ -4823,40 +4928,40 @@
       <c r="B101" s="0" t="n">
         <v>936.828843157849</v>
       </c>
-      <c r="C101" s="5" t="n">
+      <c r="C101" s="4" t="n">
         <v>912.26551977275</v>
       </c>
-      <c r="D101" s="6" t="n">
+      <c r="D101" s="5" t="n">
         <v>23</v>
       </c>
-      <c r="E101" s="7" t="n">
+      <c r="E101" s="6" t="n">
         <v>41.53</v>
       </c>
-      <c r="F101" s="8" t="n">
+      <c r="F101" s="7" t="n">
         <v>0.17</v>
       </c>
-      <c r="G101" s="8" t="n">
+      <c r="G101" s="7" t="n">
         <v>20.3</v>
       </c>
-      <c r="H101" s="8" t="n">
+      <c r="H101" s="7" t="n">
         <v>8.26</v>
       </c>
-      <c r="I101" s="8" t="n">
+      <c r="I101" s="7" t="n">
         <v>0.29</v>
       </c>
-      <c r="J101" s="8" t="n">
+      <c r="J101" s="7" t="n">
         <v>19.76</v>
       </c>
-      <c r="K101" s="8" t="n">
+      <c r="K101" s="7" t="n">
         <v>5.03</v>
       </c>
-      <c r="L101" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M101" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N101" s="8" t="n">
+      <c r="L101" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M101" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N101" s="7" t="n">
         <v>5.18</v>
       </c>
     </row>
@@ -4867,40 +4972,40 @@
       <c r="B102" s="0" t="n">
         <v>934.482291462737</v>
       </c>
-      <c r="C102" s="5" t="n">
+      <c r="C102" s="4" t="n">
         <v>923.796918918816</v>
       </c>
-      <c r="D102" s="6" t="n">
+      <c r="D102" s="5" t="n">
         <v>24.7</v>
       </c>
-      <c r="E102" s="7" t="n">
+      <c r="E102" s="6" t="n">
         <v>42.1</v>
       </c>
-      <c r="F102" s="8" t="n">
+      <c r="F102" s="7" t="n">
         <v>0.32</v>
       </c>
-      <c r="G102" s="8" t="n">
+      <c r="G102" s="7" t="n">
         <v>21.15</v>
       </c>
-      <c r="H102" s="8" t="n">
+      <c r="H102" s="7" t="n">
         <v>8.75</v>
       </c>
-      <c r="I102" s="8" t="n">
+      <c r="I102" s="7" t="n">
         <v>0.38</v>
       </c>
-      <c r="J102" s="8" t="n">
+      <c r="J102" s="7" t="n">
         <v>19.86</v>
       </c>
-      <c r="K102" s="8" t="n">
+      <c r="K102" s="7" t="n">
         <v>4.78</v>
       </c>
-      <c r="L102" s="8" t="n">
+      <c r="L102" s="7" t="n">
         <v>0.05</v>
       </c>
-      <c r="M102" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N102" s="8" t="n">
+      <c r="M102" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N102" s="7" t="n">
         <v>4.11</v>
       </c>
     </row>
@@ -4911,40 +5016,40 @@
       <c r="B103" s="0" t="n">
         <v>882.285625400571</v>
       </c>
-      <c r="C103" s="5" t="n">
+      <c r="C103" s="4" t="n">
         <v>905.188979707737</v>
       </c>
-      <c r="D103" s="6" t="n">
+      <c r="D103" s="5" t="n">
         <v>22</v>
       </c>
-      <c r="E103" s="7" t="n">
+      <c r="E103" s="6" t="n">
         <v>42.81</v>
       </c>
-      <c r="F103" s="8" t="n">
+      <c r="F103" s="7" t="n">
         <v>0.14</v>
       </c>
-      <c r="G103" s="8" t="n">
+      <c r="G103" s="7" t="n">
         <v>23.03</v>
       </c>
-      <c r="H103" s="8" t="n">
+      <c r="H103" s="7" t="n">
         <v>8.54</v>
       </c>
-      <c r="I103" s="8" t="n">
+      <c r="I103" s="7" t="n">
         <v>0.39</v>
       </c>
-      <c r="J103" s="8" t="n">
+      <c r="J103" s="7" t="n">
         <v>20.68</v>
       </c>
-      <c r="K103" s="8" t="n">
+      <c r="K103" s="7" t="n">
         <v>4.42</v>
       </c>
-      <c r="L103" s="8" t="n">
+      <c r="L103" s="7" t="n">
         <v>0.04</v>
       </c>
-      <c r="M103" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N103" s="8" t="n">
+      <c r="M103" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N103" s="7" t="n">
         <v>1.3</v>
       </c>
     </row>
@@ -4955,38 +5060,40 @@
       <c r="B104" s="0" t="n">
         <v>1075.59350940025</v>
       </c>
-      <c r="C104" s="5" t="n">
+      <c r="C104" s="4" t="n">
         <v>1074.25520039066</v>
       </c>
-      <c r="D104" s="6" t="n">
+      <c r="D104" s="5" t="n">
         <v>56</v>
       </c>
-      <c r="E104" s="7" t="n">
+      <c r="E104" s="6" t="n">
         <v>42.3</v>
       </c>
-      <c r="F104" s="8" t="n">
+      <c r="F104" s="7" t="n">
         <v>0.11</v>
       </c>
-      <c r="G104" s="8" t="n">
+      <c r="G104" s="7" t="n">
         <v>21.6</v>
       </c>
-      <c r="H104" s="8" t="n">
+      <c r="H104" s="7" t="n">
         <v>6.6</v>
       </c>
-      <c r="I104" s="8" t="n">
+      <c r="I104" s="7" t="n">
         <v>0.34</v>
       </c>
-      <c r="J104" s="8" t="n">
+      <c r="J104" s="7" t="n">
         <v>22.1</v>
       </c>
-      <c r="K104" s="8" t="n">
+      <c r="K104" s="7" t="n">
         <v>4.46</v>
       </c>
-      <c r="L104" s="8" t="n">
+      <c r="L104" s="7" t="n">
         <v>0.04</v>
       </c>
-      <c r="M104" s="8"/>
-      <c r="N104" s="8" t="n">
+      <c r="M104" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N104" s="7" t="n">
         <v>2.85</v>
       </c>
     </row>
@@ -4997,38 +5104,40 @@
       <c r="B105" s="0" t="n">
         <v>1071.26585511006</v>
       </c>
-      <c r="C105" s="5" t="n">
+      <c r="C105" s="4" t="n">
         <v>1026.13638030443</v>
       </c>
-      <c r="D105" s="6" t="n">
+      <c r="D105" s="5" t="n">
         <v>44</v>
       </c>
-      <c r="E105" s="7" t="n">
+      <c r="E105" s="6" t="n">
         <v>41.6</v>
       </c>
-      <c r="F105" s="8" t="n">
+      <c r="F105" s="7" t="n">
         <v>0.26</v>
       </c>
-      <c r="G105" s="8" t="n">
+      <c r="G105" s="7" t="n">
         <v>19.9</v>
       </c>
-      <c r="H105" s="8" t="n">
+      <c r="H105" s="7" t="n">
         <v>7</v>
       </c>
-      <c r="I105" s="8" t="n">
+      <c r="I105" s="7" t="n">
         <v>0.36</v>
       </c>
-      <c r="J105" s="8" t="n">
+      <c r="J105" s="7" t="n">
         <v>20.5</v>
       </c>
-      <c r="K105" s="8" t="n">
+      <c r="K105" s="7" t="n">
         <v>5.45</v>
       </c>
-      <c r="L105" s="8" t="n">
+      <c r="L105" s="7" t="n">
         <v>0.07</v>
       </c>
-      <c r="M105" s="8"/>
-      <c r="N105" s="8" t="n">
+      <c r="M105" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N105" s="7" t="n">
         <v>5.2</v>
       </c>
     </row>
@@ -5039,38 +5148,40 @@
       <c r="B106" s="0" t="n">
         <v>892.787465085822</v>
       </c>
-      <c r="C106" s="5" t="n">
+      <c r="C106" s="4" t="n">
         <v>925.77142446422</v>
       </c>
-      <c r="D106" s="6" t="n">
+      <c r="D106" s="5" t="n">
         <v>25</v>
       </c>
-      <c r="E106" s="7" t="n">
+      <c r="E106" s="6" t="n">
         <v>42.33</v>
       </c>
-      <c r="F106" s="8" t="n">
+      <c r="F106" s="7" t="n">
         <v>0.06</v>
       </c>
-      <c r="G106" s="8" t="n">
+      <c r="G106" s="7" t="n">
         <v>22.85</v>
       </c>
-      <c r="H106" s="8" t="n">
+      <c r="H106" s="7" t="n">
         <v>8.11</v>
       </c>
-      <c r="I106" s="8" t="n">
+      <c r="I106" s="7" t="n">
         <v>0.32</v>
       </c>
-      <c r="J106" s="8" t="n">
+      <c r="J106" s="7" t="n">
         <v>21.31</v>
       </c>
-      <c r="K106" s="8" t="n">
+      <c r="K106" s="7" t="n">
         <v>4.13</v>
       </c>
-      <c r="L106" s="8" t="n">
+      <c r="L106" s="7" t="n">
         <v>0.02</v>
       </c>
-      <c r="M106" s="8"/>
-      <c r="N106" s="8" t="n">
+      <c r="M106" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N106" s="7" t="n">
         <v>0.59</v>
       </c>
     </row>
@@ -5081,38 +5192,40 @@
       <c r="B107" s="0" t="n">
         <v>1111.51968392842</v>
       </c>
-      <c r="C107" s="5" t="n">
+      <c r="C107" s="4" t="n">
         <v>1072.40196175367</v>
       </c>
-      <c r="D107" s="6" t="n">
+      <c r="D107" s="5" t="n">
         <v>55.5</v>
       </c>
-      <c r="E107" s="7" t="n">
+      <c r="E107" s="6" t="n">
         <v>41.33</v>
       </c>
-      <c r="F107" s="8" t="n">
+      <c r="F107" s="7" t="n">
         <v>0.16</v>
       </c>
-      <c r="G107" s="8" t="n">
+      <c r="G107" s="7" t="n">
         <v>21.03</v>
       </c>
-      <c r="H107" s="8" t="n">
+      <c r="H107" s="7" t="n">
         <v>7.5</v>
       </c>
-      <c r="I107" s="8" t="n">
+      <c r="I107" s="7" t="n">
         <v>0.36</v>
       </c>
-      <c r="J107" s="8" t="n">
+      <c r="J107" s="7" t="n">
         <v>19.99</v>
       </c>
-      <c r="K107" s="8" t="n">
+      <c r="K107" s="7" t="n">
         <v>5.24</v>
       </c>
-      <c r="L107" s="8" t="n">
+      <c r="L107" s="7" t="n">
         <v>0.03</v>
       </c>
-      <c r="M107" s="8"/>
-      <c r="N107" s="8" t="n">
+      <c r="M107" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N107" s="7" t="n">
         <v>4.6</v>
       </c>
     </row>
@@ -5123,38 +5236,40 @@
       <c r="B108" s="0" t="n">
         <v>1073.21445312837</v>
       </c>
-      <c r="C108" s="5" t="n">
+      <c r="C108" s="4" t="n">
         <v>1042.27219544276</v>
       </c>
-      <c r="D108" s="6" t="n">
+      <c r="D108" s="5" t="n">
         <v>47.8</v>
       </c>
-      <c r="E108" s="7" t="n">
+      <c r="E108" s="6" t="n">
         <v>41.96</v>
       </c>
-      <c r="F108" s="8" t="n">
+      <c r="F108" s="7" t="n">
         <v>0.18</v>
       </c>
-      <c r="G108" s="8" t="n">
+      <c r="G108" s="7" t="n">
         <v>21.11</v>
       </c>
-      <c r="H108" s="8" t="n">
+      <c r="H108" s="7" t="n">
         <v>6.7</v>
       </c>
-      <c r="I108" s="8" t="n">
+      <c r="I108" s="7" t="n">
         <v>0.32</v>
       </c>
-      <c r="J108" s="8" t="n">
+      <c r="J108" s="7" t="n">
         <v>20</v>
       </c>
-      <c r="K108" s="8" t="n">
+      <c r="K108" s="7" t="n">
         <v>5.24</v>
       </c>
-      <c r="L108" s="8" t="n">
+      <c r="L108" s="7" t="n">
         <v>0.03</v>
       </c>
-      <c r="M108" s="8"/>
-      <c r="N108" s="8" t="n">
+      <c r="M108" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N108" s="7" t="n">
         <v>4.08</v>
       </c>
     </row>
@@ -5165,38 +5280,40 @@
       <c r="B109" s="0" t="n">
         <v>1093.05061554172</v>
       </c>
-      <c r="C109" s="5" t="n">
+      <c r="C109" s="4" t="n">
         <v>1055.57094055685</v>
       </c>
-      <c r="D109" s="6" t="n">
+      <c r="D109" s="5" t="n">
         <v>51.1</v>
       </c>
-      <c r="E109" s="7" t="n">
+      <c r="E109" s="6" t="n">
         <v>41.37</v>
       </c>
-      <c r="F109" s="8" t="n">
+      <c r="F109" s="7" t="n">
         <v>0.13</v>
       </c>
-      <c r="G109" s="8" t="n">
+      <c r="G109" s="7" t="n">
         <v>20.71</v>
       </c>
-      <c r="H109" s="8" t="n">
+      <c r="H109" s="7" t="n">
         <v>7.37</v>
       </c>
-      <c r="I109" s="8" t="n">
+      <c r="I109" s="7" t="n">
         <v>0.36</v>
       </c>
-      <c r="J109" s="8" t="n">
+      <c r="J109" s="7" t="n">
         <v>20.17</v>
       </c>
-      <c r="K109" s="8" t="n">
+      <c r="K109" s="7" t="n">
         <v>5.13</v>
       </c>
-      <c r="L109" s="8" t="n">
+      <c r="L109" s="7" t="n">
         <v>0.05</v>
       </c>
-      <c r="M109" s="8"/>
-      <c r="N109" s="8" t="n">
+      <c r="M109" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N109" s="7" t="n">
         <v>4.75</v>
       </c>
     </row>
@@ -5207,38 +5324,40 @@
       <c r="B110" s="0" t="n">
         <v>947.408649534358</v>
       </c>
-      <c r="C110" s="5" t="n">
+      <c r="C110" s="4" t="n">
         <v>948.223417946709</v>
       </c>
-      <c r="D110" s="6" t="n">
+      <c r="D110" s="5" t="n">
         <v>28.6</v>
       </c>
-      <c r="E110" s="7" t="n">
+      <c r="E110" s="6" t="n">
         <v>42.8</v>
       </c>
-      <c r="F110" s="8" t="n">
+      <c r="F110" s="7" t="n">
         <v>0.33</v>
       </c>
-      <c r="G110" s="8" t="n">
+      <c r="G110" s="7" t="n">
         <v>21.69</v>
       </c>
-      <c r="H110" s="8" t="n">
+      <c r="H110" s="7" t="n">
         <v>7.66</v>
       </c>
-      <c r="I110" s="8" t="n">
+      <c r="I110" s="7" t="n">
         <v>0.36</v>
       </c>
-      <c r="J110" s="8" t="n">
+      <c r="J110" s="7" t="n">
         <v>20.42</v>
       </c>
-      <c r="K110" s="8" t="n">
+      <c r="K110" s="7" t="n">
         <v>4.58</v>
       </c>
-      <c r="L110" s="8" t="n">
+      <c r="L110" s="7" t="n">
         <v>0.04</v>
       </c>
-      <c r="M110" s="8"/>
-      <c r="N110" s="8" t="n">
+      <c r="M110" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N110" s="7" t="n">
         <v>3.01</v>
       </c>
     </row>
@@ -5249,38 +5368,40 @@
       <c r="B111" s="0" t="n">
         <v>1080.35073133303</v>
       </c>
-      <c r="C111" s="5" t="n">
+      <c r="C111" s="4" t="n">
         <v>1023.05813161966</v>
       </c>
-      <c r="D111" s="6" t="n">
+      <c r="D111" s="5" t="n">
         <v>43.3</v>
       </c>
-      <c r="E111" s="7" t="n">
+      <c r="E111" s="6" t="n">
         <v>41.47</v>
       </c>
-      <c r="F111" s="8" t="n">
+      <c r="F111" s="7" t="n">
         <v>0.16</v>
       </c>
-      <c r="G111" s="8" t="n">
+      <c r="G111" s="7" t="n">
         <v>20.12</v>
       </c>
-      <c r="H111" s="8" t="n">
+      <c r="H111" s="7" t="n">
         <v>7.12</v>
       </c>
-      <c r="I111" s="8" t="n">
+      <c r="I111" s="7" t="n">
         <v>0.38</v>
       </c>
-      <c r="J111" s="8" t="n">
+      <c r="J111" s="7" t="n">
         <v>19.63</v>
       </c>
-      <c r="K111" s="8" t="n">
+      <c r="K111" s="7" t="n">
         <v>5.59</v>
       </c>
-      <c r="L111" s="8" t="n">
+      <c r="L111" s="7" t="n">
         <v>0.06</v>
       </c>
-      <c r="M111" s="8"/>
-      <c r="N111" s="8" t="n">
+      <c r="M111" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N111" s="7" t="n">
         <v>6</v>
       </c>
     </row>
@@ -5291,38 +5412,40 @@
       <c r="B112" s="0" t="n">
         <v>1018.47221687707</v>
       </c>
-      <c r="C112" s="5" t="n">
+      <c r="C112" s="4" t="n">
         <v>1021.28336575814</v>
       </c>
-      <c r="D112" s="6" t="n">
+      <c r="D112" s="5" t="n">
         <v>42.9</v>
       </c>
-      <c r="E112" s="7" t="n">
+      <c r="E112" s="6" t="n">
         <v>41.47</v>
       </c>
-      <c r="F112" s="8" t="n">
+      <c r="F112" s="7" t="n">
         <v>0.07</v>
       </c>
-      <c r="G112" s="8" t="n">
+      <c r="G112" s="7" t="n">
         <v>22.23</v>
       </c>
-      <c r="H112" s="8" t="n">
+      <c r="H112" s="7" t="n">
         <v>7.09</v>
       </c>
-      <c r="I112" s="8" t="n">
+      <c r="I112" s="7" t="n">
         <v>0.38</v>
       </c>
-      <c r="J112" s="8" t="n">
+      <c r="J112" s="7" t="n">
         <v>21.29</v>
       </c>
-      <c r="K112" s="8" t="n">
+      <c r="K112" s="7" t="n">
         <v>4.3</v>
       </c>
-      <c r="L112" s="8" t="n">
+      <c r="L112" s="7" t="n">
         <v>0.05</v>
       </c>
-      <c r="M112" s="8"/>
-      <c r="N112" s="8" t="n">
+      <c r="M112" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N112" s="7" t="n">
         <v>2.94</v>
       </c>
     </row>
@@ -5333,38 +5456,40 @@
       <c r="B113" s="0" t="n">
         <v>1038.08050569242</v>
       </c>
-      <c r="C113" s="5" t="n">
+      <c r="C113" s="4" t="n">
         <v>1032.19099076156</v>
       </c>
-      <c r="D113" s="6" t="n">
+      <c r="D113" s="5" t="n">
         <v>45.4</v>
       </c>
-      <c r="E113" s="7" t="n">
+      <c r="E113" s="6" t="n">
         <v>41.86</v>
       </c>
-      <c r="F113" s="8" t="n">
+      <c r="F113" s="7" t="n">
         <v>0.13</v>
       </c>
-      <c r="G113" s="8" t="n">
+      <c r="G113" s="7" t="n">
         <v>22.02</v>
       </c>
-      <c r="H113" s="8" t="n">
+      <c r="H113" s="7" t="n">
         <v>7.16</v>
       </c>
-      <c r="I113" s="8" t="n">
+      <c r="I113" s="7" t="n">
         <v>0.34</v>
       </c>
-      <c r="J113" s="8" t="n">
+      <c r="J113" s="7" t="n">
         <v>20.44</v>
       </c>
-      <c r="K113" s="8" t="n">
+      <c r="K113" s="7" t="n">
         <v>4.77</v>
       </c>
-      <c r="L113" s="8" t="n">
+      <c r="L113" s="7" t="n">
         <v>0.06</v>
       </c>
-      <c r="M113" s="8"/>
-      <c r="N113" s="8" t="n">
+      <c r="M113" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N113" s="7" t="n">
         <v>2.85</v>
       </c>
     </row>
@@ -5375,38 +5500,40 @@
       <c r="B114" s="0" t="n">
         <v>1331.40833947657</v>
       </c>
-      <c r="C114" s="5" t="n">
+      <c r="C114" s="4" t="n">
         <v>1234.76864481242</v>
       </c>
-      <c r="D114" s="6" t="n">
+      <c r="D114" s="5" t="n">
         <v>112</v>
       </c>
-      <c r="E114" s="7" t="n">
+      <c r="E114" s="6" t="n">
         <v>41.2</v>
       </c>
-      <c r="F114" s="8" t="n">
+      <c r="F114" s="7" t="n">
         <v>0.95</v>
       </c>
-      <c r="G114" s="8" t="n">
+      <c r="G114" s="7" t="n">
         <v>17.9</v>
       </c>
-      <c r="H114" s="8" t="n">
+      <c r="H114" s="7" t="n">
         <v>7.7</v>
       </c>
-      <c r="I114" s="8" t="n">
+      <c r="I114" s="7" t="n">
         <v>0.297</v>
       </c>
-      <c r="J114" s="8" t="n">
+      <c r="J114" s="7" t="n">
         <v>20.1</v>
       </c>
-      <c r="K114" s="8" t="n">
+      <c r="K114" s="7" t="n">
         <v>5.71</v>
       </c>
-      <c r="L114" s="8" t="n">
+      <c r="L114" s="7" t="n">
         <v>0.07</v>
       </c>
-      <c r="M114" s="8"/>
-      <c r="N114" s="8" t="n">
+      <c r="M114" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N114" s="7" t="n">
         <v>5.5</v>
       </c>
     </row>
@@ -5417,38 +5544,40 @@
       <c r="B115" s="0" t="n">
         <v>1348.85603675974</v>
       </c>
-      <c r="C115" s="5" t="n">
+      <c r="C115" s="4" t="n">
         <v>1237.07584448953</v>
       </c>
-      <c r="D115" s="6" t="n">
+      <c r="D115" s="5" t="n">
         <v>113</v>
       </c>
-      <c r="E115" s="7" t="n">
+      <c r="E115" s="6" t="n">
         <v>41</v>
       </c>
-      <c r="F115" s="8" t="n">
+      <c r="F115" s="7" t="n">
         <v>1.03</v>
       </c>
-      <c r="G115" s="8" t="n">
+      <c r="G115" s="7" t="n">
         <v>17.1</v>
       </c>
-      <c r="H115" s="8" t="n">
+      <c r="H115" s="7" t="n">
         <v>7.4</v>
       </c>
-      <c r="I115" s="8" t="n">
+      <c r="I115" s="7" t="n">
         <v>0.341</v>
       </c>
-      <c r="J115" s="8" t="n">
+      <c r="J115" s="7" t="n">
         <v>20.3</v>
       </c>
-      <c r="K115" s="8" t="n">
+      <c r="K115" s="7" t="n">
         <v>5.2</v>
       </c>
-      <c r="L115" s="8" t="n">
+      <c r="L115" s="7" t="n">
         <v>0.12</v>
       </c>
-      <c r="M115" s="8"/>
-      <c r="N115" s="8" t="n">
+      <c r="M115" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N115" s="7" t="n">
         <v>6.8</v>
       </c>
     </row>
@@ -5459,38 +5588,40 @@
       <c r="B116" s="0" t="n">
         <v>1285.00968062652</v>
       </c>
-      <c r="C116" s="5" t="n">
+      <c r="C116" s="4" t="n">
         <v>1215.80426612755</v>
       </c>
-      <c r="D116" s="6" t="n">
+      <c r="D116" s="5" t="n">
         <v>104</v>
       </c>
-      <c r="E116" s="7" t="n">
+      <c r="E116" s="6" t="n">
         <v>41.8</v>
       </c>
-      <c r="F116" s="8" t="n">
+      <c r="F116" s="7" t="n">
         <v>0.35</v>
       </c>
-      <c r="G116" s="8" t="n">
+      <c r="G116" s="7" t="n">
         <v>18.9</v>
       </c>
-      <c r="H116" s="8" t="n">
+      <c r="H116" s="7" t="n">
         <v>7.3</v>
       </c>
-      <c r="I116" s="8" t="n">
+      <c r="I116" s="7" t="n">
         <v>0.312</v>
       </c>
-      <c r="J116" s="8" t="n">
+      <c r="J116" s="7" t="n">
         <v>20.6</v>
       </c>
-      <c r="K116" s="8" t="n">
+      <c r="K116" s="7" t="n">
         <v>5.43</v>
       </c>
-      <c r="L116" s="8" t="n">
+      <c r="L116" s="7" t="n">
         <v>0.03</v>
       </c>
-      <c r="M116" s="8"/>
-      <c r="N116" s="8" t="n">
+      <c r="M116" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N116" s="7" t="n">
         <v>4.7</v>
       </c>
     </row>
@@ -5501,38 +5632,40 @@
       <c r="B117" s="0" t="n">
         <v>1330.5730341733</v>
       </c>
-      <c r="C117" s="5" t="n">
+      <c r="C117" s="4" t="n">
         <v>1227.76483435625</v>
       </c>
-      <c r="D117" s="6" t="n">
+      <c r="D117" s="5" t="n">
         <v>109</v>
       </c>
-      <c r="E117" s="7" t="n">
+      <c r="E117" s="6" t="n">
         <v>41.3</v>
       </c>
-      <c r="F117" s="8" t="n">
+      <c r="F117" s="7" t="n">
         <v>1.02</v>
       </c>
-      <c r="G117" s="8" t="n">
+      <c r="G117" s="7" t="n">
         <v>17.5</v>
       </c>
-      <c r="H117" s="8" t="n">
+      <c r="H117" s="7" t="n">
         <v>7.5</v>
       </c>
-      <c r="I117" s="8" t="n">
+      <c r="I117" s="7" t="n">
         <v>0.321</v>
       </c>
-      <c r="J117" s="8" t="n">
+      <c r="J117" s="7" t="n">
         <v>20.2</v>
       </c>
-      <c r="K117" s="8" t="n">
+      <c r="K117" s="7" t="n">
         <v>5.74</v>
       </c>
-      <c r="L117" s="8" t="n">
+      <c r="L117" s="7" t="n">
         <v>0.06</v>
       </c>
-      <c r="M117" s="8"/>
-      <c r="N117" s="8" t="n">
+      <c r="M117" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N117" s="7" t="n">
         <v>5.8</v>
       </c>
     </row>
@@ -5543,38 +5676,40 @@
       <c r="B118" s="0" t="n">
         <v>1124.49339978217</v>
       </c>
-      <c r="C118" s="5" t="n">
+      <c r="C118" s="4" t="n">
         <v>1134.50549832382</v>
       </c>
-      <c r="D118" s="6" t="n">
+      <c r="D118" s="5" t="n">
         <v>74</v>
       </c>
-      <c r="E118" s="7" t="n">
+      <c r="E118" s="6" t="n">
         <v>42</v>
       </c>
-      <c r="F118" s="8" t="n">
+      <c r="F118" s="7" t="n">
         <v>0.48</v>
       </c>
-      <c r="G118" s="8" t="n">
+      <c r="G118" s="7" t="n">
         <v>21.4</v>
       </c>
-      <c r="H118" s="8" t="n">
+      <c r="H118" s="7" t="n">
         <v>8</v>
       </c>
-      <c r="I118" s="8" t="n">
+      <c r="I118" s="7" t="n">
         <v>0.337</v>
       </c>
-      <c r="J118" s="8" t="n">
+      <c r="J118" s="7" t="n">
         <v>21.5</v>
       </c>
-      <c r="K118" s="8" t="n">
+      <c r="K118" s="7" t="n">
         <v>4.12</v>
       </c>
-      <c r="L118" s="8" t="n">
+      <c r="L118" s="7" t="n">
         <v>0.07</v>
       </c>
-      <c r="M118" s="8"/>
-      <c r="N118" s="8" t="n">
+      <c r="M118" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N118" s="7" t="n">
         <v>2.1</v>
       </c>
     </row>

--- a/Benchmarking/garnet/PT_Sudholz.xlsx
+++ b/Benchmarking/garnet/PT_Sudholz.xlsx
@@ -510,35 +510,34 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:N118"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L2" activeCellId="0" sqref="L2"/>
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="18.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="1" width="16.6"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="11.52"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="14" min="6" style="3" width="11.52"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="15" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -590,7 +589,7 @@
         <v>14</v>
       </c>
       <c r="B2" s="0" t="n">
-        <v>989.535981378252</v>
+        <v>999.584718735689</v>
       </c>
       <c r="C2" s="4" t="n">
         <v>925.969146118349</v>
@@ -630,7 +629,7 @@
         <v>15</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>1222.87657839265</v>
+        <v>1248.57152506871</v>
       </c>
       <c r="C3" s="4" t="n">
         <v>1057.97094758787</v>
@@ -674,7 +673,7 @@
         <v>16</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>987.027585303443</v>
+        <v>995.482141422758</v>
       </c>
       <c r="C4" s="4" t="n">
         <v>947.68779175408</v>
@@ -718,7 +717,7 @@
         <v>17</v>
       </c>
       <c r="B5" s="0" t="n">
-        <v>1058.13128349887</v>
+        <v>1069.50884327748</v>
       </c>
       <c r="C5" s="4" t="n">
         <v>984.678861990497</v>
@@ -758,7 +757,7 @@
         <v>18</v>
       </c>
       <c r="B6" s="0" t="n">
-        <v>1386.9926357046</v>
+        <v>1406.46493542644</v>
       </c>
       <c r="C6" s="4" t="n">
         <v>1261.42161286537</v>
@@ -800,7 +799,7 @@
         <v>19</v>
       </c>
       <c r="B7" s="0" t="n">
-        <v>1246.71051451494</v>
+        <v>1257.81079959572</v>
       </c>
       <c r="C7" s="4" t="n">
         <v>1182.99655821858</v>
@@ -842,7 +841,7 @@
         <v>20</v>
       </c>
       <c r="B8" s="0" t="n">
-        <v>1254.73544909048</v>
+        <v>1268.67932234993</v>
       </c>
       <c r="C8" s="4" t="n">
         <v>1166.08083805694</v>
@@ -884,7 +883,7 @@
         <v>21</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>1196.95181001986</v>
+        <v>1207.88598329619</v>
       </c>
       <c r="C9" s="4" t="n">
         <v>1146.19207903912</v>
@@ -928,7 +927,7 @@
         <v>22</v>
       </c>
       <c r="B10" s="0" t="n">
-        <v>1123.1429884132</v>
+        <v>1126.98166027161</v>
       </c>
       <c r="C10" s="4" t="n">
         <v>1134.51800539089</v>
@@ -972,7 +971,7 @@
         <v>23</v>
       </c>
       <c r="B11" s="0" t="n">
-        <v>1306.97539138987</v>
+        <v>1318.83540312989</v>
       </c>
       <c r="C11" s="4" t="n">
         <v>1241.14976189738</v>
@@ -1016,7 +1015,7 @@
         <v>24</v>
       </c>
       <c r="B12" s="0" t="n">
-        <v>1314.01721019795</v>
+        <v>1337.36937842617</v>
       </c>
       <c r="C12" s="4" t="n">
         <v>1151.77185716811</v>
@@ -1058,7 +1057,7 @@
         <v>25</v>
       </c>
       <c r="B13" s="0" t="n">
-        <v>1237.41296774534</v>
+        <v>1243.34815135579</v>
       </c>
       <c r="C13" s="4" t="n">
         <v>1229.02689655716</v>
@@ -1100,7 +1099,7 @@
         <v>26</v>
       </c>
       <c r="B14" s="0" t="n">
-        <v>1225.98640420027</v>
+        <v>1231.91027017817</v>
       </c>
       <c r="C14" s="4" t="n">
         <v>1217.7398319456</v>
@@ -1144,7 +1143,7 @@
         <v>27</v>
       </c>
       <c r="B15" s="0" t="n">
-        <v>1217.40759214877</v>
+        <v>1226.93113223859</v>
       </c>
       <c r="C15" s="4" t="n">
         <v>1183.86868574283</v>
@@ -1188,7 +1187,7 @@
         <v>28</v>
       </c>
       <c r="B16" s="0" t="n">
-        <v>1211.03836499186</v>
+        <v>1222.12182853259</v>
       </c>
       <c r="C16" s="4" t="n">
         <v>1156.05907694227</v>
@@ -1232,7 +1231,7 @@
         <v>29</v>
       </c>
       <c r="B17" s="0" t="n">
-        <v>1404.73770661541</v>
+        <v>1431.3635005196</v>
       </c>
       <c r="C17" s="4" t="n">
         <v>1224.25948959003</v>
@@ -1276,7 +1275,7 @@
         <v>30</v>
       </c>
       <c r="B18" s="0" t="n">
-        <v>1350.999364975</v>
+        <v>1364.22802654784</v>
       </c>
       <c r="C18" s="4" t="n">
         <v>1277.02400473062</v>
@@ -1320,7 +1319,7 @@
         <v>31</v>
       </c>
       <c r="B19" s="0" t="n">
-        <v>1328.66819313717</v>
+        <v>1347.15526195077</v>
       </c>
       <c r="C19" s="4" t="n">
         <v>1208.69436518816</v>
@@ -1364,7 +1363,7 @@
         <v>32</v>
       </c>
       <c r="B20" s="0" t="n">
-        <v>926.137304129416</v>
+        <v>932.235442643719</v>
       </c>
       <c r="C20" s="4" t="n">
         <v>906.312603239375</v>
@@ -1408,7 +1407,7 @@
         <v>33</v>
       </c>
       <c r="B21" s="0" t="n">
-        <v>1014.85098660187</v>
+        <v>1025.28581547163</v>
       </c>
       <c r="C21" s="4" t="n">
         <v>949.104556717275</v>
@@ -1452,7 +1451,7 @@
         <v>34</v>
       </c>
       <c r="B22" s="0" t="n">
-        <v>1155.05642485255</v>
+        <v>1164.32067476113</v>
       </c>
       <c r="C22" s="4" t="n">
         <v>1113.0920116217</v>
@@ -1496,7 +1495,7 @@
         <v>35</v>
       </c>
       <c r="B23" s="0" t="n">
-        <v>924.455965585961</v>
+        <v>932.43759160136</v>
       </c>
       <c r="C23" s="4" t="n">
         <v>875.88617711382</v>
@@ -1540,7 +1539,7 @@
         <v>36</v>
       </c>
       <c r="B24" s="0" t="n">
-        <v>936.789999288378</v>
+        <v>942.543034838869</v>
       </c>
       <c r="C24" s="4" t="n">
         <v>911.11835265531</v>
@@ -1584,7 +1583,7 @@
         <v>37</v>
       </c>
       <c r="B25" s="0" t="n">
-        <v>1221.77855805834</v>
+        <v>1239.67171539768</v>
       </c>
       <c r="C25" s="4" t="n">
         <v>1097.12797781747</v>
@@ -1628,7 +1627,7 @@
         <v>38</v>
       </c>
       <c r="B26" s="0" t="n">
-        <v>1046.72144928473</v>
+        <v>1053.1829039571</v>
       </c>
       <c r="C26" s="4" t="n">
         <v>1030.94771193996</v>
@@ -1672,7 +1671,7 @@
         <v>39</v>
       </c>
       <c r="B27" s="0" t="n">
-        <v>1218.7723445149</v>
+        <v>1235.22117614707</v>
       </c>
       <c r="C27" s="4" t="n">
         <v>1119.58481586885</v>
@@ -1716,7 +1715,7 @@
         <v>40</v>
       </c>
       <c r="B28" s="0" t="n">
-        <v>1273.44880275662</v>
+        <v>1297.71099149229</v>
       </c>
       <c r="C28" s="4" t="n">
         <v>1104.84754365031</v>
@@ -1760,7 +1759,7 @@
         <v>41</v>
       </c>
       <c r="B29" s="0" t="n">
-        <v>1208.47817429803</v>
+        <v>1217.88153791733</v>
       </c>
       <c r="C29" s="4" t="n">
         <v>1163.44517253588</v>
@@ -1804,7 +1803,7 @@
         <v>42</v>
       </c>
       <c r="B30" s="0" t="n">
-        <v>1067.16364513755</v>
+        <v>1077.43735850427</v>
       </c>
       <c r="C30" s="4" t="n">
         <v>1014.75028395462</v>
@@ -1848,7 +1847,7 @@
         <v>43</v>
       </c>
       <c r="B31" s="0" t="n">
-        <v>1251.02307828298</v>
+        <v>1268.36091197954</v>
       </c>
       <c r="C31" s="4" t="n">
         <v>1135.78483297333</v>
@@ -1892,7 +1891,7 @@
         <v>44</v>
       </c>
       <c r="B32" s="0" t="n">
-        <v>1111.10555525114</v>
+        <v>1114.4653117524</v>
       </c>
       <c r="C32" s="4" t="n">
         <v>1122.2566094999</v>
@@ -1936,7 +1935,7 @@
         <v>45</v>
       </c>
       <c r="B33" s="0" t="n">
-        <v>1037.70691019878</v>
+        <v>1044.46734670145</v>
       </c>
       <c r="C33" s="4" t="n">
         <v>1013.28683316059</v>
@@ -1980,7 +1979,7 @@
         <v>46</v>
       </c>
       <c r="B34" s="0" t="n">
-        <v>1147.13726697428</v>
+        <v>1159.26051357018</v>
       </c>
       <c r="C34" s="4" t="n">
         <v>1084.21263415204</v>
@@ -2024,7 +2023,7 @@
         <v>47</v>
       </c>
       <c r="B35" s="0" t="n">
-        <v>1281.64695232564</v>
+        <v>1303.06573437443</v>
       </c>
       <c r="C35" s="4" t="n">
         <v>1131.00797115409</v>
@@ -2068,7 +2067,7 @@
         <v>48</v>
       </c>
       <c r="B36" s="0" t="n">
-        <v>1165.45110083272</v>
+        <v>1176.937020263</v>
       </c>
       <c r="C36" s="4" t="n">
         <v>1104.07736712717</v>
@@ -2112,7 +2111,7 @@
         <v>49</v>
       </c>
       <c r="B37" s="0" t="n">
-        <v>1157.36414405848</v>
+        <v>1168.52097187788</v>
       </c>
       <c r="C37" s="4" t="n">
         <v>1097.12797781747</v>
@@ -2156,7 +2155,7 @@
         <v>50</v>
       </c>
       <c r="B38" s="0" t="n">
-        <v>892.020589955203</v>
+        <v>899.948274047628</v>
       </c>
       <c r="C38" s="4" t="n">
         <v>848.973419762888</v>
@@ -2200,7 +2199,7 @@
         <v>51</v>
       </c>
       <c r="B39" s="0" t="n">
-        <v>1188.45753184493</v>
+        <v>1203.21712625003</v>
       </c>
       <c r="C39" s="4" t="n">
         <v>1094.7191244487</v>
@@ -2244,7 +2243,7 @@
         <v>52</v>
       </c>
       <c r="B40" s="0" t="n">
-        <v>1217.23526602621</v>
+        <v>1234.9853127774</v>
       </c>
       <c r="C40" s="4" t="n">
         <v>1101.51895149418</v>
@@ -2288,7 +2287,7 @@
         <v>53</v>
       </c>
       <c r="B41" s="0" t="n">
-        <v>1114.37803524545</v>
+        <v>1123.1051251621</v>
       </c>
       <c r="C41" s="4" t="n">
         <v>1072.84779100277</v>
@@ -2332,7 +2331,7 @@
         <v>54</v>
       </c>
       <c r="B42" s="0" t="n">
-        <v>1248.87004579848</v>
+        <v>1265.79369943339</v>
       </c>
       <c r="C42" s="4" t="n">
         <v>1140.88367563885</v>
@@ -2376,7 +2375,7 @@
         <v>55</v>
       </c>
       <c r="B43" s="0" t="n">
-        <v>1144.47088367293</v>
+        <v>1160.2117571661</v>
       </c>
       <c r="C43" s="4" t="n">
         <v>1046.61199580219</v>
@@ -2420,7 +2419,7 @@
         <v>56</v>
       </c>
       <c r="B44" s="0" t="n">
-        <v>1097.00167876602</v>
+        <v>1107.2080966063</v>
       </c>
       <c r="C44" s="4" t="n">
         <v>1049.36146297974</v>
@@ -2464,7 +2463,7 @@
         <v>57</v>
       </c>
       <c r="B45" s="0" t="n">
-        <v>1055.50153099506</v>
+        <v>1061.48442233344</v>
       </c>
       <c r="C45" s="4" t="n">
         <v>1051.20648074766</v>
@@ -2508,7 +2507,7 @@
         <v>58</v>
       </c>
       <c r="B46" s="0" t="n">
-        <v>1308.16752958572</v>
+        <v>1325.74900201548</v>
       </c>
       <c r="C46" s="4" t="n">
         <v>1193.2789254512</v>
@@ -2552,7 +2551,7 @@
         <v>59</v>
       </c>
       <c r="B47" s="0" t="n">
-        <v>1035.99704297775</v>
+        <v>1041.98080477438</v>
       </c>
       <c r="C47" s="4" t="n">
         <v>1022.17219960356</v>
@@ -2596,7 +2595,7 @@
         <v>60</v>
       </c>
       <c r="B48" s="0" t="n">
-        <v>1031.47416241447</v>
+        <v>1039.16433387949</v>
       </c>
       <c r="C48" s="4" t="n">
         <v>1016.79482006175</v>
@@ -2640,7 +2639,7 @@
         <v>61</v>
       </c>
       <c r="B49" s="0" t="n">
-        <v>1244.36614984744</v>
+        <v>1267.04349551031</v>
       </c>
       <c r="C49" s="4" t="n">
         <v>1119.5209327789</v>
@@ -2684,7 +2683,7 @@
         <v>62</v>
       </c>
       <c r="B50" s="0" t="n">
-        <v>1197.52519825624</v>
+        <v>1207.46269132528</v>
       </c>
       <c r="C50" s="4" t="n">
         <v>1148.84368153664</v>
@@ -2728,7 +2727,7 @@
         <v>63</v>
       </c>
       <c r="B51" s="0" t="n">
-        <v>1148.78925789739</v>
+        <v>1152.63580007646</v>
       </c>
       <c r="C51" s="4" t="n">
         <v>1136.63500216256</v>
@@ -2772,7 +2771,7 @@
         <v>64</v>
       </c>
       <c r="B52" s="0" t="n">
-        <v>1137.66565857902</v>
+        <v>1139.57203004584</v>
       </c>
       <c r="C52" s="4" t="n">
         <v>1147.08433627995</v>
@@ -2816,7 +2815,7 @@
         <v>65</v>
       </c>
       <c r="B53" s="0" t="n">
-        <v>1123.69677850463</v>
+        <v>1125.11423642407</v>
       </c>
       <c r="C53" s="4" t="n">
         <v>1135.41981005869</v>
@@ -2860,7 +2859,7 @@
         <v>66</v>
       </c>
       <c r="B54" s="0" t="n">
-        <v>1128.02899666494</v>
+        <v>1129.18708399983</v>
       </c>
       <c r="C54" s="4" t="n">
         <v>1145.31583895709</v>
@@ -2904,7 +2903,7 @@
         <v>67</v>
       </c>
       <c r="B55" s="0" t="n">
-        <v>1107.59856885814</v>
+        <v>1108.59280802607</v>
       </c>
       <c r="C55" s="4" t="n">
         <v>1126.78646312871</v>
@@ -2948,7 +2947,7 @@
         <v>68</v>
       </c>
       <c r="B56" s="0" t="n">
-        <v>1140.53348762868</v>
+        <v>1141.44574695669</v>
       </c>
       <c r="C56" s="4" t="n">
         <v>1159.21420987061</v>
@@ -2992,7 +2991,7 @@
         <v>69</v>
       </c>
       <c r="B57" s="0" t="n">
-        <v>1063.04357077157</v>
+        <v>1072.58502372615</v>
       </c>
       <c r="C57" s="4" t="n">
         <v>1026.13638030443</v>
@@ -3036,7 +3035,7 @@
         <v>70</v>
       </c>
       <c r="B58" s="0" t="n">
-        <v>1034.50193669086</v>
+        <v>1041.32061222701</v>
       </c>
       <c r="C58" s="4" t="n">
         <v>1008.05370240209</v>
@@ -3080,7 +3079,7 @@
         <v>71</v>
       </c>
       <c r="B59" s="0" t="n">
-        <v>1071.73475220856</v>
+        <v>1083.34840154806</v>
       </c>
       <c r="C59" s="4" t="n">
         <v>1003.33460047701</v>
@@ -3124,7 +3123,7 @@
         <v>72</v>
       </c>
       <c r="B60" s="0" t="n">
-        <v>1203.34696029018</v>
+        <v>1212.83536233955</v>
       </c>
       <c r="C60" s="4" t="n">
         <v>1152.3354007409</v>
@@ -3168,7 +3167,7 @@
         <v>73</v>
       </c>
       <c r="B61" s="0" t="n">
-        <v>1280.91143337751</v>
+        <v>1293.98698086486</v>
       </c>
       <c r="C61" s="4" t="n">
         <v>1203.45754176162</v>
@@ -3212,7 +3211,7 @@
         <v>74</v>
       </c>
       <c r="B62" s="0" t="n">
-        <v>1020.8602325567</v>
+        <v>1029.31811670675</v>
       </c>
       <c r="C62" s="4" t="n">
         <v>988.641158584623</v>
@@ -3256,7 +3255,7 @@
         <v>75</v>
       </c>
       <c r="B63" s="0" t="n">
-        <v>966.814306457102</v>
+        <v>972.093857888901</v>
       </c>
       <c r="C63" s="4" t="n">
         <v>962.078882214477</v>
@@ -3300,7 +3299,7 @@
         <v>76</v>
       </c>
       <c r="B64" s="0" t="n">
-        <v>1013.29124449477</v>
+        <v>1019.29475996639</v>
       </c>
       <c r="C64" s="4" t="n">
         <v>998.52890942806</v>
@@ -3344,7 +3343,7 @@
         <v>77</v>
       </c>
       <c r="B65" s="0" t="n">
-        <v>1189.52696874511</v>
+        <v>1196.67488313575</v>
       </c>
       <c r="C65" s="4" t="n">
         <v>1163.72542120457</v>
@@ -3388,7 +3387,7 @@
         <v>78</v>
       </c>
       <c r="B66" s="0" t="n">
-        <v>1042.70913586489</v>
+        <v>1050.30131811901</v>
       </c>
       <c r="C66" s="4" t="n">
         <v>1008.05370240209</v>
@@ -3432,7 +3431,7 @@
         <v>79</v>
       </c>
       <c r="B67" s="0" t="n">
-        <v>931.23867120928</v>
+        <v>936.888087904105</v>
       </c>
       <c r="C67" s="4" t="n">
         <v>912.26551977275</v>
@@ -3476,7 +3475,7 @@
         <v>80</v>
       </c>
       <c r="B68" s="0" t="n">
-        <v>915.206065845253</v>
+        <v>917.27488689946</v>
       </c>
       <c r="C68" s="4" t="n">
         <v>932.231292471864</v>
@@ -3520,7 +3519,7 @@
         <v>81</v>
       </c>
       <c r="B69" s="0" t="n">
-        <v>1375.27414277544</v>
+        <v>1389.80287403117</v>
       </c>
       <c r="C69" s="4" t="n">
         <v>1290.88338403662</v>
@@ -3564,7 +3563,7 @@
         <v>82</v>
       </c>
       <c r="B70" s="0" t="n">
-        <v>1017.8183680757</v>
+        <v>1021.12177669783</v>
       </c>
       <c r="C70" s="4" t="n">
         <v>1026.57330961424</v>
@@ -3606,7 +3605,7 @@
         <v>83</v>
       </c>
       <c r="B71" s="0" t="n">
-        <v>1169.09239713793</v>
+        <v>1181.71538401383</v>
       </c>
       <c r="C71" s="4" t="n">
         <v>1099.41626095537</v>
@@ -3650,7 +3649,7 @@
         <v>84</v>
       </c>
       <c r="B72" s="0" t="n">
-        <v>1277.16121446619</v>
+        <v>1284.97976212778</v>
       </c>
       <c r="C72" s="4" t="n">
         <v>1250.64566907871</v>
@@ -3694,7 +3693,7 @@
         <v>85</v>
       </c>
       <c r="B73" s="0" t="n">
-        <v>982.454321260015</v>
+        <v>985.746504123325</v>
       </c>
       <c r="C73" s="4" t="n">
         <v>1001.42293625985</v>
@@ -3738,7 +3737,7 @@
         <v>86</v>
       </c>
       <c r="B74" s="0" t="n">
-        <v>1164.87123304529</v>
+        <v>1178.09716514553</v>
       </c>
       <c r="C74" s="4" t="n">
         <v>1089.31752463217</v>
@@ -3782,7 +3781,7 @@
         <v>86</v>
       </c>
       <c r="B75" s="0" t="n">
-        <v>1157.32464903405</v>
+        <v>1170.63637622484</v>
       </c>
       <c r="C75" s="4" t="n">
         <v>1082.02408142177</v>
@@ -3826,7 +3825,7 @@
         <v>87</v>
       </c>
       <c r="B76" s="0" t="n">
-        <v>1163.68526161174</v>
+        <v>1171.20390553368</v>
       </c>
       <c r="C76" s="4" t="n">
         <v>1136.42266289993</v>
@@ -3870,7 +3869,7 @@
         <v>87</v>
       </c>
       <c r="B77" s="0" t="n">
-        <v>1176.10045474177</v>
+        <v>1183.96160034368</v>
       </c>
       <c r="C77" s="4" t="n">
         <v>1146.05383299514</v>
@@ -3914,7 +3913,7 @@
         <v>88</v>
       </c>
       <c r="B78" s="0" t="n">
-        <v>1136.38239062709</v>
+        <v>1143.58559630082</v>
       </c>
       <c r="C78" s="4" t="n">
         <v>1112.8070564452</v>
@@ -3958,7 +3957,7 @@
         <v>88</v>
       </c>
       <c r="B79" s="0" t="n">
-        <v>1119.95487892628</v>
+        <v>1127.25774966873</v>
       </c>
       <c r="C79" s="4" t="n">
         <v>1095.96029673487</v>
@@ -4002,7 +4001,7 @@
         <v>89</v>
       </c>
       <c r="B80" s="0" t="n">
-        <v>1182.24294060362</v>
+        <v>1193.25999597429</v>
       </c>
       <c r="C80" s="4" t="n">
         <v>1127.44186021587</v>
@@ -4046,7 +4045,7 @@
         <v>89</v>
       </c>
       <c r="B81" s="0" t="n">
-        <v>1152.19664585181</v>
+        <v>1162.25367893527</v>
       </c>
       <c r="C81" s="4" t="n">
         <v>1105.51573767974</v>
@@ -4090,7 +4089,7 @@
         <v>90</v>
       </c>
       <c r="B82" s="0" t="n">
-        <v>1059.28943155156</v>
+        <v>1064.75304539785</v>
       </c>
       <c r="C82" s="4" t="n">
         <v>1056.04308631902</v>
@@ -4134,7 +4133,7 @@
         <v>90</v>
       </c>
       <c r="B83" s="0" t="n">
-        <v>1055.79249809499</v>
+        <v>1061.12720275449</v>
       </c>
       <c r="C83" s="4" t="n">
         <v>1053.99151661683</v>
@@ -4178,7 +4177,7 @@
         <v>91</v>
       </c>
       <c r="B84" s="0" t="n">
-        <v>962.264237265282</v>
+        <v>967.008955392465</v>
       </c>
       <c r="C84" s="4" t="n">
         <v>965.033875089738</v>
@@ -4222,7 +4221,7 @@
         <v>91</v>
       </c>
       <c r="B85" s="0" t="n">
-        <v>988.585380158446</v>
+        <v>993.972604989183</v>
       </c>
       <c r="C85" s="4" t="n">
         <v>986.057441173184</v>
@@ -4266,7 +4265,7 @@
         <v>92</v>
       </c>
       <c r="B86" s="0" t="n">
-        <v>1229.40687358483</v>
+        <v>1248.46424040766</v>
       </c>
       <c r="C86" s="4" t="n">
         <v>1101.34990190892</v>
@@ -4310,7 +4309,7 @@
         <v>92</v>
       </c>
       <c r="B87" s="0" t="n">
-        <v>1224.14201363193</v>
+        <v>1243.57369973014</v>
       </c>
       <c r="C87" s="4" t="n">
         <v>1095.47820845433</v>
@@ -4354,7 +4353,7 @@
         <v>93</v>
       </c>
       <c r="B88" s="0" t="n">
-        <v>1085.47675035443</v>
+        <v>1087.24232699575</v>
       </c>
       <c r="C88" s="4" t="n">
         <v>1099.07578979291</v>
@@ -4398,7 +4397,7 @@
         <v>94</v>
       </c>
       <c r="B89" s="0" t="n">
-        <v>1099.51781000507</v>
+        <v>1101.59497494762</v>
       </c>
       <c r="C89" s="4" t="n">
         <v>1109.13280496708</v>
@@ -4442,7 +4441,7 @@
         <v>95</v>
       </c>
       <c r="B90" s="0" t="n">
-        <v>1299.94801935487</v>
+        <v>1322.65222251949</v>
       </c>
       <c r="C90" s="4" t="n">
         <v>1148.9752669025</v>
@@ -4486,7 +4485,7 @@
         <v>96</v>
       </c>
       <c r="B91" s="0" t="n">
-        <v>1290.52054962229</v>
+        <v>1320.77933137783</v>
       </c>
       <c r="C91" s="4" t="n">
         <v>1082.01327892661</v>
@@ -4530,7 +4529,7 @@
         <v>97</v>
       </c>
       <c r="B92" s="0" t="n">
-        <v>1189.94177814603</v>
+        <v>1199.42027945373</v>
       </c>
       <c r="C92" s="4" t="n">
         <v>1141.89421084105</v>
@@ -4574,7 +4573,7 @@
         <v>98</v>
       </c>
       <c r="B93" s="0" t="n">
-        <v>1389.74351681798</v>
+        <v>1413.76917920201</v>
       </c>
       <c r="C93" s="4" t="n">
         <v>1202.18522148265</v>
@@ -4618,7 +4617,7 @@
         <v>99</v>
       </c>
       <c r="B94" s="0" t="n">
-        <v>1174.16177421892</v>
+        <v>1192.43024466229</v>
       </c>
       <c r="C94" s="4" t="n">
         <v>1038.62622454043</v>
@@ -4662,7 +4661,7 @@
         <v>100</v>
       </c>
       <c r="B95" s="0" t="n">
-        <v>1114.80691975015</v>
+        <v>1122.26692505525</v>
       </c>
       <c r="C95" s="4" t="n">
         <v>1088.54662899357</v>
@@ -4706,7 +4705,7 @@
         <v>101</v>
       </c>
       <c r="B96" s="0" t="n">
-        <v>1181.39946559034</v>
+        <v>1188.42127551861</v>
       </c>
       <c r="C96" s="4" t="n">
         <v>1151.02727237459</v>
@@ -4750,7 +4749,7 @@
         <v>102</v>
       </c>
       <c r="B97" s="0" t="n">
-        <v>1108.82475985361</v>
+        <v>1112.87979473111</v>
       </c>
       <c r="C97" s="4" t="n">
         <v>1103.46658631133</v>
@@ -4794,7 +4793,7 @@
         <v>103</v>
       </c>
       <c r="B98" s="0" t="n">
-        <v>1212.95281654083</v>
+        <v>1225.70236257775</v>
       </c>
       <c r="C98" s="4" t="n">
         <v>1133.48153714733</v>
@@ -4838,7 +4837,7 @@
         <v>104</v>
       </c>
       <c r="B99" s="0" t="n">
-        <v>1165.54662221863</v>
+        <v>1173.71003999179</v>
       </c>
       <c r="C99" s="4" t="n">
         <v>1133.75388260058</v>
@@ -4882,7 +4881,7 @@
         <v>105</v>
       </c>
       <c r="B100" s="0" t="n">
-        <v>928.947190944665</v>
+        <v>932.842379889659</v>
       </c>
       <c r="C100" s="4" t="n">
         <v>934.134041892545</v>
@@ -4926,7 +4925,7 @@
         <v>106</v>
       </c>
       <c r="B101" s="0" t="n">
-        <v>936.828843157849</v>
+        <v>944.032252576963</v>
       </c>
       <c r="C101" s="4" t="n">
         <v>912.26551977275</v>
@@ -4970,7 +4969,7 @@
         <v>107</v>
       </c>
       <c r="B102" s="0" t="n">
-        <v>934.482291462737</v>
+        <v>940.136950164923</v>
       </c>
       <c r="C102" s="4" t="n">
         <v>923.796918918816</v>
@@ -5014,7 +5013,7 @@
         <v>108</v>
       </c>
       <c r="B103" s="0" t="n">
-        <v>882.285625400571</v>
+        <v>883.917928697609</v>
       </c>
       <c r="C103" s="4" t="n">
         <v>905.188979707737</v>
@@ -5058,7 +5057,7 @@
         <v>109</v>
       </c>
       <c r="B104" s="0" t="n">
-        <v>1075.59350940025</v>
+        <v>1080.56192737017</v>
       </c>
       <c r="C104" s="4" t="n">
         <v>1074.25520039066</v>
@@ -5102,7 +5101,7 @@
         <v>110</v>
       </c>
       <c r="B105" s="0" t="n">
-        <v>1071.26585511006</v>
+        <v>1080.34824457287</v>
       </c>
       <c r="C105" s="4" t="n">
         <v>1026.13638030443</v>
@@ -5146,7 +5145,7 @@
         <v>111</v>
       </c>
       <c r="B106" s="0" t="n">
-        <v>892.787465085822</v>
+        <v>893.562527037415</v>
       </c>
       <c r="C106" s="4" t="n">
         <v>925.77142446422</v>
@@ -5190,7 +5189,7 @@
         <v>112</v>
       </c>
       <c r="B107" s="0" t="n">
-        <v>1111.51968392842</v>
+        <v>1119.77888790491</v>
       </c>
       <c r="C107" s="4" t="n">
         <v>1072.40196175367</v>
@@ -5234,7 +5233,7 @@
         <v>113</v>
       </c>
       <c r="B108" s="0" t="n">
-        <v>1073.21445312837</v>
+        <v>1080.21300441917</v>
       </c>
       <c r="C108" s="4" t="n">
         <v>1042.27219544276</v>
@@ -5278,7 +5277,7 @@
         <v>114</v>
       </c>
       <c r="B109" s="0" t="n">
-        <v>1093.05061554172</v>
+        <v>1101.43075118736</v>
       </c>
       <c r="C109" s="4" t="n">
         <v>1055.57094055685</v>
@@ -5322,7 +5321,7 @@
         <v>115</v>
       </c>
       <c r="B110" s="0" t="n">
-        <v>947.408649534358</v>
+        <v>951.669289917139</v>
       </c>
       <c r="C110" s="4" t="n">
         <v>948.223417946709</v>
@@ -5366,7 +5365,7 @@
         <v>116</v>
       </c>
       <c r="B111" s="0" t="n">
-        <v>1080.35073133303</v>
+        <v>1090.64838120677</v>
       </c>
       <c r="C111" s="4" t="n">
         <v>1023.05813161966</v>
@@ -5410,7 +5409,7 @@
         <v>117</v>
       </c>
       <c r="B112" s="0" t="n">
-        <v>1018.47221687707</v>
+        <v>1023.03779369413</v>
       </c>
       <c r="C112" s="4" t="n">
         <v>1021.28336575814</v>
@@ -5454,7 +5453,7 @@
         <v>118</v>
       </c>
       <c r="B113" s="0" t="n">
-        <v>1038.08050569242</v>
+        <v>1042.69318703156</v>
       </c>
       <c r="C113" s="4" t="n">
         <v>1032.19099076156</v>
@@ -5498,7 +5497,7 @@
         <v>119</v>
       </c>
       <c r="B114" s="0" t="n">
-        <v>1331.40833947657</v>
+        <v>1346.26953684146</v>
       </c>
       <c r="C114" s="4" t="n">
         <v>1234.76864481242</v>
@@ -5542,7 +5541,7 @@
         <v>120</v>
       </c>
       <c r="B115" s="0" t="n">
-        <v>1348.85603675974</v>
+        <v>1367.61187621501</v>
       </c>
       <c r="C115" s="4" t="n">
         <v>1237.07584448953</v>
@@ -5586,7 +5585,7 @@
         <v>121</v>
       </c>
       <c r="B116" s="0" t="n">
-        <v>1285.00968062652</v>
+        <v>1296.71339350935</v>
       </c>
       <c r="C116" s="4" t="n">
         <v>1215.80426612755</v>
@@ -5630,7 +5629,7 @@
         <v>122</v>
       </c>
       <c r="B117" s="0" t="n">
-        <v>1330.5730341733</v>
+        <v>1346.38333063423</v>
       </c>
       <c r="C117" s="4" t="n">
         <v>1227.76483435625</v>
@@ -5674,7 +5673,7 @@
         <v>123</v>
       </c>
       <c r="B118" s="0" t="n">
-        <v>1124.49339978217</v>
+        <v>1128.54265575356</v>
       </c>
       <c r="C118" s="4" t="n">
         <v>1134.50549832382</v>
@@ -5716,7 +5715,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/Benchmarking/garnet/PT_Sudholz.xlsx
+++ b/Benchmarking/garnet/PT_Sudholz.xlsx
@@ -528,10 +528,10 @@
   <dimension ref="A1:N118"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="18.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.71"/>
@@ -589,7 +589,7 @@
         <v>14</v>
       </c>
       <c r="B2" s="0" t="n">
-        <v>999.584718735689</v>
+        <v>999.434718735689</v>
       </c>
       <c r="C2" s="4" t="n">
         <v>925.969146118349</v>
@@ -629,7 +629,7 @@
         <v>15</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>1248.57152506871</v>
+        <v>1248.42152506871</v>
       </c>
       <c r="C3" s="4" t="n">
         <v>1057.97094758787</v>
@@ -673,7 +673,7 @@
         <v>16</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>995.482141422758</v>
+        <v>995.332141422757</v>
       </c>
       <c r="C4" s="4" t="n">
         <v>947.68779175408</v>
@@ -717,7 +717,7 @@
         <v>17</v>
       </c>
       <c r="B5" s="0" t="n">
-        <v>1069.50884327748</v>
+        <v>1069.35884327748</v>
       </c>
       <c r="C5" s="4" t="n">
         <v>984.678861990497</v>
@@ -757,7 +757,7 @@
         <v>18</v>
       </c>
       <c r="B6" s="0" t="n">
-        <v>1406.46493542644</v>
+        <v>1406.31493542644</v>
       </c>
       <c r="C6" s="4" t="n">
         <v>1261.42161286537</v>
@@ -799,7 +799,7 @@
         <v>19</v>
       </c>
       <c r="B7" s="0" t="n">
-        <v>1257.81079959572</v>
+        <v>1257.66079959572</v>
       </c>
       <c r="C7" s="4" t="n">
         <v>1182.99655821858</v>
@@ -841,7 +841,7 @@
         <v>20</v>
       </c>
       <c r="B8" s="0" t="n">
-        <v>1268.67932234993</v>
+        <v>1268.52932234993</v>
       </c>
       <c r="C8" s="4" t="n">
         <v>1166.08083805694</v>
@@ -883,7 +883,7 @@
         <v>21</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>1207.88598329619</v>
+        <v>1207.7359832962</v>
       </c>
       <c r="C9" s="4" t="n">
         <v>1146.19207903912</v>
@@ -927,7 +927,7 @@
         <v>22</v>
       </c>
       <c r="B10" s="0" t="n">
-        <v>1126.98166027161</v>
+        <v>1126.83166027161</v>
       </c>
       <c r="C10" s="4" t="n">
         <v>1134.51800539089</v>
@@ -971,7 +971,7 @@
         <v>23</v>
       </c>
       <c r="B11" s="0" t="n">
-        <v>1318.83540312989</v>
+        <v>1318.68540312989</v>
       </c>
       <c r="C11" s="4" t="n">
         <v>1241.14976189738</v>
@@ -1015,7 +1015,7 @@
         <v>24</v>
       </c>
       <c r="B12" s="0" t="n">
-        <v>1337.36937842617</v>
+        <v>1337.21937842617</v>
       </c>
       <c r="C12" s="4" t="n">
         <v>1151.77185716811</v>
@@ -1057,7 +1057,7 @@
         <v>25</v>
       </c>
       <c r="B13" s="0" t="n">
-        <v>1243.34815135579</v>
+        <v>1243.1981513558</v>
       </c>
       <c r="C13" s="4" t="n">
         <v>1229.02689655716</v>
@@ -1099,7 +1099,7 @@
         <v>26</v>
       </c>
       <c r="B14" s="0" t="n">
-        <v>1231.91027017817</v>
+        <v>1231.76027017817</v>
       </c>
       <c r="C14" s="4" t="n">
         <v>1217.7398319456</v>
@@ -1143,7 +1143,7 @@
         <v>27</v>
       </c>
       <c r="B15" s="0" t="n">
-        <v>1226.93113223859</v>
+        <v>1226.78113223859</v>
       </c>
       <c r="C15" s="4" t="n">
         <v>1183.86868574283</v>
@@ -1187,7 +1187,7 @@
         <v>28</v>
       </c>
       <c r="B16" s="0" t="n">
-        <v>1222.12182853259</v>
+        <v>1221.97182853258</v>
       </c>
       <c r="C16" s="4" t="n">
         <v>1156.05907694227</v>
@@ -1231,7 +1231,7 @@
         <v>29</v>
       </c>
       <c r="B17" s="0" t="n">
-        <v>1431.3635005196</v>
+        <v>1431.2135005196</v>
       </c>
       <c r="C17" s="4" t="n">
         <v>1224.25948959003</v>
@@ -1275,7 +1275,7 @@
         <v>30</v>
       </c>
       <c r="B18" s="0" t="n">
-        <v>1364.22802654784</v>
+        <v>1364.07802654784</v>
       </c>
       <c r="C18" s="4" t="n">
         <v>1277.02400473062</v>
@@ -1319,7 +1319,7 @@
         <v>31</v>
       </c>
       <c r="B19" s="0" t="n">
-        <v>1347.15526195077</v>
+        <v>1347.00526195077</v>
       </c>
       <c r="C19" s="4" t="n">
         <v>1208.69436518816</v>
@@ -1363,7 +1363,7 @@
         <v>32</v>
       </c>
       <c r="B20" s="0" t="n">
-        <v>932.235442643719</v>
+        <v>932.08544264372</v>
       </c>
       <c r="C20" s="4" t="n">
         <v>906.312603239375</v>
@@ -1407,7 +1407,7 @@
         <v>33</v>
       </c>
       <c r="B21" s="0" t="n">
-        <v>1025.28581547163</v>
+        <v>1025.13581547163</v>
       </c>
       <c r="C21" s="4" t="n">
         <v>949.104556717275</v>
@@ -1451,7 +1451,7 @@
         <v>34</v>
       </c>
       <c r="B22" s="0" t="n">
-        <v>1164.32067476113</v>
+        <v>1164.17067476113</v>
       </c>
       <c r="C22" s="4" t="n">
         <v>1113.0920116217</v>
@@ -1495,7 +1495,7 @@
         <v>35</v>
       </c>
       <c r="B23" s="0" t="n">
-        <v>932.43759160136</v>
+        <v>932.287591601361</v>
       </c>
       <c r="C23" s="4" t="n">
         <v>875.88617711382</v>
@@ -1539,7 +1539,7 @@
         <v>36</v>
       </c>
       <c r="B24" s="0" t="n">
-        <v>942.543034838869</v>
+        <v>942.39303483887</v>
       </c>
       <c r="C24" s="4" t="n">
         <v>911.11835265531</v>
@@ -1583,7 +1583,7 @@
         <v>37</v>
       </c>
       <c r="B25" s="0" t="n">
-        <v>1239.67171539768</v>
+        <v>1239.52171539768</v>
       </c>
       <c r="C25" s="4" t="n">
         <v>1097.12797781747</v>
@@ -1627,7 +1627,7 @@
         <v>38</v>
       </c>
       <c r="B26" s="0" t="n">
-        <v>1053.1829039571</v>
+        <v>1053.0329039571</v>
       </c>
       <c r="C26" s="4" t="n">
         <v>1030.94771193996</v>
@@ -1671,7 +1671,7 @@
         <v>39</v>
       </c>
       <c r="B27" s="0" t="n">
-        <v>1235.22117614707</v>
+        <v>1235.07117614707</v>
       </c>
       <c r="C27" s="4" t="n">
         <v>1119.58481586885</v>
@@ -1715,7 +1715,7 @@
         <v>40</v>
       </c>
       <c r="B28" s="0" t="n">
-        <v>1297.71099149229</v>
+        <v>1297.56099149229</v>
       </c>
       <c r="C28" s="4" t="n">
         <v>1104.84754365031</v>
@@ -1759,7 +1759,7 @@
         <v>41</v>
       </c>
       <c r="B29" s="0" t="n">
-        <v>1217.88153791733</v>
+        <v>1217.73153791733</v>
       </c>
       <c r="C29" s="4" t="n">
         <v>1163.44517253588</v>
@@ -1803,7 +1803,7 @@
         <v>42</v>
       </c>
       <c r="B30" s="0" t="n">
-        <v>1077.43735850427</v>
+        <v>1077.28735850427</v>
       </c>
       <c r="C30" s="4" t="n">
         <v>1014.75028395462</v>
@@ -1847,7 +1847,7 @@
         <v>43</v>
       </c>
       <c r="B31" s="0" t="n">
-        <v>1268.36091197954</v>
+        <v>1268.21091197954</v>
       </c>
       <c r="C31" s="4" t="n">
         <v>1135.78483297333</v>
@@ -1891,7 +1891,7 @@
         <v>44</v>
       </c>
       <c r="B32" s="0" t="n">
-        <v>1114.4653117524</v>
+        <v>1114.31531175239</v>
       </c>
       <c r="C32" s="4" t="n">
         <v>1122.2566094999</v>
@@ -1935,7 +1935,7 @@
         <v>45</v>
       </c>
       <c r="B33" s="0" t="n">
-        <v>1044.46734670145</v>
+        <v>1044.31734670145</v>
       </c>
       <c r="C33" s="4" t="n">
         <v>1013.28683316059</v>
@@ -1979,7 +1979,7 @@
         <v>46</v>
       </c>
       <c r="B34" s="0" t="n">
-        <v>1159.26051357018</v>
+        <v>1159.11051357018</v>
       </c>
       <c r="C34" s="4" t="n">
         <v>1084.21263415204</v>
@@ -2023,7 +2023,7 @@
         <v>47</v>
       </c>
       <c r="B35" s="0" t="n">
-        <v>1303.06573437443</v>
+        <v>1302.91573437443</v>
       </c>
       <c r="C35" s="4" t="n">
         <v>1131.00797115409</v>
@@ -2067,7 +2067,7 @@
         <v>48</v>
       </c>
       <c r="B36" s="0" t="n">
-        <v>1176.937020263</v>
+        <v>1176.787020263</v>
       </c>
       <c r="C36" s="4" t="n">
         <v>1104.07736712717</v>
@@ -2111,7 +2111,7 @@
         <v>49</v>
       </c>
       <c r="B37" s="0" t="n">
-        <v>1168.52097187788</v>
+        <v>1168.37097187788</v>
       </c>
       <c r="C37" s="4" t="n">
         <v>1097.12797781747</v>
@@ -2155,7 +2155,7 @@
         <v>50</v>
       </c>
       <c r="B38" s="0" t="n">
-        <v>899.948274047628</v>
+        <v>899.798274047627</v>
       </c>
       <c r="C38" s="4" t="n">
         <v>848.973419762888</v>
@@ -2199,7 +2199,7 @@
         <v>51</v>
       </c>
       <c r="B39" s="0" t="n">
-        <v>1203.21712625003</v>
+        <v>1203.06712625003</v>
       </c>
       <c r="C39" s="4" t="n">
         <v>1094.7191244487</v>
@@ -2243,7 +2243,7 @@
         <v>52</v>
       </c>
       <c r="B40" s="0" t="n">
-        <v>1234.9853127774</v>
+        <v>1234.8353127774</v>
       </c>
       <c r="C40" s="4" t="n">
         <v>1101.51895149418</v>
@@ -2287,7 +2287,7 @@
         <v>53</v>
       </c>
       <c r="B41" s="0" t="n">
-        <v>1123.1051251621</v>
+        <v>1122.9551251621</v>
       </c>
       <c r="C41" s="4" t="n">
         <v>1072.84779100277</v>
@@ -2331,7 +2331,7 @@
         <v>54</v>
       </c>
       <c r="B42" s="0" t="n">
-        <v>1265.79369943339</v>
+        <v>1265.64369943339</v>
       </c>
       <c r="C42" s="4" t="n">
         <v>1140.88367563885</v>
@@ -2375,7 +2375,7 @@
         <v>55</v>
       </c>
       <c r="B43" s="0" t="n">
-        <v>1160.2117571661</v>
+        <v>1160.0617571661</v>
       </c>
       <c r="C43" s="4" t="n">
         <v>1046.61199580219</v>
@@ -2419,7 +2419,7 @@
         <v>56</v>
       </c>
       <c r="B44" s="0" t="n">
-        <v>1107.2080966063</v>
+        <v>1107.0580966063</v>
       </c>
       <c r="C44" s="4" t="n">
         <v>1049.36146297974</v>
@@ -2463,7 +2463,7 @@
         <v>57</v>
       </c>
       <c r="B45" s="0" t="n">
-        <v>1061.48442233344</v>
+        <v>1061.33442233344</v>
       </c>
       <c r="C45" s="4" t="n">
         <v>1051.20648074766</v>
@@ -2507,7 +2507,7 @@
         <v>58</v>
       </c>
       <c r="B46" s="0" t="n">
-        <v>1325.74900201548</v>
+        <v>1325.59900201548</v>
       </c>
       <c r="C46" s="4" t="n">
         <v>1193.2789254512</v>
@@ -2551,7 +2551,7 @@
         <v>59</v>
       </c>
       <c r="B47" s="0" t="n">
-        <v>1041.98080477438</v>
+        <v>1041.83080477438</v>
       </c>
       <c r="C47" s="4" t="n">
         <v>1022.17219960356</v>
@@ -2595,7 +2595,7 @@
         <v>60</v>
       </c>
       <c r="B48" s="0" t="n">
-        <v>1039.16433387949</v>
+        <v>1039.01433387949</v>
       </c>
       <c r="C48" s="4" t="n">
         <v>1016.79482006175</v>
@@ -2639,7 +2639,7 @@
         <v>61</v>
       </c>
       <c r="B49" s="0" t="n">
-        <v>1267.04349551031</v>
+        <v>1266.89349551032</v>
       </c>
       <c r="C49" s="4" t="n">
         <v>1119.5209327789</v>
@@ -2683,7 +2683,7 @@
         <v>62</v>
       </c>
       <c r="B50" s="0" t="n">
-        <v>1207.46269132528</v>
+        <v>1207.31269132528</v>
       </c>
       <c r="C50" s="4" t="n">
         <v>1148.84368153664</v>
@@ -2727,7 +2727,7 @@
         <v>63</v>
       </c>
       <c r="B51" s="0" t="n">
-        <v>1152.63580007646</v>
+        <v>1152.48580007646</v>
       </c>
       <c r="C51" s="4" t="n">
         <v>1136.63500216256</v>
@@ -2771,7 +2771,7 @@
         <v>64</v>
       </c>
       <c r="B52" s="0" t="n">
-        <v>1139.57203004584</v>
+        <v>1139.42203004584</v>
       </c>
       <c r="C52" s="4" t="n">
         <v>1147.08433627995</v>
@@ -2815,7 +2815,7 @@
         <v>65</v>
       </c>
       <c r="B53" s="0" t="n">
-        <v>1125.11423642407</v>
+        <v>1124.96423642407</v>
       </c>
       <c r="C53" s="4" t="n">
         <v>1135.41981005869</v>
@@ -2859,7 +2859,7 @@
         <v>66</v>
       </c>
       <c r="B54" s="0" t="n">
-        <v>1129.18708399983</v>
+        <v>1129.03708399984</v>
       </c>
       <c r="C54" s="4" t="n">
         <v>1145.31583895709</v>
@@ -2903,7 +2903,7 @@
         <v>67</v>
       </c>
       <c r="B55" s="0" t="n">
-        <v>1108.59280802607</v>
+        <v>1108.44280802607</v>
       </c>
       <c r="C55" s="4" t="n">
         <v>1126.78646312871</v>
@@ -2947,7 +2947,7 @@
         <v>68</v>
       </c>
       <c r="B56" s="0" t="n">
-        <v>1141.44574695669</v>
+        <v>1141.29574695669</v>
       </c>
       <c r="C56" s="4" t="n">
         <v>1159.21420987061</v>
@@ -2991,7 +2991,7 @@
         <v>69</v>
       </c>
       <c r="B57" s="0" t="n">
-        <v>1072.58502372615</v>
+        <v>1072.43502372615</v>
       </c>
       <c r="C57" s="4" t="n">
         <v>1026.13638030443</v>
@@ -3035,7 +3035,7 @@
         <v>70</v>
       </c>
       <c r="B58" s="0" t="n">
-        <v>1041.32061222701</v>
+        <v>1041.17061222701</v>
       </c>
       <c r="C58" s="4" t="n">
         <v>1008.05370240209</v>
@@ -3079,7 +3079,7 @@
         <v>71</v>
       </c>
       <c r="B59" s="0" t="n">
-        <v>1083.34840154806</v>
+        <v>1083.19840154806</v>
       </c>
       <c r="C59" s="4" t="n">
         <v>1003.33460047701</v>
@@ -3123,7 +3123,7 @@
         <v>72</v>
       </c>
       <c r="B60" s="0" t="n">
-        <v>1212.83536233955</v>
+        <v>1212.68536233955</v>
       </c>
       <c r="C60" s="4" t="n">
         <v>1152.3354007409</v>
@@ -3167,7 +3167,7 @@
         <v>73</v>
       </c>
       <c r="B61" s="0" t="n">
-        <v>1293.98698086486</v>
+        <v>1293.83698086486</v>
       </c>
       <c r="C61" s="4" t="n">
         <v>1203.45754176162</v>
@@ -3211,7 +3211,7 @@
         <v>74</v>
       </c>
       <c r="B62" s="0" t="n">
-        <v>1029.31811670675</v>
+        <v>1029.16811670675</v>
       </c>
       <c r="C62" s="4" t="n">
         <v>988.641158584623</v>
@@ -3255,7 +3255,7 @@
         <v>75</v>
       </c>
       <c r="B63" s="0" t="n">
-        <v>972.093857888901</v>
+        <v>971.943857888901</v>
       </c>
       <c r="C63" s="4" t="n">
         <v>962.078882214477</v>
@@ -3299,7 +3299,7 @@
         <v>76</v>
       </c>
       <c r="B64" s="0" t="n">
-        <v>1019.29475996639</v>
+        <v>1019.14475996639</v>
       </c>
       <c r="C64" s="4" t="n">
         <v>998.52890942806</v>
@@ -3343,7 +3343,7 @@
         <v>77</v>
       </c>
       <c r="B65" s="0" t="n">
-        <v>1196.67488313575</v>
+        <v>1196.52488313575</v>
       </c>
       <c r="C65" s="4" t="n">
         <v>1163.72542120457</v>
@@ -3387,7 +3387,7 @@
         <v>78</v>
       </c>
       <c r="B66" s="0" t="n">
-        <v>1050.30131811901</v>
+        <v>1050.15131811901</v>
       </c>
       <c r="C66" s="4" t="n">
         <v>1008.05370240209</v>
@@ -3431,7 +3431,7 @@
         <v>79</v>
       </c>
       <c r="B67" s="0" t="n">
-        <v>936.888087904105</v>
+        <v>936.738087904105</v>
       </c>
       <c r="C67" s="4" t="n">
         <v>912.26551977275</v>
@@ -3475,7 +3475,7 @@
         <v>80</v>
       </c>
       <c r="B68" s="0" t="n">
-        <v>917.27488689946</v>
+        <v>917.124886899459</v>
       </c>
       <c r="C68" s="4" t="n">
         <v>932.231292471864</v>
@@ -3519,7 +3519,7 @@
         <v>81</v>
       </c>
       <c r="B69" s="0" t="n">
-        <v>1389.80287403117</v>
+        <v>1389.65287403117</v>
       </c>
       <c r="C69" s="4" t="n">
         <v>1290.88338403662</v>
@@ -3563,7 +3563,7 @@
         <v>82</v>
       </c>
       <c r="B70" s="0" t="n">
-        <v>1021.12177669783</v>
+        <v>1020.97177669783</v>
       </c>
       <c r="C70" s="4" t="n">
         <v>1026.57330961424</v>
@@ -3605,7 +3605,7 @@
         <v>83</v>
       </c>
       <c r="B71" s="0" t="n">
-        <v>1181.71538401383</v>
+        <v>1181.56538401383</v>
       </c>
       <c r="C71" s="4" t="n">
         <v>1099.41626095537</v>
@@ -3649,7 +3649,7 @@
         <v>84</v>
       </c>
       <c r="B72" s="0" t="n">
-        <v>1284.97976212778</v>
+        <v>1284.82976212778</v>
       </c>
       <c r="C72" s="4" t="n">
         <v>1250.64566907871</v>
@@ -3693,7 +3693,7 @@
         <v>85</v>
       </c>
       <c r="B73" s="0" t="n">
-        <v>985.746504123325</v>
+        <v>985.596504123325</v>
       </c>
       <c r="C73" s="4" t="n">
         <v>1001.42293625985</v>
@@ -3737,7 +3737,7 @@
         <v>86</v>
       </c>
       <c r="B74" s="0" t="n">
-        <v>1178.09716514553</v>
+        <v>1177.94716514553</v>
       </c>
       <c r="C74" s="4" t="n">
         <v>1089.31752463217</v>
@@ -3781,7 +3781,7 @@
         <v>86</v>
       </c>
       <c r="B75" s="0" t="n">
-        <v>1170.63637622484</v>
+        <v>1170.48637622484</v>
       </c>
       <c r="C75" s="4" t="n">
         <v>1082.02408142177</v>
@@ -3825,7 +3825,7 @@
         <v>87</v>
       </c>
       <c r="B76" s="0" t="n">
-        <v>1171.20390553368</v>
+        <v>1171.05390553368</v>
       </c>
       <c r="C76" s="4" t="n">
         <v>1136.42266289993</v>
@@ -3869,7 +3869,7 @@
         <v>87</v>
       </c>
       <c r="B77" s="0" t="n">
-        <v>1183.96160034368</v>
+        <v>1183.81160034368</v>
       </c>
       <c r="C77" s="4" t="n">
         <v>1146.05383299514</v>
@@ -3913,7 +3913,7 @@
         <v>88</v>
       </c>
       <c r="B78" s="0" t="n">
-        <v>1143.58559630082</v>
+        <v>1143.43559630082</v>
       </c>
       <c r="C78" s="4" t="n">
         <v>1112.8070564452</v>
@@ -3957,7 +3957,7 @@
         <v>88</v>
       </c>
       <c r="B79" s="0" t="n">
-        <v>1127.25774966873</v>
+        <v>1127.10774966873</v>
       </c>
       <c r="C79" s="4" t="n">
         <v>1095.96029673487</v>
@@ -4001,7 +4001,7 @@
         <v>89</v>
       </c>
       <c r="B80" s="0" t="n">
-        <v>1193.25999597429</v>
+        <v>1193.10999597429</v>
       </c>
       <c r="C80" s="4" t="n">
         <v>1127.44186021587</v>
@@ -4045,7 +4045,7 @@
         <v>89</v>
       </c>
       <c r="B81" s="0" t="n">
-        <v>1162.25367893527</v>
+        <v>1162.10367893527</v>
       </c>
       <c r="C81" s="4" t="n">
         <v>1105.51573767974</v>
@@ -4089,7 +4089,7 @@
         <v>90</v>
       </c>
       <c r="B82" s="0" t="n">
-        <v>1064.75304539785</v>
+        <v>1064.60304539785</v>
       </c>
       <c r="C82" s="4" t="n">
         <v>1056.04308631902</v>
@@ -4133,7 +4133,7 @@
         <v>90</v>
       </c>
       <c r="B83" s="0" t="n">
-        <v>1061.12720275449</v>
+        <v>1060.97720275449</v>
       </c>
       <c r="C83" s="4" t="n">
         <v>1053.99151661683</v>
@@ -4177,7 +4177,7 @@
         <v>91</v>
       </c>
       <c r="B84" s="0" t="n">
-        <v>967.008955392465</v>
+        <v>966.858955392465</v>
       </c>
       <c r="C84" s="4" t="n">
         <v>965.033875089738</v>
@@ -4221,7 +4221,7 @@
         <v>91</v>
       </c>
       <c r="B85" s="0" t="n">
-        <v>993.972604989183</v>
+        <v>993.822604989183</v>
       </c>
       <c r="C85" s="4" t="n">
         <v>986.057441173184</v>
@@ -4265,7 +4265,7 @@
         <v>92</v>
       </c>
       <c r="B86" s="0" t="n">
-        <v>1248.46424040766</v>
+        <v>1248.31424040766</v>
       </c>
       <c r="C86" s="4" t="n">
         <v>1101.34990190892</v>
@@ -4309,7 +4309,7 @@
         <v>92</v>
       </c>
       <c r="B87" s="0" t="n">
-        <v>1243.57369973014</v>
+        <v>1243.42369973014</v>
       </c>
       <c r="C87" s="4" t="n">
         <v>1095.47820845433</v>
@@ -4353,7 +4353,7 @@
         <v>93</v>
       </c>
       <c r="B88" s="0" t="n">
-        <v>1087.24232699575</v>
+        <v>1087.09232699575</v>
       </c>
       <c r="C88" s="4" t="n">
         <v>1099.07578979291</v>
@@ -4397,7 +4397,7 @@
         <v>94</v>
       </c>
       <c r="B89" s="0" t="n">
-        <v>1101.59497494762</v>
+        <v>1101.44497494762</v>
       </c>
       <c r="C89" s="4" t="n">
         <v>1109.13280496708</v>
@@ -4441,7 +4441,7 @@
         <v>95</v>
       </c>
       <c r="B90" s="0" t="n">
-        <v>1322.65222251949</v>
+        <v>1322.50222251949</v>
       </c>
       <c r="C90" s="4" t="n">
         <v>1148.9752669025</v>
@@ -4485,7 +4485,7 @@
         <v>96</v>
       </c>
       <c r="B91" s="0" t="n">
-        <v>1320.77933137783</v>
+        <v>1320.62933137783</v>
       </c>
       <c r="C91" s="4" t="n">
         <v>1082.01327892661</v>
@@ -4529,7 +4529,7 @@
         <v>97</v>
       </c>
       <c r="B92" s="0" t="n">
-        <v>1199.42027945373</v>
+        <v>1199.27027945373</v>
       </c>
       <c r="C92" s="4" t="n">
         <v>1141.89421084105</v>
@@ -4573,7 +4573,7 @@
         <v>98</v>
       </c>
       <c r="B93" s="0" t="n">
-        <v>1413.76917920201</v>
+        <v>1413.61917920201</v>
       </c>
       <c r="C93" s="4" t="n">
         <v>1202.18522148265</v>
@@ -4617,7 +4617,7 @@
         <v>99</v>
       </c>
       <c r="B94" s="0" t="n">
-        <v>1192.43024466229</v>
+        <v>1192.28024466229</v>
       </c>
       <c r="C94" s="4" t="n">
         <v>1038.62622454043</v>
@@ -4661,7 +4661,7 @@
         <v>100</v>
       </c>
       <c r="B95" s="0" t="n">
-        <v>1122.26692505525</v>
+        <v>1122.11692505525</v>
       </c>
       <c r="C95" s="4" t="n">
         <v>1088.54662899357</v>
@@ -4705,7 +4705,7 @@
         <v>101</v>
       </c>
       <c r="B96" s="0" t="n">
-        <v>1188.42127551861</v>
+        <v>1188.27127551861</v>
       </c>
       <c r="C96" s="4" t="n">
         <v>1151.02727237459</v>
@@ -4749,7 +4749,7 @@
         <v>102</v>
       </c>
       <c r="B97" s="0" t="n">
-        <v>1112.87979473111</v>
+        <v>1112.72979473111</v>
       </c>
       <c r="C97" s="4" t="n">
         <v>1103.46658631133</v>
@@ -4793,7 +4793,7 @@
         <v>103</v>
       </c>
       <c r="B98" s="0" t="n">
-        <v>1225.70236257775</v>
+        <v>1225.55236257775</v>
       </c>
       <c r="C98" s="4" t="n">
         <v>1133.48153714733</v>
@@ -4837,7 +4837,7 @@
         <v>104</v>
       </c>
       <c r="B99" s="0" t="n">
-        <v>1173.71003999179</v>
+        <v>1173.56003999179</v>
       </c>
       <c r="C99" s="4" t="n">
         <v>1133.75388260058</v>
@@ -4881,7 +4881,7 @@
         <v>105</v>
       </c>
       <c r="B100" s="0" t="n">
-        <v>932.842379889659</v>
+        <v>932.692379889659</v>
       </c>
       <c r="C100" s="4" t="n">
         <v>934.134041892545</v>
@@ -4925,7 +4925,7 @@
         <v>106</v>
       </c>
       <c r="B101" s="0" t="n">
-        <v>944.032252576963</v>
+        <v>943.882252576963</v>
       </c>
       <c r="C101" s="4" t="n">
         <v>912.26551977275</v>
@@ -4969,7 +4969,7 @@
         <v>107</v>
       </c>
       <c r="B102" s="0" t="n">
-        <v>940.136950164923</v>
+        <v>939.986950164923</v>
       </c>
       <c r="C102" s="4" t="n">
         <v>923.796918918816</v>
@@ -5013,7 +5013,7 @@
         <v>108</v>
       </c>
       <c r="B103" s="0" t="n">
-        <v>883.917928697609</v>
+        <v>883.76792869761</v>
       </c>
       <c r="C103" s="4" t="n">
         <v>905.188979707737</v>
@@ -5057,7 +5057,7 @@
         <v>109</v>
       </c>
       <c r="B104" s="0" t="n">
-        <v>1080.56192737017</v>
+        <v>1080.41192737017</v>
       </c>
       <c r="C104" s="4" t="n">
         <v>1074.25520039066</v>
@@ -5101,7 +5101,7 @@
         <v>110</v>
       </c>
       <c r="B105" s="0" t="n">
-        <v>1080.34824457287</v>
+        <v>1080.19824457287</v>
       </c>
       <c r="C105" s="4" t="n">
         <v>1026.13638030443</v>
@@ -5145,7 +5145,7 @@
         <v>111</v>
       </c>
       <c r="B106" s="0" t="n">
-        <v>893.562527037415</v>
+        <v>893.412527037415</v>
       </c>
       <c r="C106" s="4" t="n">
         <v>925.77142446422</v>
@@ -5189,7 +5189,7 @@
         <v>112</v>
       </c>
       <c r="B107" s="0" t="n">
-        <v>1119.77888790491</v>
+        <v>1119.62888790491</v>
       </c>
       <c r="C107" s="4" t="n">
         <v>1072.40196175367</v>
@@ -5233,7 +5233,7 @@
         <v>113</v>
       </c>
       <c r="B108" s="0" t="n">
-        <v>1080.21300441917</v>
+        <v>1080.06300441917</v>
       </c>
       <c r="C108" s="4" t="n">
         <v>1042.27219544276</v>
@@ -5277,7 +5277,7 @@
         <v>114</v>
       </c>
       <c r="B109" s="0" t="n">
-        <v>1101.43075118736</v>
+        <v>1101.28075118736</v>
       </c>
       <c r="C109" s="4" t="n">
         <v>1055.57094055685</v>
@@ -5321,7 +5321,7 @@
         <v>115</v>
       </c>
       <c r="B110" s="0" t="n">
-        <v>951.669289917139</v>
+        <v>951.519289917139</v>
       </c>
       <c r="C110" s="4" t="n">
         <v>948.223417946709</v>
@@ -5365,7 +5365,7 @@
         <v>116</v>
       </c>
       <c r="B111" s="0" t="n">
-        <v>1090.64838120677</v>
+        <v>1090.49838120677</v>
       </c>
       <c r="C111" s="4" t="n">
         <v>1023.05813161966</v>
@@ -5409,7 +5409,7 @@
         <v>117</v>
       </c>
       <c r="B112" s="0" t="n">
-        <v>1023.03779369413</v>
+        <v>1022.88779369413</v>
       </c>
       <c r="C112" s="4" t="n">
         <v>1021.28336575814</v>
@@ -5453,7 +5453,7 @@
         <v>118</v>
       </c>
       <c r="B113" s="0" t="n">
-        <v>1042.69318703156</v>
+        <v>1042.54318703156</v>
       </c>
       <c r="C113" s="4" t="n">
         <v>1032.19099076156</v>
@@ -5497,7 +5497,7 @@
         <v>119</v>
       </c>
       <c r="B114" s="0" t="n">
-        <v>1346.26953684146</v>
+        <v>1346.11953684146</v>
       </c>
       <c r="C114" s="4" t="n">
         <v>1234.76864481242</v>
@@ -5541,7 +5541,7 @@
         <v>120</v>
       </c>
       <c r="B115" s="0" t="n">
-        <v>1367.61187621501</v>
+        <v>1367.461876215</v>
       </c>
       <c r="C115" s="4" t="n">
         <v>1237.07584448953</v>
@@ -5585,7 +5585,7 @@
         <v>121</v>
       </c>
       <c r="B116" s="0" t="n">
-        <v>1296.71339350935</v>
+        <v>1296.56339350935</v>
       </c>
       <c r="C116" s="4" t="n">
         <v>1215.80426612755</v>
@@ -5629,7 +5629,7 @@
         <v>122</v>
       </c>
       <c r="B117" s="0" t="n">
-        <v>1346.38333063423</v>
+        <v>1346.23333063423</v>
       </c>
       <c r="C117" s="4" t="n">
         <v>1227.76483435625</v>
@@ -5673,7 +5673,7 @@
         <v>123</v>
       </c>
       <c r="B118" s="0" t="n">
-        <v>1128.54265575356</v>
+        <v>1128.39265575356</v>
       </c>
       <c r="C118" s="4" t="n">
         <v>1134.50549832382</v>
